--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D72CD-9890-4434-B747-10D58A7AAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408706AE-8FAC-4227-B198-CE393BEFDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="435">
   <si>
     <t>Revision</t>
   </si>
@@ -40323,15 +40323,6 @@
     <t>4-10</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd STG Current </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st STG Current </t>
-  </si>
-  <si>
-    <t>Ground AZCOMP</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -40932,7 +40923,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Run_startup </t>
+      <t xml:space="preserve">Run__startup </t>
     </r>
     <r>
       <rPr>
@@ -40951,7 +40942,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xFE_0x01</t>
+      <t xml:space="preserve">0xFE_0x01 </t>
     </r>
     <r>
       <rPr>
@@ -40960,8 +40951,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "Select page 1"  
-</t>
+      <t>"Select page 1"</t>
     </r>
     <r>
       <rPr>
@@ -40970,7 +40960,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
     </r>
     <r>
       <rPr>
@@ -41027,7 +41018,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0x10_0x08  </t>
+      <t xml:space="preserve">0x10_0x08 </t>
     </r>
     <r>
       <rPr>
@@ -41036,7 +41027,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
 </t>
     </r>
     <r>
@@ -41065,7 +41056,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0x1A_0x00 </t>
+      <t xml:space="preserve">0x1A_0x0D </t>
     </r>
     <r>
       <rPr>
@@ -41074,7 +41065,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"3rd STG Current analog test point</t>
+      <t xml:space="preserve">"OUTN_INT_PRT analog test point"
+</t>
     </r>
     <r>
       <rPr>
@@ -41083,8 +41075,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"
-0xFE_0x00 </t>
+      <t xml:space="preserve">0xFE_0x00 </t>
     </r>
     <r>
       <rPr>
@@ -41094,26 +41085,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">"Return page 0"
- "Measure current between VBAT and SDWN pin"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Current__SDWN  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                        </t>
+</t>
     </r>
   </si>
   <si>
@@ -41124,7 +41096,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Run_startup                                                                  
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
 </t>
     </r>
     <r>
@@ -41134,7 +41115,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xFE_0x01</t>
+      <t xml:space="preserve">0xFE_0x01 </t>
     </r>
     <r>
       <rPr>
@@ -41143,8 +41124,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "Select page 1"  
-</t>
+      <t>"Select page 1"</t>
     </r>
     <r>
       <rPr>
@@ -41153,7 +41133,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
     </r>
     <r>
       <rPr>
@@ -41172,7 +41153,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x18_0x02</t>
+      <t xml:space="preserve">0x18_0x02 </t>
     </r>
     <r>
       <rPr>
@@ -41181,7 +41162,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "dig_azcomp_en"
+      <t xml:space="preserve">"dig_azcomp_en"
 </t>
     </r>
     <r>
@@ -41191,7 +41172,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x0F_0xC8</t>
+      <t xml:space="preserve">0x0F_0xC8 </t>
     </r>
     <r>
       <rPr>
@@ -41200,7 +41181,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> " force otp and mod clock on"
+      <t xml:space="preserve">" force otp and mod clock on"
 </t>
     </r>
     <r>
@@ -41210,7 +41191,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x10_0x08</t>
+      <t xml:space="preserve">0x10_0x08 </t>
     </r>
     <r>
       <rPr>
@@ -41219,7 +41200,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  "Force ref_sdwn_b_dis_m"
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
 </t>
     </r>
     <r>
@@ -41229,7 +41210,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x19_0x88</t>
+      <t xml:space="preserve">0x19_0x88  </t>
     </r>
     <r>
       <rPr>
@@ -41238,7 +41219,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  "test analog azcomp enable"
+      <t xml:space="preserve">"test analog azcomp enable"
 </t>
     </r>
     <r>
@@ -41248,7 +41229,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x1A_0x01</t>
+      <t xml:space="preserve">0x1A_0x0E </t>
     </r>
     <r>
       <rPr>
@@ -41257,7 +41238,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "2rd STG Current analog test point"
+      <t xml:space="preserve">"OUTP_EXT_PRT analog test point"
 </t>
     </r>
     <r>
@@ -41267,7 +41248,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xFE_0x00</t>
+      <t xml:space="preserve">0xFE_0x00 </t>
     </r>
     <r>
       <rPr>
@@ -41276,1328 +41257,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "Return page 0"
- "Measure current between VBAT and SDWN pin"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Current__SDWN  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"1rd STG Current analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">"Return page 0"
- "Measure current between VBAT and SDWN pin"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Current__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x03 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"GND analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
- "Measure Voltage between SDWN pin and GND"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0B </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OUTN_EXT_PRT analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__OUTP__2V   
-Force__OUTN__2V   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Measure Voltage between SDWN pin and GND, it should be 2V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0C </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OUTP_EXT_PRT analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__OUTP__2V   
-Force__OUTN__2V   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Measure Voltage between SDWN pin and GND, it should be 2V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OUTN_INT_PRT analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0E </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OUTP_EXT_PRT analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"VCM_AVDD analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
- "Measure Voltage between SDWN pin and GND, you should measure VBAT/2"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+</t>
     </r>
   </si>
   <si>
@@ -42614,9 +41275,6 @@
   </si>
   <si>
     <t>Startup</t>
-  </si>
-  <si>
-    <t>DACPA_tourn_on_wo_calibration</t>
   </si>
   <si>
     <t>Procedura_Maurizio</t>
@@ -42647,46 +41305,6 @@
   </si>
   <si>
     <t>BOOST_FORCE_VBSO19V</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00 "Select page 0"
-0x13[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Disable authomatic calibration at power up"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Play, speaker enable"</t>
-    </r>
   </si>
   <si>
     <t>Procedura per consentire la misura dell'offset in ANALOG_IN, visto che i DAC non sono abilitati di default  per applicare la parola di correzione</t>
@@ -43618,6 +42236,1432 @@
   </si>
   <si>
     <t>OUT_TEST_FRO_VVCO</t>
+  </si>
+  <si>
+    <t>3rd_STG_Current</t>
+  </si>
+  <si>
+    <t>2nd_STG_Current</t>
+  </si>
+  <si>
+    <t>Ground_AZCOMP</t>
+  </si>
+  <si>
+    <t>1st_STG_Current</t>
+  </si>
+  <si>
+    <t>2V</t>
+  </si>
+  <si>
+    <t>Enable_Ana_Testpoint_AZ_comp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8
+0x10_0x08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FORCE__SDWN__OPEN
+0x19_0x88 "Enable reference analog test"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OUTN_EXT_PRT analog test point"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__OUTP__2V   
+Force__OUTN__2V   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Measure Voltage between SDWN pin and GND, it should be 2V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OUTP_EXT_PRT analog test point"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__OUTP__2V   
+Force__OUTN__2V   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Measure Voltage between SDWN pin and GND, it should be 2V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"VCM_AVDD analog test point"
+ "Measure Voltage between SDWN pin and GND, you should measure VBAT/2"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"3rd STG Current analog test point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Measure current between VBAT and SDWN pin"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Current__SDWN  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup                                                                  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F_0xC8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> " force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x10_0x08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "2rd STG Current analog test point"
+"Measure current between VBAT and SDWN pin"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Current__SDWN  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"1rd STG Current analog test point"
+"Measure current between VBAT and SDWN pin"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Current__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"GND analog test point"
+"Measure Voltage between SDWN pin and GND"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -45309,6 +45353,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -45335,9 +45382,6 @@
     </xf>
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -45752,177 +45796,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -46831,10 +46875,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="230" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="230"/>
+      <c r="A1" s="231" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="231"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -46865,10 +46909,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -46883,10 +46927,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -46901,23 +46945,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="220" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F5" s="223" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -46928,12 +46972,12 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="233"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -46945,7 +46989,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="233"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -46961,7 +47005,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -46975,7 +47019,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="233"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -47900,10 +47944,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -47934,10 +47978,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -47952,10 +47996,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="9" t="s">
         <v>202</v>
       </c>
@@ -47970,8 +48014,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="37" t="s">
         <v>206</v>
       </c>
@@ -47986,7 +48030,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48004,7 +48048,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="233"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48020,7 +48064,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="233"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48038,7 +48082,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48054,7 +48098,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="233"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -48814,8 +48858,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48827,17 +48871,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>432</v>
-      </c>
-      <c r="E1" s="239" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="230" t="s">
         <v>214</v>
       </c>
       <c r="F1" s="129" t="s">
@@ -48859,10 +48903,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -48877,15 +48921,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>214</v>
@@ -48895,23 +48939,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="210" t="s">
         <v>216</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F5" s="222" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48925,7 +48969,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="233"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48935,12 +48979,12 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="233"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>218</v>
@@ -48953,7 +48997,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48965,7 +49009,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="233"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -49868,7 +49912,7 @@
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49885,10 +49929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>222</v>
       </c>
@@ -50055,10 +50099,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50142,10 +50186,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50229,8 +50273,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
       <c r="C5" s="226" t="s">
         <v>234</v>
       </c>
@@ -50314,7 +50358,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50393,7 +50437,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50428,7 +50472,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -50481,7 +50525,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -50560,7 +50604,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -54102,10 +54146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54200,10 +54244,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54251,10 +54295,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>278</v>
       </c>
@@ -54302,8 +54346,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="238"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="224" t="s">
         <v>293</v>
       </c>
@@ -54351,7 +54395,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54374,7 +54418,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54395,7 +54439,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -54440,7 +54484,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -54465,7 +54509,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -56616,8 +56660,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56636,24 +56680,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>68</v>
+        <v>421</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56662,16 +56706,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -56710,10 +56754,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56749,24 +56793,24 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>68</v>
+        <v>421</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56775,55 +56819,55 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="238"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="211" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="211" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>351</v>
-      </c>
       <c r="L5" s="56" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -56842,7 +56886,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -56859,7 +56903,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -56867,36 +56911,36 @@
         <v>262</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -56913,7 +56957,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -58575,13 +58619,12 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="1" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
@@ -58593,84 +58636,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="229" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>369</v>
+        <v>410</v>
+      </c>
+      <c r="C2" s="177" t="s">
+        <v>427</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="L2" s="83" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="M2" s="83" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408706AE-8FAC-4227-B198-CE393BEFDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830F3E68-BB23-4F02-A478-C3F24C1BF072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="434">
   <si>
     <t>Revision</t>
   </si>
@@ -42248,9 +42248,6 @@
   </si>
   <si>
     <t>1st_STG_Current</t>
-  </si>
-  <si>
-    <t>2V</t>
   </si>
   <si>
     <t>Enable_Ana_Testpoint_AZ_comp</t>
@@ -46862,8 +46859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48859,7 +48856,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56660,8 +56657,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56838,22 +56835,22 @@
         <v>340</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>434</v>
-      </c>
       <c r="H5" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="I5" s="56" t="s">
         <v>428</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>429</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>341</v>
@@ -56862,7 +56859,7 @@
         <v>342</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -56923,10 +56920,10 @@
         <v>20</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
         <v>345</v>
@@ -58642,7 +58639,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>348</v>
@@ -58683,7 +58680,7 @@
         <v>410</v>
       </c>
       <c r="C2" s="177" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>358</v>
@@ -58723,6 +58720,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58731,15 +58737,6 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58960,20 +58957,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830F3E68-BB23-4F02-A478-C3F24C1BF072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9600FF7-EA7C-4B94-9EF0-E7DF1F8978A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="433">
   <si>
     <t>Revision</t>
   </si>
@@ -41269,9 +41269,6 @@
   </si>
   <si>
     <t>&lt;6.6</t>
-  </si>
-  <si>
-    <t>VBAT/2</t>
   </si>
   <si>
     <t>Startup</t>
@@ -44773,7 +44770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45380,6 +45377,9 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -45793,177 +45793,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>381</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>387</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>388</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>389</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>393</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>395</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>399</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>405</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -46873,7 +46873,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="231" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="231"/>
       <c r="C1" s="9" t="s">
@@ -46945,16 +46945,16 @@
       <c r="A5" s="232"/>
       <c r="B5" s="233"/>
       <c r="C5" s="220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D5" s="207" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="207" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="223" t="s">
         <v>412</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>416</v>
-      </c>
-      <c r="F5" s="223" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -46969,7 +46969,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -48876,7 +48876,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1" s="230" t="s">
         <v>214</v>
@@ -48926,7 +48926,7 @@
         <v>213</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>214</v>
@@ -48942,10 +48942,10 @@
         <v>216</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F5" s="222" t="s">
         <v>217</v>
@@ -48981,7 +48981,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>218</v>
@@ -56657,8 +56657,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56685,16 +56685,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>422</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>423</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56798,16 +56798,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>422</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>423</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56835,22 +56835,22 @@
         <v>340</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>433</v>
-      </c>
       <c r="H5" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="37" t="s">
         <v>427</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>428</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>341</v>
@@ -56859,7 +56859,7 @@
         <v>342</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -56919,11 +56919,11 @@
       <c r="G8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="69" t="s">
-        <v>75</v>
+      <c r="H8" s="240">
+        <v>2</v>
+      </c>
+      <c r="I8" s="240">
+        <v>2</v>
       </c>
       <c r="J8" s="69" t="s">
         <v>345</v>
@@ -56931,8 +56931,8 @@
       <c r="K8" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="L8" s="69" t="s">
-        <v>346</v>
+      <c r="L8" s="240">
+        <v>2</v>
       </c>
       <c r="M8" s="69"/>
     </row>
@@ -58633,84 +58633,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>356</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="229" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="177" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>410</v>
-      </c>
       <c r="C2" s="177" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>366</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -58720,15 +58720,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58737,6 +58728,15 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58957,20 +58957,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9600FF7-EA7C-4B94-9EF0-E7DF1F8978A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018998E-A1C9-43C8-B2CB-F5EAFBEAFE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="434">
   <si>
     <t>Revision</t>
   </si>
@@ -42310,7 +42310,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Run__startup </t>
+      <t xml:space="preserve">Run_startup </t>
     </r>
     <r>
       <rPr>
@@ -42329,7 +42329,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
+      <t>0xFE_0x01</t>
     </r>
     <r>
       <rPr>
@@ -42338,7 +42338,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Select page 1"</t>
+      <t xml:space="preserve"> "Select page 1"  
+</t>
     </r>
     <r>
       <rPr>
@@ -42347,6 +42348,584 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"3rd STG Current analog test point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Measure current between VBAT and SDWN pin"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Current__SDWN  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup                                                                  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F_0xC8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> " force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x10_0x08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "2rd STG Current analog test point"
+"Measure current between VBAT and SDWN pin"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Current__SDWN  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"1rd STG Current analog test point"
+"Measure current between VBAT and SDWN pin"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Current__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">  
 0x17_0x02 </t>
     </r>
@@ -42444,7 +43023,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enable_Ana_Testpoint_AZ_comp</t>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
     </r>
     <r>
       <rPr>
@@ -42463,7 +43042,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0x1A_0x0B </t>
+      <t xml:space="preserve">0x1A_0x03 </t>
     </r>
     <r>
       <rPr>
@@ -42472,7 +43051,155 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"OUTN_EXT_PRT analog test point"
+      <t xml:space="preserve">"GND analog test point"
+"Measure Voltage between SDWN pin and GND"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+    </r>
+  </si>
+  <si>
+    <t>2v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
 </t>
     </r>
     <r>
@@ -42480,6 +43207,45 @@
         <sz val="16"/>
         <color rgb="FFFF33CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OUTN_EXT_PRT analog test point"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Force__OUTP__2V   
@@ -42648,7 +43414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enable_Ana_Testpoint_AZ_comp</t>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
     </r>
     <r>
       <rPr>
@@ -42852,7 +43618,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enable_Ana_Testpoint_AZ_comp</t>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
     </r>
     <r>
       <rPr>
@@ -42882,769 +43648,6 @@
       </rPr>
       <t xml:space="preserve">"VCM_AVDD analog test point"
  "Measure Voltage between SDWN pin and GND, you should measure VBAT/2"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"3rd STG Current analog test point</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Measure current between VBAT and SDWN pin"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Current__SDWN  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup                                                                  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18_0x02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x0F_0xC8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> " force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x10_0x08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x88</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "2rd STG Current analog test point"
-"Measure current between VBAT and SDWN pin"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Current__SDWN  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"1rd STG Current analog test point"
-"Measure current between VBAT and SDWN pin"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Current__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x03 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"GND analog test point"
-"Measure Voltage between SDWN pin and GND"
 </t>
     </r>
     <r>
@@ -45350,6 +45353,9 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -45376,9 +45382,6 @@
     </xf>
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -46872,10 +46875,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -46906,10 +46909,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -46924,10 +46927,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -46942,8 +46945,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="220" t="s">
         <v>413</v>
       </c>
@@ -46958,7 +46961,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -46974,7 +46977,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -46986,7 +46989,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47002,7 +47005,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -47016,7 +47019,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -47941,10 +47944,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -47975,10 +47978,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -47993,10 +47996,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="9" t="s">
         <v>202</v>
       </c>
@@ -48011,8 +48014,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="37" t="s">
         <v>206</v>
       </c>
@@ -48027,7 +48030,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48045,7 +48048,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48061,7 +48064,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48079,7 +48082,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48095,7 +48098,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -48868,10 +48871,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="104" t="s">
         <v>213</v>
       </c>
@@ -48900,10 +48903,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -48918,10 +48921,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="104" t="s">
         <v>213</v>
       </c>
@@ -48936,8 +48939,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="210" t="s">
         <v>216</v>
       </c>
@@ -48952,7 +48955,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48966,7 +48969,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48976,7 +48979,7 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48994,7 +48997,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -49006,7 +49009,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -49926,10 +49929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="17" t="s">
         <v>222</v>
       </c>
@@ -50096,10 +50099,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50183,10 +50186,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50270,8 +50273,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="236"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="226" t="s">
         <v>234</v>
       </c>
@@ -50355,7 +50358,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50434,7 +50437,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50469,7 +50472,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -50522,7 +50525,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -50601,7 +50604,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -54143,10 +54146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54241,10 +54244,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54292,10 +54295,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="65" t="s">
         <v>278</v>
       </c>
@@ -54343,8 +54346,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="238"/>
-      <c r="B5" s="239"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="224" t="s">
         <v>293</v>
       </c>
@@ -54392,7 +54395,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54415,7 +54418,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54436,7 +54439,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -54481,7 +54484,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -54506,7 +54509,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -56657,7 +56660,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -56677,10 +56680,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
@@ -56751,10 +56754,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56790,10 +56793,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -56829,28 +56832,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="238"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="211" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="F5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>432</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>427</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>341</v>
@@ -56858,13 +56861,13 @@
       <c r="K5" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>428</v>
+      <c r="L5" s="37" t="s">
+        <v>433</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -56883,7 +56886,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -56900,7 +56903,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -56919,11 +56922,11 @@
       <c r="G8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="240">
-        <v>2</v>
-      </c>
-      <c r="I8" s="240">
-        <v>2</v>
+      <c r="H8" s="231" t="s">
+        <v>430</v>
+      </c>
+      <c r="I8" s="231" t="s">
+        <v>430</v>
       </c>
       <c r="J8" s="69" t="s">
         <v>345</v>
@@ -56931,13 +56934,13 @@
       <c r="K8" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="L8" s="240">
-        <v>2</v>
+      <c r="L8" s="231" t="s">
+        <v>430</v>
       </c>
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -56954,7 +56957,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -58720,6 +58723,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58728,15 +58740,6 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58957,20 +58960,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018998E-A1C9-43C8-B2CB-F5EAFBEAFE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53380B30-CF65-48EE-81F0-AE8B9DC14754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -42000,68 +42000,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
-0x1A_0x04 "TSDN"
-Measure__Voltage__SDWN
-TrimSweep -  0xB3[7:5] "Select code which sets ATEST voltage as close as possible to target"
-Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run__startup
-Run__Boost_test_default
-Wait__delay__0.1ms
-0xFE_0x00 "Select page 0"
-0xB0[1]_0x01 "ocp en
-0xB2[1]_0x01 "ls_sel on"
-0xC0[2:0]_0x01 "OCP threshold set to 200mA"
-0xFE_0x01 "Select page 1"
-0x1A_0x10 "TSW to OCP Sense"
-Wait__delay__0.1ms
-0xFE_0x00 "Select page 0"
-0xB2[0]_0x01 "Power Force en"
-0xFE_0x01 "Select page 1"
-Wait__delay__0.1ms
-0x15[2]_0x01 "Force ocp"
-0x19[1]_0x01 "bst_test en"
-Wait__delay__0.1ms
-Measure__Voltage__SDWN
-TrimSweep - 0xB2[5]_0xB1[3:0] "trim in 2 different registers, what is the correct command"
-Calculate__MinError
-0x1A_0x00
-0x19_0x00
-</t>
-  </si>
-  <si>
-    <t>Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
-0x1A_0x01 "Bandgap"
-0xB0_0x0E
-Measure__Voltage__SDWN
-TrimSweep - 0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
-Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
-  </si>
-  <si>
-    <t>0xFE_0x01</t>
-  </si>
-  <si>
-    <t>Run__Startup
-0xFE_0x00
-0x00_0x0D
-0xFE_0x01 "Select page 1"
-0x03_0x04 "Enable digital test FSYN"
-0x04_0x20 "Enable digital test ana_ref_fro_clk_13m"
-0x0F_0x80
-Measure__Frequency__FSYN
-TrimSweep -  0xEF[4:0] "Select code which sets ATEST frequency as close as possible to target"
-Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
-  </si>
-  <si>
     <t>3,6</t>
   </si>
   <si>
@@ -43659,6 +43597,65 @@
       </rPr>
       <t xml:space="preserve">Measure__Voltage_SDWN  </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Run__startup
+Run__Boost_test_default
+Wait__delay__0.1ms
+0xFE_0x00 ""Select page 0""
+0xB0[1]_0x01 ""ocp en
+0xB2[1]_0x01 ""ls_sel on""
+0xC0[2:0]_0x01 ""OCP threshold set to 200mA""
+0xFE_0x01 ""Select page 1""
+0x1A_0x10 ""TSW to OCP Sense""
+Wait__delay__0.1ms
+0xFE_0x00 ""Select page 0""
+0xB2[0]_0x01 ""Power Force en""
+0xFE_0x01 ""Select page 1""
+Wait__delay__0.1ms
+0x15[2]_0x01 ""Force ocp""
+0x19[1]_0x01 ""bst_test en""
+Wait__delay__0.1ms
+Measure__Voltage__SDWN
+Trim__0xB2[5]_0xB1[3:0] ""trim in 2 different registers, what is the correct command""
+Calculate__MinError
+0x1A_0x00
+0x19_0x00
+"
+</t>
+  </si>
+  <si>
+    <t>Run__Startup
+0xFE_0x01 "Select page 1"
+0x03_0x04 "Enable digital test FSYN"
+0x04_0x32 "Enable digital test ana_ref_fro_clk_13m"
+Measure__Frequency__FSYN
+Trim__ 0xEF[4:0] "Select code which sets ATEST frequency as close as possible to target"
+Calculate__MinError
+0xFE_0x00 "Return page 0"</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0x1A_0x04 "TSDN"
+Measure__Voltage__SDWN
+Trim__ 0xB3[7:5] "Select code which sets ATEST voltage as close as possible to target"
+Calculate__MinError
+0xFE_0x00 "Return page 0"</t>
+  </si>
+  <si>
+    <t>Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0x1A_0x01 "Bandgap"
+Measure__Voltage__SDWN
+Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
+Calculate__MinError
+0xFE_0x00 "Return page 0"</t>
   </si>
 </sst>
 </file>
@@ -44773,7 +44770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45329,9 +45326,6 @@
     <xf numFmtId="49" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -46065,7 +46059,7 @@
       <c r="F3" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="227" t="s">
+      <c r="G3" s="226" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="213" t="s">
@@ -46091,7 +46085,7 @@
       <c r="F4" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="228" t="s">
+      <c r="G4" s="227" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="186" t="s">
@@ -46117,7 +46111,7 @@
       <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="226" t="s">
+      <c r="G5" s="225" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="186" t="s">
@@ -46143,7 +46137,7 @@
       <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="226" t="s">
+      <c r="G6" s="225" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="186" t="s">
@@ -46169,10 +46163,10 @@
       <c r="F7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="226" t="s">
+      <c r="G7" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="226" t="s">
+      <c r="H7" s="225" t="s">
         <v>38</v>
       </c>
     </row>
@@ -46247,7 +46241,7 @@
       <c r="F10" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="226" t="s">
+      <c r="G10" s="225" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="186" t="s">
@@ -46429,7 +46423,7 @@
       <c r="F17" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="226" t="s">
+      <c r="G17" s="225" t="s">
         <v>76</v>
       </c>
       <c r="H17" s="186" t="s">
@@ -46844,7 +46838,7 @@
       <c r="F34" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="226" t="s">
+      <c r="G34" s="225" t="s">
         <v>135</v>
       </c>
       <c r="H34" s="186" t="s">
@@ -46862,8 +46856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46875,10 +46869,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -46909,10 +46903,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -46927,10 +46921,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -46945,23 +46939,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="220" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>415</v>
-      </c>
-      <c r="F5" s="223" t="s">
-        <v>412</v>
+        <v>430</v>
+      </c>
+      <c r="F5" s="192" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -46972,12 +46966,12 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -46989,7 +46983,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47005,7 +46999,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -47013,13 +47007,11 @@
         <v>1804</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
-        <v>153</v>
-      </c>
+      <c r="E9" s="39"/>
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -47027,7 +47019,9 @@
         <v>155</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47944,10 +47938,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -47978,10 +47972,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -47996,10 +47990,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="9" t="s">
         <v>202</v>
       </c>
@@ -48014,8 +48008,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="37" t="s">
         <v>206</v>
       </c>
@@ -48030,7 +48024,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48048,7 +48042,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48064,7 +48058,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48082,7 +48076,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48098,7 +48092,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -48871,17 +48865,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="230" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="229" t="s">
         <v>214</v>
       </c>
       <c r="F1" s="129" t="s">
@@ -48903,10 +48897,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -48921,15 +48915,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>214</v>
@@ -48939,23 +48933,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="210" t="s">
         <v>216</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F5" s="222" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48969,7 +48963,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48979,12 +48973,12 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>218</v>
@@ -48997,7 +48991,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -49009,7 +49003,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -49929,10 +49923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>222</v>
       </c>
@@ -50099,10 +50093,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50186,10 +50180,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50273,18 +50267,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="226" t="s">
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="225" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="225" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="225" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="226" t="s">
+      <c r="F5" s="225" t="s">
         <v>237</v>
       </c>
       <c r="G5" s="186" t="s">
@@ -50308,19 +50302,19 @@
       <c r="M5" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="226" t="s">
+      <c r="N5" s="225" t="s">
         <v>244</v>
       </c>
-      <c r="O5" s="226" t="s">
+      <c r="O5" s="225" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="226" t="s">
+      <c r="P5" s="225" t="s">
         <v>246</v>
       </c>
-      <c r="Q5" s="226" t="s">
+      <c r="Q5" s="225" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="226" t="s">
+      <c r="R5" s="225" t="s">
         <v>248</v>
       </c>
       <c r="S5" s="191" t="s">
@@ -50353,12 +50347,12 @@
       <c r="AB5" s="192" t="s">
         <v>258</v>
       </c>
-      <c r="AC5" s="226" t="s">
+      <c r="AC5" s="225" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50437,7 +50431,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50472,7 +50466,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -50525,7 +50519,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -50604,7 +50598,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -54146,10 +54140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54244,10 +54238,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54295,10 +54289,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>278</v>
       </c>
@@ -54346,12 +54340,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="224" t="s">
+      <c r="A5" s="238"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="223" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="225" t="s">
+      <c r="D5" s="224" t="s">
         <v>294</v>
       </c>
       <c r="E5" s="206" t="s">
@@ -54395,7 +54389,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54418,7 +54412,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54439,7 +54433,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -54484,7 +54478,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -54509,7 +54503,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -56660,7 +56654,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -56680,24 +56674,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56754,10 +56748,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56793,24 +56787,24 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56832,28 +56826,28 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
+      <c r="A5" s="238"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="211" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>427</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>432</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>341</v>
@@ -56862,12 +56856,12 @@
         <v>342</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -56886,7 +56880,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -56903,7 +56897,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -56922,11 +56916,11 @@
       <c r="G8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="231" t="s">
-        <v>430</v>
-      </c>
-      <c r="I8" s="231" t="s">
-        <v>430</v>
+      <c r="H8" s="230" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" s="230" t="s">
+        <v>425</v>
       </c>
       <c r="J8" s="69" t="s">
         <v>345</v>
@@ -56934,13 +56928,13 @@
       <c r="K8" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="L8" s="231" t="s">
-        <v>430</v>
+      <c r="L8" s="230" t="s">
+        <v>425</v>
       </c>
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -56957,7 +56951,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -58642,7 +58636,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>347</v>
@@ -58676,14 +58670,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="228" t="s">
         <v>408</v>
       </c>
       <c r="B2" s="177" t="s">
         <v>409</v>
       </c>
       <c r="C2" s="177" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>357</v>
@@ -58723,15 +58717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58740,6 +58725,15 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58960,20 +58954,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53380B30-CF65-48EE-81F0-AE8B9DC14754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E027041B-21DF-48F1-AC32-F944B5AE7552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="433">
   <si>
     <t>Revision</t>
   </si>
@@ -40367,558 +40367,6 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                         
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable digital test FSYN"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable digital test ana_azcomp_out"  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0x80  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force otp_clock_on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x10  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force pa_pd_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x14_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "Force en_dac3_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x13_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "Force en_dac3_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18_0x02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "Force_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xE0_0x0C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Comparator measure time 600us"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xE1_0x1F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"azcomp_isel 2.0uA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   
-Force__OUTP__2V   
-Force__OUTN__2V 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Follow this step:
-1. Increased OUTN 1 step millivolt
-2. Write 0xE4_0x01
-3. Check on the oscilloscope SDI and FSYN. In the SDI you should see a digital signal that goes high for 750us. On the FSYN you should see the output of the azcomp.  
-4. You have to increased OUTN until the output of the azcomp became stable after 1ms. In this way you have found the values for which the offset is eliminated "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__OUTN__2.001V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"(1.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xE4_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"azcomp_isel 2.0uA (2.)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"(3.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"(3.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Repeat the steps written before  (4.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__OUTP__2V   
-Force__OUTN__2V 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Follow this step:
-1. Decrease OUTN 1 step millivolt
-2. Write 0xE4_0x01
-3. Check on the oscilloscope SDI and FSYN. In the SDI you should see a digital signal that goes high for 750us. On the FSYN you should see the output of the azcomp.  
-4. You have to decreased OUTN until the output of the azcomp became stable after 1ms. In this way you have found the values for which the offset is eliminated "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__OUTN__1.999V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"(1.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xE4_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "azcomp_isel 2.0uA (2.)"                                                                                                                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"(3.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"(3.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Repeat the steps written before (4.)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
@@ -43004,9 +42452,6 @@
     </r>
   </si>
   <si>
-    <t>2v</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -43656,6 +43101,552 @@
 Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
 Calculate__MinError
 0xFE_0x00 "Return page 0"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                         
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable digital test FSYN"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable digital test ana_azcomp_out"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0x80  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force otp_clock_on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x10  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force pa_pd_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x14_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force en_dac3_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x13_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force en_dac3_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xE0_0x0C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Comparator measure time 600us"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xE1_0x1F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"azcomp_isel 2.0uA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
+Force__OUTP__2V   
+Force__OUTN__2V 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Follow this step:
+1. Increased OUTN 1 step millivolt
+2. Write 0xE4_0x01
+3. Check on the oscilloscope SDI and FSYN. In the SDI you should see a digital signal that goes high for 750us. On the FSYN you should see the output of the azcomp.  
+4. You have to increased OUTN until the output of the azcomp became stable after 1ms. In this way you have found the values for which the offset is eliminated "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__OUTN__2.001V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(1.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xE4_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"azcomp_isel 2.0uA (2.)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(3.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(3.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Repeat the steps written before  (4.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__OUTP__2V   
+Force__OUTN__2V 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Follow this step:
+1. Decrease OUTN 1 step millivolt
+2. Write 0xE4_0x01
+3. Check on the oscilloscope SDI and FSYN. In the SDI you should see a digital signal that goes high for 750us. On the FSYN you should see the output of the azcomp.  
+4. You have to decreased OUTN until the output of the azcomp became stable after 1ms. In this way you have found the values for which the offset is eliminated "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__OUTN__1.999V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(1.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xE4_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "azcomp_isel 2.0uA (2.)"                                                                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(3.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"(3.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Repeat the steps written before (4.)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -44770,7 +44761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45347,9 +45338,6 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -45790,177 +45778,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>367</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>369</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>380</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>387</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>390</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>392</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>394</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>396</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>398</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>400</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>402</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>404</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -46856,7 +46844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -46869,10 +46857,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
-        <v>410</v>
-      </c>
-      <c r="B1" s="231"/>
+      <c r="A1" s="230" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="230"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -46903,10 +46891,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="230"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -46921,10 +46909,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="230"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -46939,23 +46927,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="220" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F5" s="192" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="233" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -46966,12 +46954,12 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="233"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -46983,7 +46971,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="233"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -46999,7 +46987,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -47011,7 +46999,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -47938,10 +47926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="230" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="230"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -47972,10 +47960,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="230"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -47990,10 +47978,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="230"/>
       <c r="C4" s="9" t="s">
         <v>202</v>
       </c>
@@ -48008,8 +47996,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="37" t="s">
         <v>206</v>
       </c>
@@ -48024,7 +48012,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="233" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48042,7 +48030,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="233"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48058,7 +48046,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="233"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48076,7 +48064,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48092,7 +48080,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -48865,15 +48853,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="230" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="230"/>
       <c r="C1" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="229" t="s">
         <v>214</v>
@@ -48897,10 +48885,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="230"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -48915,15 +48903,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="230"/>
       <c r="C4" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>214</v>
@@ -48933,23 +48921,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="210" t="s">
         <v>216</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F5" s="222" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="233" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48963,7 +48951,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="233"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48973,12 +48961,12 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="233"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>218</v>
@@ -48991,7 +48979,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -49003,7 +48991,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -49923,10 +49911,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="17" t="s">
         <v>222</v>
       </c>
@@ -50093,10 +50081,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50180,10 +50168,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50267,8 +50255,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="236"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="225" t="s">
         <v>234</v>
       </c>
@@ -50352,7 +50340,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50431,7 +50419,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50466,7 +50454,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -50519,7 +50507,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -50598,7 +50586,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -54140,10 +54128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54238,10 +54226,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54289,10 +54277,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="65" t="s">
         <v>278</v>
       </c>
@@ -54340,8 +54328,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="238"/>
-      <c r="B5" s="239"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="223" t="s">
         <v>293</v>
       </c>
@@ -54389,7 +54377,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54412,7 +54400,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54433,7 +54421,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -54478,7 +54466,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -54503,7 +54491,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -56654,8 +56642,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56674,24 +56662,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>416</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>417</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56748,10 +56736,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56787,24 +56775,24 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>415</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>416</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>418</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>417</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56826,42 +56814,42 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="238"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="211" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="H5" s="37" t="s">
+      <c r="K5" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>427</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>342</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>428</v>
-      </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -56880,7 +56868,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -56897,7 +56885,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -56905,36 +56893,36 @@
         <v>262</v>
       </c>
       <c r="D8" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="E8" s="69" t="s">
-        <v>344</v>
-      </c>
       <c r="F8" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="230" t="s">
-        <v>425</v>
-      </c>
-      <c r="I8" s="230" t="s">
-        <v>425</v>
+      <c r="H8" s="69">
+        <v>2</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="L8" s="230" t="s">
-        <v>425</v>
+        <v>344</v>
+      </c>
+      <c r="L8" s="69">
+        <v>2</v>
       </c>
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -56951,7 +56939,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -58630,84 +58618,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>355</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="228" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="177" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>409</v>
-      </c>
       <c r="C2" s="177" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>365</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -58717,6 +58705,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58725,15 +58722,6 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58954,20 +58942,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E027041B-21DF-48F1-AC32-F944B5AE7552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803152C-DD64-4908-8571-BBAB68885745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -39621,9 +39621,6 @@
 Measure__current__VBAT</t>
   </si>
   <si>
-    <t>TO BE DONE</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -43647,6 +43644,9 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -45778,177 +45778,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>366</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>379</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>385</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>386</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>387</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>389</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>393</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>395</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>399</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>405</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -46858,7 +46858,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="230" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="230"/>
       <c r="C1" s="9" t="s">
@@ -46930,16 +46930,16 @@
       <c r="A5" s="231"/>
       <c r="B5" s="232"/>
       <c r="C5" s="220" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F5" s="192" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -46954,7 +46954,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -48861,7 +48861,7 @@
         <v>213</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E1" s="229" t="s">
         <v>214</v>
@@ -48911,7 +48911,7 @@
         <v>213</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>214</v>
@@ -48927,10 +48927,10 @@
         <v>216</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F5" s="222" t="s">
         <v>217</v>
@@ -48966,7 +48966,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>218</v>
@@ -54107,8 +54107,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54358,22 +54358,22 @@
         <v>301</v>
       </c>
       <c r="L5" s="206" t="s">
+        <v>432</v>
+      </c>
+      <c r="M5" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="M5" s="205" t="s">
+      <c r="N5" s="205" t="s">
         <v>303</v>
       </c>
-      <c r="N5" s="205" t="s">
+      <c r="O5" s="205" t="s">
         <v>304</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="P5" s="205" t="s">
         <v>305</v>
       </c>
-      <c r="P5" s="205" t="s">
+      <c r="Q5" s="205" t="s">
         <v>306</v>
-      </c>
-      <c r="Q5" s="205" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54428,41 +54428,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54474,7 +54474,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -54517,47 +54517,47 @@
         <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>316</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
         <v>267</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>157</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -54877,13 +54877,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>320</v>
-      </c>
       <c r="F20" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -54904,29 +54904,29 @@
         <v>186</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>322</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>323</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="I21" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="I21" s="76" t="s">
-        <v>326</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -54943,31 +54943,31 @@
         <v>188</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="J22" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>332</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>333</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55053,31 +55053,31 @@
         <v>197</v>
       </c>
       <c r="C26" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="F26" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>335</v>
-      </c>
       <c r="G26" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55094,31 +55094,31 @@
         <v>199</v>
       </c>
       <c r="C27" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="F27" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>335</v>
-      </c>
       <c r="G27" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -56642,7 +56642,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -56670,16 +56670,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>415</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>416</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56688,16 +56688,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="65" t="s">
         <v>337</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>338</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -56771,7 +56771,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
@@ -56783,16 +56783,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>415</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>417</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>416</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56801,50 +56801,50 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>337</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>338</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="237"/>
       <c r="B5" s="237"/>
       <c r="C5" s="211" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="J5" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>426</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -56893,13 +56893,13 @@
         <v>262</v>
       </c>
       <c r="D8" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="69" t="s">
-        <v>343</v>
-      </c>
       <c r="F8" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -56911,10 +56911,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L8" s="69">
         <v>2</v>
@@ -58601,7 +58601,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58618,84 +58618,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>354</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="228" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="177" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="177" t="s">
-        <v>408</v>
-      </c>
       <c r="C2" s="177" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>364</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -58705,15 +58705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58722,6 +58713,15 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58942,20 +58942,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab2\Documents\projects\IVM6311\IVM6311ATE-flavio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F803152C-DD64-4908-8571-BBAB68885745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470645E-0E7C-48F1-A723-79815405F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="433">
   <si>
     <t>Revision</t>
   </si>
@@ -39460,92 +39460,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Run__DAC-PA TDM_768_IN_and_Path_generator
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in test page"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1E_0xF8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "set enable and gain = -61dB (Gains from-1dB to -61dB step -6) anf freq=1kHz (available freq: 1-2-4-8-16kHz)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in base page"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Run__DAC-PA ANALOG_IN_DC_COUPLED
 ForceANA__-6_1000
 Measure__THD__OUTP__OUTN
@@ -40511,179 +40425,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">"OUTN_INT_PRT analog test point"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Return page 0"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0E </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OUTP_EXT_PRT analog test point"
 </t>
     </r>
     <r>
@@ -42857,190 +42598,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run__startup </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-0x17_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force_dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x18_0x02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig_azcomp_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0xC8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" force otp and mod clock on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x10_0x08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19_0x88  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"test analog azcomp enable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"VCM_AVDD analog test point"
- "Measure Voltage between SDWN pin and GND, you should measure VBAT/2"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">"Run__startup
 Run__Boost_test_default
 Wait__delay__0.1ms
@@ -43648,6 +43205,529 @@
   <si>
     <t xml:space="preserve">    </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Enable_Ana_Testpoint_AZ_comp</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0F </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"VCM_AVDD analog test point"
+ "Measure Voltage between SDWN pin and GND, you should measure VBAT/2"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage_SDWN  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+0x17_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force_dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x18_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig_azcomp_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0xC8 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force otp and mod clock on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x10_0x08 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ref_sdwn_b_dis_m"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x88  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"test analog azcomp enable"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0E </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OUTP_EXT_PRT analog test point"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__DAC-PA TDM_768_IN_and_Path_generator
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in test page"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1E_0xF8</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "set enable and gain = -61dB (Gains from-1dB to -61dB step -6) anf freq=1kHz (available freq: 1-2-4-8-16kHz)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in base page"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -43657,7 +43737,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="111" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44356,6 +44436,53 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF33CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -44761,7 +44888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45338,6 +45465,9 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="111" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -45365,10 +45495,13 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -45778,177 +45911,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="K6" s="58" t="s">
         <v>377</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>385</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -46857,10 +46990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="230" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="230"/>
+      <c r="A1" s="231" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="231"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -46891,10 +47024,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -46909,10 +47042,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -46927,23 +47060,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="220" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F5" s="192" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -46954,12 +47087,12 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="233"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -46971,7 +47104,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="233"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -46987,7 +47120,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -46999,7 +47132,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="233"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -47926,10 +48059,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -47960,10 +48093,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -47978,10 +48111,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="9" t="s">
         <v>202</v>
       </c>
@@ -47996,8 +48129,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="37" t="s">
         <v>206</v>
       </c>
@@ -48012,7 +48145,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48030,7 +48163,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="233"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48046,7 +48179,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="233"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48064,7 +48197,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48080,7 +48213,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="233"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -48853,15 +48986,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="230"/>
+      <c r="B1" s="231"/>
       <c r="C1" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="229" t="s">
         <v>214</v>
@@ -48885,10 +49018,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -48903,15 +49036,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="231" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="104" t="s">
         <v>213</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>214</v>
@@ -48921,23 +49054,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="231"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="210" t="s">
         <v>216</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F5" s="222" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="234" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48951,7 +49084,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="233"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48961,12 +49094,12 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="233"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>218</v>
@@ -48979,7 +49112,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="12" t="s">
         <v>152</v>
       </c>
@@ -48991,7 +49124,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="233"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="14" t="s">
         <v>154</v>
       </c>
@@ -49911,10 +50044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>222</v>
       </c>
@@ -50081,10 +50214,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50168,10 +50301,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50255,8 +50388,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
       <c r="C5" s="225" t="s">
         <v>234</v>
       </c>
@@ -50340,7 +50473,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50419,7 +50552,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50454,7 +50587,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -50507,7 +50640,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -50586,7 +50719,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -54107,8 +54240,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54128,10 +54261,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54226,10 +54359,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54277,10 +54410,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>278</v>
       </c>
@@ -54328,8 +54461,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="238"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="223" t="s">
         <v>293</v>
       </c>
@@ -54339,45 +54472,45 @@
       <c r="E5" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="240" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="206" t="s">
         <v>296</v>
       </c>
-      <c r="G5" s="206" t="s">
+      <c r="H5" s="206" t="s">
         <v>297</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="I5" s="206" t="s">
         <v>298</v>
       </c>
-      <c r="I5" s="206" t="s">
+      <c r="J5" s="206" t="s">
         <v>299</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="K5" s="206" t="s">
         <v>300</v>
       </c>
-      <c r="K5" s="206" t="s">
+      <c r="L5" s="206" t="s">
+        <v>429</v>
+      </c>
+      <c r="M5" s="205" t="s">
         <v>301</v>
       </c>
-      <c r="L5" s="206" t="s">
-        <v>432</v>
-      </c>
-      <c r="M5" s="205" t="s">
+      <c r="N5" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="N5" s="205" t="s">
+      <c r="O5" s="205" t="s">
         <v>303</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="P5" s="205" t="s">
         <v>304</v>
       </c>
-      <c r="P5" s="205" t="s">
+      <c r="Q5" s="205" t="s">
         <v>305</v>
       </c>
-      <c r="Q5" s="205" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54400,7 +54533,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54421,52 +54554,52 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -54474,7 +54607,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -54491,7 +54624,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -54517,47 +54650,47 @@
         <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
         <v>267</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>157</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -54877,13 +55010,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>319</v>
-      </c>
       <c r="F20" s="50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -54904,29 +55037,29 @@
         <v>186</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>321</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>322</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="I21" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="I21" s="76" t="s">
-        <v>325</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -54943,31 +55076,31 @@
         <v>188</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="J22" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>331</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>332</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55053,31 +55186,31 @@
         <v>197</v>
       </c>
       <c r="C26" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="F26" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>334</v>
-      </c>
       <c r="G26" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55094,31 +55227,31 @@
         <v>199</v>
       </c>
       <c r="C27" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="F27" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>334</v>
-      </c>
       <c r="G27" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -56642,8 +56775,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56662,24 +56795,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>413</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>415</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56688,16 +56821,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="65" t="s">
         <v>336</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>337</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -56736,10 +56869,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56771,28 +56904,28 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>413</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>416</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>415</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56801,55 +56934,55 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>336</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>337</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="238"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="211" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="211" t="s">
+      <c r="K5" s="230" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>425</v>
+      <c r="L5" s="230" t="s">
+        <v>430</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -56868,7 +57001,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -56885,7 +57018,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -56893,36 +57026,36 @@
         <v>262</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="69">
-        <v>2</v>
-      </c>
-      <c r="I8" s="69" t="s">
+      <c r="H8" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="I8" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="J8" s="69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="L8" s="69">
-        <v>2</v>
+        <v>341</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="62" t="s">
         <v>152</v>
       </c>
@@ -56939,7 +57072,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="60" t="s">
         <v>154</v>
       </c>
@@ -58618,84 +58751,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>352</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="228" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="177" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>362</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>363</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470645E-0E7C-48F1-A723-79815405F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139D3FF0-9573-4C24-A428-03E42DF4A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="431">
   <si>
     <t>Revision</t>
   </si>
@@ -25518,13 +25518,7 @@
     <t>1,799</t>
   </si>
   <si>
-    <t>0,542</t>
-  </si>
-  <si>
     <t>Max</t>
-  </si>
-  <si>
-    <t>13,5</t>
   </si>
   <si>
     <t>Max Value/%</t>
@@ -42634,9 +42628,6 @@
 0xFE_0x00 "Return page 0"</t>
   </si>
   <si>
-    <t>12,5</t>
-  </si>
-  <si>
     <t>Run__Startup
 Run__Enable_Ana_Testpoint
 0xFE_0x01 "Select page 1"
@@ -43728,6 +43719,9 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>0.542</t>
+  </si>
 </sst>
 </file>
 
@@ -43737,7 +43731,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="117" x14ac:knownFonts="1">
+  <fonts count="119" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44483,6 +44477,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -44888,7 +44897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45468,6 +45477,9 @@
     <xf numFmtId="49" fontId="111" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -45495,7 +45507,19 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="118" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -45911,177 +45935,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="K6" s="58" t="s">
         <v>375</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>381</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -46977,8 +47001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46990,10 +47014,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="231"/>
+      <c r="A1" s="232" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="232"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47024,10 +47048,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47042,10 +47066,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47060,39 +47084,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="220" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>426</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="E5" s="245" t="s">
+        <v>422</v>
       </c>
       <c r="F5" s="192" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="244" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="38">
-        <v>1793</v>
+      <c r="C6" s="241">
+        <v>1.7929999999999999</v>
       </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
-        <v>425</v>
+      <c r="E6" s="38">
+        <v>12.5</v>
       </c>
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="244"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -47104,15 +47128,15 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="244"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>134</v>
@@ -47120,169 +47144,169 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="39">
-        <v>1804</v>
+        <v>151</v>
+      </c>
+      <c r="C9" s="242">
+        <v>1.804</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>153</v>
+      <c r="E10" s="243">
+        <v>13.5</v>
       </c>
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="D13" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="85" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="85" t="s">
         <v>171</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>176</v>
-      </c>
       <c r="D17" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -47291,10 +47315,10 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -47303,24 +47327,24 @@
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="85"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -47329,10 +47353,10 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -47341,38 +47365,38 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
       <c r="F23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
       <c r="F24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -47381,10 +47405,10 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -47393,10 +47417,10 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -47405,10 +47429,10 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>111</v>
@@ -48059,10 +48083,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48093,10 +48117,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48111,41 +48135,41 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="D5" s="37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48163,7 +48187,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48179,27 +48203,27 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="39">
         <v>1804</v>
@@ -48213,145 +48237,145 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>164</v>
-      </c>
       <c r="D13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -48360,10 +48384,10 @@
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -48372,10 +48396,10 @@
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -48384,10 +48408,10 @@
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -48396,10 +48420,10 @@
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -48408,10 +48432,10 @@
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -48420,10 +48444,10 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -48432,10 +48456,10 @@
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -48444,10 +48468,10 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -48456,10 +48480,10 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -48468,10 +48492,10 @@
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -48480,10 +48504,10 @@
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>111</v>
@@ -48974,7 +48998,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48986,21 +49010,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="117" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="229" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="129" t="s">
         <v>213</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1" s="229" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="129" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -49018,10 +49042,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -49036,41 +49060,41 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="117" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="104" t="s">
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="D5" s="219" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="210" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="222" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="210" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="219" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" s="210" t="s">
-        <v>408</v>
-      </c>
-      <c r="F5" s="222" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49084,7 +49108,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49094,27 +49118,27 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="107" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F8" s="132" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="108"/>
       <c r="D9" s="121"/>
@@ -49124,9 +49148,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="119"/>
@@ -49136,137 +49160,137 @@
     <row r="11" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="110" t="s">
         <v>159</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>161</v>
       </c>
       <c r="D12" s="123"/>
       <c r="E12" s="110"/>
       <c r="F12" s="135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="111" t="s">
-        <v>164</v>
-      </c>
       <c r="D13" s="124" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="112"/>
       <c r="D14" s="51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="112"/>
       <c r="D15" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="112" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="112"/>
       <c r="D16" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="112" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>176</v>
-      </c>
       <c r="D17" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="112"/>
       <c r="D18" s="51"/>
@@ -49275,10 +49299,10 @@
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="112"/>
       <c r="D19" s="51"/>
@@ -49287,10 +49311,10 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="112"/>
       <c r="D20" s="51"/>
@@ -49299,10 +49323,10 @@
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="112"/>
       <c r="D21" s="51"/>
@@ -49311,10 +49335,10 @@
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="112"/>
       <c r="D22" s="51"/>
@@ -49323,10 +49347,10 @@
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="124"/>
@@ -49335,10 +49359,10 @@
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="112"/>
       <c r="D24" s="51"/>
@@ -49347,10 +49371,10 @@
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="112"/>
       <c r="D25" s="51"/>
@@ -49359,10 +49383,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="112"/>
       <c r="D26" s="51"/>
@@ -49371,10 +49395,10 @@
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="112"/>
       <c r="D27" s="51"/>
@@ -49383,10 +49407,10 @@
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="112" t="s">
         <v>111</v>
@@ -50044,12 +50068,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>138</v>
@@ -50132,67 +50156,67 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="C2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>139</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S2" s="209" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X2" s="16" t="s">
         <v>139</v>
@@ -50201,23 +50225,23 @@
         <v>139</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50243,7 +50267,7 @@
         <v>44</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L3" s="185" t="s">
         <v>28</v>
@@ -50273,7 +50297,7 @@
         <v>56</v>
       </c>
       <c r="U3" s="185" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V3" s="185" t="s">
         <v>52</v>
@@ -50282,10 +50306,10 @@
         <v>95</v>
       </c>
       <c r="X3" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Y3" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z3" s="185" t="s">
         <v>91</v>
@@ -50301,10 +50325,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50330,19 +50354,19 @@
         <v>43</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L4" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M4" s="65" t="s">
         <v>47</v>
       </c>
       <c r="N4" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O4" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P4" s="65" t="s">
         <v>133</v>
@@ -50369,10 +50393,10 @@
         <v>94</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z4" s="65" t="s">
         <v>90</v>
@@ -50388,92 +50412,92 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="236"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="225" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="225" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="225" t="s">
+      <c r="F5" s="225" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="G5" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="225" t="s">
+      <c r="H5" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="186" t="s">
+      <c r="I5" s="191" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="J5" s="191" t="s">
         <v>239</v>
       </c>
-      <c r="I5" s="191" t="s">
+      <c r="K5" s="191" t="s">
         <v>240</v>
       </c>
-      <c r="J5" s="191" t="s">
+      <c r="L5" s="186" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="191" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="186" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="186" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="225" t="s">
+        <v>242</v>
+      </c>
+      <c r="O5" s="225" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="225" t="s">
         <v>244</v>
       </c>
-      <c r="O5" s="225" t="s">
+      <c r="Q5" s="225" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="225" t="s">
+      <c r="R5" s="225" t="s">
         <v>246</v>
       </c>
-      <c r="Q5" s="225" t="s">
+      <c r="S5" s="191" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="225" t="s">
+      <c r="T5" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="191" t="s">
+      <c r="U5" s="191" t="s">
         <v>249</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="V5" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="U5" s="191" t="s">
+      <c r="W5" s="193" t="s">
         <v>251</v>
       </c>
-      <c r="V5" s="192" t="s">
+      <c r="X5" s="193" t="s">
         <v>252</v>
       </c>
-      <c r="W5" s="193" t="s">
+      <c r="Y5" s="193" t="s">
         <v>253</v>
       </c>
-      <c r="X5" s="193" t="s">
+      <c r="Z5" s="193" t="s">
         <v>254</v>
       </c>
-      <c r="Y5" s="193" t="s">
+      <c r="AA5" s="192" t="s">
         <v>255</v>
       </c>
-      <c r="Z5" s="193" t="s">
+      <c r="AB5" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="AA5" s="192" t="s">
+      <c r="AC5" s="225" t="s">
         <v>257</v>
       </c>
-      <c r="AB5" s="192" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC5" s="225" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50552,7 +50576,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50587,41 +50611,41 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="154"/>
@@ -50636,13 +50660,13 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69"/>
       <c r="AC8" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="196">
@@ -50653,19 +50677,19 @@
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L9" s="71">
         <v>3</v>
@@ -50680,7 +50704,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="70">
         <v>1.64</v>
@@ -50690,16 +50714,16 @@
       </c>
       <c r="S9" s="143"/>
       <c r="T9" s="167" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X9" s="199">
         <v>20.074999999999999</v>
@@ -50708,20 +50732,20 @@
         <v>24.2</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="202">
@@ -50756,92 +50780,92 @@
     <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63"/>
       <c r="B11" s="63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R11" s="155" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S11" s="144"/>
       <c r="T11" s="168" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="203"/>
@@ -50873,416 +50897,416 @@
     </row>
     <row r="13" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="84" t="s">
-        <v>165</v>
-      </c>
       <c r="D13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R13" s="156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S13" s="145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T13" s="169" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Z13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB13" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC13" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R14" s="156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S14" s="145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T14" s="169" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W14" s="85"/>
       <c r="X14" s="85"/>
       <c r="Y14" s="85"/>
       <c r="Z14" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA14" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB14" s="84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC14" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="X15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AA15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC15" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>173</v>
-      </c>
       <c r="D16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R16" s="156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S16" s="145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T16" s="169" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="X16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AA16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC16" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>177</v>
-      </c>
       <c r="E17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P17" s="85"/>
       <c r="Q17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R17" s="156" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S17" s="145" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T17" s="169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W17" s="85"/>
       <c r="X17" s="85"/>
       <c r="Y17" s="85"/>
       <c r="Z17" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA17" s="85"/>
       <c r="AB17" s="85"/>
@@ -51290,10 +51314,10 @@
     </row>
     <row r="18" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="84"/>
       <c r="D18" s="204"/>
@@ -51325,10 +51349,10 @@
     </row>
     <row r="19" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="84"/>
       <c r="D19" s="204"/>
@@ -51360,26 +51384,26 @@
     </row>
     <row r="20" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="84"/>
       <c r="D20" s="204"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
       <c r="G20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K20" s="85"/>
       <c r="L20" s="85"/>
@@ -51387,7 +51411,7 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="156"/>
@@ -51396,27 +51420,27 @@
       <c r="U20" s="85"/>
       <c r="V20" s="85"/>
       <c r="W20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="X20" s="85"/>
       <c r="Y20" s="85"/>
       <c r="Z20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AB20" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC20" s="85"/>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="204"/>
@@ -51424,13 +51448,13 @@
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
       <c r="H21" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I21" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
@@ -51448,7 +51472,7 @@
       <c r="X21" s="85"/>
       <c r="Y21" s="85"/>
       <c r="Z21" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA21" s="85"/>
       <c r="AB21" s="85"/>
@@ -51456,10 +51480,10 @@
     </row>
     <row r="22" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="84"/>
       <c r="D22" s="204"/>
@@ -51491,184 +51515,184 @@
     </row>
     <row r="23" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R23" s="158" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S23" s="147" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T23" s="171" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W23" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X23" s="84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y23" s="99"/>
       <c r="Z23" s="99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA23" s="99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB23" s="99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC23" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>193</v>
-      </c>
       <c r="D24" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R24" s="156" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S24" s="145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T24" s="169" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X24" s="85"/>
       <c r="Y24" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB24" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AC24" s="84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="84"/>
       <c r="D25" s="204"/>
@@ -51700,10 +51724,10 @@
     </row>
     <row r="26" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="84"/>
       <c r="D26" s="204"/>
@@ -51730,19 +51754,19 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="84"/>
       <c r="D27" s="204"/>
@@ -51769,17 +51793,17 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
     </row>
     <row r="28" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="84" t="s">
         <v>111</v>
@@ -54240,7 +54264,7 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -54261,10 +54285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54359,10 +54383,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54410,107 +54434,107 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="I4" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="K4" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="L4" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="M4" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="N4" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="O4" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="P4" s="93" t="s">
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="239"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="223" t="s">
         <v>291</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="D5" s="224" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="238"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="223" t="s">
+      <c r="E5" s="206" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="F5" s="231" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="206" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="206" t="s">
+      <c r="H5" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="240" t="s">
-        <v>432</v>
-      </c>
-      <c r="G5" s="206" t="s">
+      <c r="I5" s="206" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="J5" s="206" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="206" t="s">
+      <c r="K5" s="206" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="L5" s="206" t="s">
+        <v>426</v>
+      </c>
+      <c r="M5" s="205" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="206" t="s">
+      <c r="N5" s="205" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="206" t="s">
-        <v>429</v>
-      </c>
-      <c r="M5" s="205" t="s">
+      <c r="O5" s="205" t="s">
         <v>301</v>
       </c>
-      <c r="N5" s="205" t="s">
+      <c r="P5" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="Q5" s="205" t="s">
         <v>303</v>
       </c>
-      <c r="P5" s="205" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q5" s="205" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54533,7 +54557,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54554,60 +54578,60 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="39">
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -54624,9 +54648,9 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -54647,162 +54671,162 @@
     <row r="11" spans="1:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63"/>
       <c r="B11" s="63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>164</v>
-      </c>
       <c r="D13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -54822,112 +54846,112 @@
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -54940,27 +54964,27 @@
       <c r="K17" s="76"/>
       <c r="L17" s="76"/>
       <c r="M17" s="50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O17" s="50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P17" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -54980,10 +55004,10 @@
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -55003,20 +55027,20 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -55031,35 +55055,35 @@
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>319</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>321</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="I21" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="H21" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>324</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -55070,37 +55094,37 @@
     </row>
     <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="J22" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>329</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>331</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55111,10 +55135,10 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -55134,10 +55158,10 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -55157,10 +55181,10 @@
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -55180,37 +55204,37 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55221,37 +55245,37 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -55262,10 +55286,10 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>111</v>
@@ -56775,7 +56799,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -56795,24 +56819,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>413</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56821,16 +56845,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -56869,10 +56893,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56904,28 +56928,28 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>413</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56934,55 +56958,55 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="238"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="211" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="230" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="K5" s="230" t="s">
-        <v>431</v>
-      </c>
       <c r="L5" s="230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57001,7 +57025,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57018,21 +57042,21 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -57044,10 +57068,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>75</v>
@@ -57055,9 +57079,9 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="71"/>
@@ -57072,9 +57096,9 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -57091,46 +57115,46 @@
     <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="63"/>
       <c r="B11" s="63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -57146,203 +57170,203 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>164</v>
-      </c>
       <c r="D13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J13" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K13" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L13" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L14" s="76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I15" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K15" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L15" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K16" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L16" s="76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F17" s="76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K17" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L17" s="76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="76"/>
@@ -57358,10 +57382,10 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="76"/>
@@ -57377,13 +57401,13 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -57398,10 +57422,10 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="76"/>
@@ -57417,10 +57441,10 @@
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="76"/>
@@ -57436,10 +57460,10 @@
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="74"/>
@@ -57455,10 +57479,10 @@
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="76"/>
@@ -57474,10 +57498,10 @@
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="76"/>
@@ -57493,10 +57517,10 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="76"/>
@@ -57512,10 +57536,10 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="76"/>
@@ -57531,10 +57555,10 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>111</v>
@@ -58734,7 +58758,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58751,84 +58775,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>350</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="228" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="177" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>360</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -58838,6 +58862,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58846,15 +58879,6 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59075,20 +59099,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139D3FF0-9573-4C24-A428-03E42DF4A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A226B56-6598-447A-8D89-197A59626DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42638,16 +42638,6 @@
 0xFE_0x00 "Return page 0"</t>
   </si>
   <si>
-    <t>Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
-0x1A_0x01 "Bandgap"
-Measure__Voltage__SDWN
-Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
-Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Run_startup  
 </t>
@@ -43721,6 +43711,16 @@
   </si>
   <si>
     <t>0.542</t>
+  </si>
+  <si>
+    <t>Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0x1A_0x01 "Bandgap"
+0xB0__0x0E
+Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
+Calculate__MinError
+0xFE_0x00 "Return page 0"</t>
   </si>
 </sst>
 </file>
@@ -44897,7 +44897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45444,9 +45444,6 @@
     <xf numFmtId="49" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -45480,6 +45477,18 @@
     <xf numFmtId="49" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="118" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -45487,6 +45496,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -45505,21 +45517,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="118" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -46204,7 +46201,7 @@
       <c r="F3" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="226" t="s">
+      <c r="G3" s="225" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="213" t="s">
@@ -46230,7 +46227,7 @@
       <c r="F4" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="227" t="s">
+      <c r="G4" s="226" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="186" t="s">
@@ -46256,7 +46253,7 @@
       <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="225" t="s">
+      <c r="G5" s="224" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="186" t="s">
@@ -46282,7 +46279,7 @@
       <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="225" t="s">
+      <c r="G6" s="224" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="186" t="s">
@@ -46308,10 +46305,10 @@
       <c r="F7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="225" t="s">
+      <c r="G7" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="225" t="s">
+      <c r="H7" s="224" t="s">
         <v>38</v>
       </c>
     </row>
@@ -46386,7 +46383,7 @@
       <c r="F10" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="225" t="s">
+      <c r="G10" s="224" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="186" t="s">
@@ -46568,7 +46565,7 @@
       <c r="F17" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="225" t="s">
+      <c r="G17" s="224" t="s">
         <v>76</v>
       </c>
       <c r="H17" s="186" t="s">
@@ -46983,7 +46980,7 @@
       <c r="F34" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="225" t="s">
+      <c r="G34" s="224" t="s">
         <v>135</v>
       </c>
       <c r="H34" s="186" t="s">
@@ -47001,8 +46998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47014,10 +47011,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="235" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47048,10 +47045,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47066,10 +47063,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47084,15 +47081,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
-      <c r="C5" s="220" t="s">
-        <v>424</v>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="234" t="s">
+        <v>430</v>
       </c>
       <c r="D5" s="207" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="245" t="s">
+      <c r="E5" s="234" t="s">
         <v>422</v>
       </c>
       <c r="F5" s="192" t="s">
@@ -47100,13 +47097,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="241">
+      <c r="C6" s="231">
         <v>1.7929999999999999</v>
       </c>
       <c r="D6" s="38"/>
@@ -47116,19 +47113,19 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="244"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="221"/>
+      <c r="D7" s="220"/>
       <c r="E7" s="8"/>
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="244"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47136,7 +47133,7 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>134</v>
@@ -47144,11 +47141,11 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="242">
+      <c r="C9" s="232">
         <v>1.804</v>
       </c>
       <c r="D9" s="39"/>
@@ -47156,7 +47153,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="244"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -47164,7 +47161,7 @@
         <v>153</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="243">
+      <c r="E10" s="233">
         <v>13.5</v>
       </c>
       <c r="F10" s="68"/>
@@ -48083,10 +48080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48117,10 +48114,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48135,10 +48132,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -48153,8 +48150,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -48169,7 +48166,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48187,7 +48184,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48203,7 +48200,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48221,7 +48218,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -48237,7 +48234,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -48998,7 +48995,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49010,17 +49007,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="104" t="s">
         <v>211</v>
       </c>
       <c r="D1" s="117" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="229" t="s">
+      <c r="E1" s="228" t="s">
         <v>212</v>
       </c>
       <c r="F1" s="129" t="s">
@@ -49042,10 +49039,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="103" t="s">
         <v>20</v>
       </c>
@@ -49060,10 +49057,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="104" t="s">
         <v>211</v>
       </c>
@@ -49078,8 +49075,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="210" t="s">
         <v>214</v>
       </c>
@@ -49089,12 +49086,12 @@
       <c r="E5" s="210" t="s">
         <v>406</v>
       </c>
-      <c r="F5" s="222" t="s">
+      <c r="F5" s="221" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49108,7 +49105,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49118,7 +49115,7 @@
       <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49136,7 +49133,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49148,7 +49145,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -50068,10 +50065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="17" t="s">
         <v>220</v>
       </c>
@@ -50238,10 +50235,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="185" t="s">
         <v>20</v>
       </c>
@@ -50325,10 +50322,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50412,18 +50409,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="225" t="s">
+      <c r="A5" s="241"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="225" t="s">
+      <c r="D5" s="224" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="224" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="225" t="s">
+      <c r="F5" s="224" t="s">
         <v>235</v>
       </c>
       <c r="G5" s="186" t="s">
@@ -50447,19 +50444,19 @@
       <c r="M5" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="225" t="s">
+      <c r="N5" s="224" t="s">
         <v>242</v>
       </c>
-      <c r="O5" s="225" t="s">
+      <c r="O5" s="224" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="225" t="s">
+      <c r="P5" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="Q5" s="225" t="s">
+      <c r="Q5" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="R5" s="225" t="s">
+      <c r="R5" s="224" t="s">
         <v>246</v>
       </c>
       <c r="S5" s="191" t="s">
@@ -50492,12 +50489,12 @@
       <c r="AB5" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="AC5" s="225" t="s">
+      <c r="AC5" s="224" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -50576,7 +50573,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -50611,7 +50608,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -50664,7 +50661,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -50743,7 +50740,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -54285,10 +54282,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54383,10 +54380,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54434,10 +54431,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>276</v>
       </c>
@@ -54485,19 +54482,19 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="223" t="s">
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="222" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="223" t="s">
         <v>292</v>
       </c>
       <c r="E5" s="206" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="231" t="s">
-        <v>429</v>
+      <c r="F5" s="230" t="s">
+        <v>428</v>
       </c>
       <c r="G5" s="206" t="s">
         <v>294</v>
@@ -54515,7 +54512,7 @@
         <v>298</v>
       </c>
       <c r="L5" s="206" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M5" s="205" t="s">
         <v>299</v>
@@ -54534,7 +54531,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -54557,7 +54554,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -54578,7 +54575,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -54623,7 +54620,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -54648,7 +54645,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -56819,10 +56816,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
@@ -56893,10 +56890,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -56932,10 +56929,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -56971,10 +56968,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
       <c r="C5" s="211" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>415</v>
@@ -56997,16 +56994,16 @@
       <c r="J5" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="230" t="s">
-        <v>428</v>
-      </c>
-      <c r="L5" s="230" t="s">
+      <c r="K5" s="229" t="s">
         <v>427</v>
       </c>
+      <c r="L5" s="229" t="s">
+        <v>426</v>
+      </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57025,7 +57022,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57042,7 +57039,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -57079,7 +57076,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -57096,7 +57093,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -58815,7 +58812,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="227" t="s">
         <v>402</v>
       </c>
       <c r="B2" s="177" t="s">

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A226B56-6598-447A-8D89-197A59626DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308DB7A-7C35-4C55-A070-E8722ACD6C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="434">
   <si>
     <t>Revision</t>
   </si>
@@ -28587,6 +28587,7 @@
       </rPr>
       <t xml:space="preserve">Run_startup
 Boost_test_default
+Run_Enable_Ana_Testpoint
 </t>
     </r>
     <r>
@@ -28607,7 +28608,45 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0xFE_0x00 </t>
+0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF basso così l'uscita del comparatore è 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
     </r>
     <r>
       <rPr>
@@ -28626,26 +28665,152 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
+      <t>0xB3[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "clamp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"err amp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[3]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"comp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force bst bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
+</t>
     </r>
     <r>
       <rPr>
@@ -28654,6 +28819,35 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -28663,6 +28857,83 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">"Select page 1"
 </t>
     </r>
@@ -28673,7 +28944,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x03_0x05</t>
+      <t>0x16[5]_0x01</t>
     </r>
     <r>
       <rPr>
@@ -28691,755 +28962,85 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
+      <t xml:space="preserve">"force err amp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force comp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force clamp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x07</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig test EN FSYN=byp_off SDI=byp_go"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB2[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst byp en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN should be 1 and SDI 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[7]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"byp_en on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN should be 0 and SDI 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x00 
-0x04_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xCA_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"VREF basso così l'uscita del comparatore è 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "clamp bso en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"err amp bso en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[2]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"comp bso en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x0F[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=da SDI=a"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force err amp bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[2]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force comp bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force clamp bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__10V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -29469,7 +29070,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"da and a, FSYN should be 0 and SDI 0"
+      <t xml:space="preserve">"db and b, FSYN should be 0 and SDI 0"
 </t>
     </r>
     <r>
@@ -29517,26 +29118,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xCA_0x11</t>
+      <t>0x11_0x0A</t>
     </r>
     <r>
       <rPr>
@@ -29594,35 +29176,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=da SDI=a"
+      <t xml:space="preserve">0x04_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
 </t>
     </r>
     <r>
@@ -29641,7 +29204,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "da and a, it should be 0"
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -29669,7 +29232,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"FSYN should remain 0 since vbias is not enabled and SDI 1"
+      <t xml:space="preserve">"FSYN should be 0 and SDI 1"
 </t>
     </r>
     <r>
@@ -29681,931 +29244,6 @@
       </rPr>
       <t>0x03_0x00 
 0x04_0x00
-0x19_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF basso così l'uscita del comparatore è 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "clamp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"err amp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[3]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"comp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force bst bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[5]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force err amp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force comp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force clamp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__10V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN
-Measure__Voltage_SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"db and b, FSYN should be 0 and SDI 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x0B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig test EN FSYN=outcomp"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"out_comp, it should be 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x0A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"VREF high so comparator output should be 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"out_comp, it should be 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN should be 0 and SDI 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x00 
-0x04_0x00
-0x19_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW VF"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be approximately 2.4V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00
 0x19_0x00</t>
     </r>
   </si>
@@ -42618,26 +41256,6 @@
 </t>
   </si>
   <si>
-    <t>Run__Startup
-0xFE_0x01 "Select page 1"
-0x03_0x04 "Enable digital test FSYN"
-0x04_0x32 "Enable digital test ana_ref_fro_clk_13m"
-Measure__Frequency__FSYN
-Trim__ 0xEF[4:0] "Select code which sets ATEST frequency as close as possible to target"
-Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
-  </si>
-  <si>
-    <t>Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
-0x1A_0x04 "TSDN"
-Measure__Voltage__SDWN
-Trim__ 0xB3[7:5] "Select code which sets ATEST voltage as close as possible to target"
-Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Run_startup  
 </t>
@@ -43713,14 +42331,1399 @@
     <t>0.542</t>
   </si>
   <si>
-    <t>Run__Startup
+    <r>
+      <t xml:space="preserve">Run_startup
+Boost_test_default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x07</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig test EN FSYN=byp_off SDI=byp_go"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB2[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst byp en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN should be 1 and SDI 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[7]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"byp_en on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN should be 0 and SDI 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x00 
+0x04_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup
+Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xCA_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"VREF basso così l'uscita del comparatore è 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "clamp bso en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"err amp bso en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[2]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"comp bso en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=da SDI=a"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force err amp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[2]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force comp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force clamp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN
+Measure__Voltage_SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"da and a, FSYN should be 0 and SDI 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x0B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig test EN FSYN=outcomp"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"out_comp, it should be 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xCA_0x11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"VREF high so comparator output should be 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"out_comp, it should be 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=da SDI=a"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "da and a, it should be 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN should remain 0 since vbias is not enabled and SDI 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x00 
+0x04_0x00
+0x19_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup
+Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW VF"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be approximately 2.4V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00
+0x19_0x00</t>
+    </r>
+  </si>
+  <si>
+    <t>13M</t>
+  </si>
+  <si>
+    <t>12.5M</t>
+  </si>
+  <si>
+    <t>13.5M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__Startup
 Run__Enable_Ana_Testpoint
 0xFE_0x01 "Select page 1"
 0x1A_0x01 "Bandgap"
-0xB0__0x0E
+0xB0_0x0E
+"Loop__trim:"
 Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
+Measure__Voltage__SDWN
 Calculate__MinError
-0xFE_0x00 "Return page 0"</t>
+0xFE_0x00 "Select page 0"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0x1A_0x04 "TSDN"
+0xB0_0x0E
+"Loop__trim:"
+Trim__ 0xB3[7:5] "Select code which sets ATEST voltage as close as possible to target"
+Measure__Voltage__SDWN
+Calculate__MinError
+0xFE_0x00 "Select page 0"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__Startup
+0xFE_0x00 "Select page 0"
+0x00_0x01
+0xFE_0x01 "Select page 1"
+0x03_0x04 "Enable digital test FSYN"
+0x04_0x20 "Enable digital test ana_ref_fro_clk_13m"
+0x0F_0x80
+0xB0_0x0E
+"Loop__trim:"
+Trim__ 0xEF[4:0] "Select code which sets ATEST frequency as close as possible to target"
+Measure_Frequency_FSYN
+Calculate__MinError
+0xFE_0x00 "Select page 0"
+</t>
   </si>
 </sst>
 </file>
@@ -43731,7 +43734,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="119" x14ac:knownFonts="1">
+  <fonts count="118" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44484,14 +44487,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -45486,8 +45481,8 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="118" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="117" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -45932,177 +45927,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="K6" s="58" t="s">
         <v>372</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>381</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -47012,7 +47007,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="235" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1" s="235"/>
       <c r="C1" s="9" t="s">
@@ -47083,17 +47078,17 @@
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="236"/>
       <c r="B5" s="237"/>
-      <c r="C5" s="234" t="s">
-        <v>430</v>
+      <c r="C5" s="207" t="s">
+        <v>431</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="234" t="s">
-        <v>422</v>
+        <v>432</v>
+      </c>
+      <c r="E5" s="207" t="s">
+        <v>433</v>
       </c>
       <c r="F5" s="192" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47107,8 +47102,8 @@
         <v>1.7929999999999999</v>
       </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="38">
-        <v>12.5</v>
+      <c r="E6" s="38" t="s">
+        <v>429</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47133,10 +47128,10 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>134</v>
+        <v>428</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47149,7 +47144,7 @@
         <v>1.804</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47161,8 +47156,8 @@
         <v>153</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="233">
-        <v>13.5</v>
+      <c r="E10" s="233" t="s">
+        <v>430</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -49015,7 +49010,7 @@
         <v>211</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E1" s="228" t="s">
         <v>212</v>
@@ -49065,7 +49060,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>212</v>
@@ -49081,10 +49076,10 @@
         <v>214</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F5" s="221" t="s">
         <v>215</v>
@@ -49120,7 +49115,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>216</v>
@@ -50046,7 +50041,7 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -50427,70 +50422,70 @@
         <v>236</v>
       </c>
       <c r="H5" s="191" t="s">
+        <v>425</v>
+      </c>
+      <c r="I5" s="191" t="s">
+        <v>426</v>
+      </c>
+      <c r="J5" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="I5" s="191" t="s">
+      <c r="K5" s="191" t="s">
+        <v>427</v>
+      </c>
+      <c r="L5" s="224" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="191" t="s">
+      <c r="M5" s="224" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="224" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="191" t="s">
+      <c r="O5" s="224" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="186" t="s">
+      <c r="P5" s="224" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="186" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="224" t="s">
+      <c r="Q5" s="224" t="s">
         <v>242</v>
       </c>
-      <c r="O5" s="224" t="s">
+      <c r="R5" s="224" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="224" t="s">
+      <c r="S5" s="191" t="s">
         <v>244</v>
       </c>
-      <c r="Q5" s="224" t="s">
+      <c r="T5" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="R5" s="224" t="s">
+      <c r="U5" s="191" t="s">
         <v>246</v>
       </c>
-      <c r="S5" s="191" t="s">
+      <c r="V5" s="192" t="s">
         <v>247</v>
       </c>
-      <c r="T5" s="192" t="s">
+      <c r="W5" s="193" t="s">
         <v>248</v>
       </c>
-      <c r="U5" s="191" t="s">
+      <c r="X5" s="193" t="s">
         <v>249</v>
       </c>
-      <c r="V5" s="192" t="s">
+      <c r="Y5" s="193" t="s">
         <v>250</v>
       </c>
-      <c r="W5" s="193" t="s">
+      <c r="Z5" s="193" t="s">
         <v>251</v>
       </c>
-      <c r="X5" s="193" t="s">
+      <c r="AA5" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="Y5" s="193" t="s">
+      <c r="AB5" s="192" t="s">
         <v>253</v>
       </c>
-      <c r="Z5" s="193" t="s">
+      <c r="AC5" s="224" t="s">
         <v>254</v>
-      </c>
-      <c r="AA5" s="192" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB5" s="192" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC5" s="224" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -50613,36 +50608,36 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="154"/>
@@ -50657,7 +50652,7 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69"/>
       <c r="AC8" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -50674,19 +50669,19 @@
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="71" t="s">
         <v>260</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="71" t="s">
-        <v>263</v>
       </c>
       <c r="L9" s="71">
         <v>3</v>
@@ -50701,7 +50696,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="70">
         <v>1.64</v>
@@ -50711,16 +50706,16 @@
       </c>
       <c r="S9" s="143"/>
       <c r="T9" s="167" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="X9" s="199">
         <v>20.074999999999999</v>
@@ -50729,13 +50724,13 @@
         <v>24.2</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AC9" s="71"/>
     </row>
@@ -50783,10 +50778,10 @@
         <v>218</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
@@ -50854,7 +50849,7 @@
         <v>155</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -50992,10 +50987,10 @@
         <v>163</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F14" s="85" t="s">
         <v>163</v>
@@ -51058,7 +51053,7 @@
         <v>163</v>
       </c>
       <c r="AB14" s="84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AC14" s="85" t="s">
         <v>163</v>
@@ -51408,7 +51403,7 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="156"/>
@@ -51527,7 +51522,7 @@
         <v>191</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G23" s="84" t="s">
         <v>163</v>
@@ -51569,7 +51564,7 @@
         <v>163</v>
       </c>
       <c r="T23" s="171" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U23" s="84" t="s">
         <v>163</v>
@@ -51656,10 +51651,10 @@
         <v>191</v>
       </c>
       <c r="T24" s="169" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V24" s="85" t="s">
         <v>191</v>
@@ -51751,11 +51746,11 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -51790,7 +51785,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
@@ -54261,8 +54256,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54436,98 +54431,98 @@
       </c>
       <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="G4" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="J4" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="K4" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="L4" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="M4" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="N4" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="O4" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>287</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="P4" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="243"/>
       <c r="B5" s="244"/>
       <c r="C5" s="222" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="223" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="206" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="230" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="206" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="223" t="s">
+      <c r="H5" s="206" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="206" t="s">
+      <c r="I5" s="206" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="230" t="s">
-        <v>428</v>
-      </c>
-      <c r="G5" s="206" t="s">
+      <c r="J5" s="206" t="s">
         <v>294</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="K5" s="206" t="s">
         <v>295</v>
       </c>
-      <c r="I5" s="206" t="s">
+      <c r="L5" s="206" t="s">
+        <v>420</v>
+      </c>
+      <c r="M5" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="N5" s="205" t="s">
         <v>297</v>
       </c>
-      <c r="K5" s="206" t="s">
+      <c r="O5" s="205" t="s">
         <v>298</v>
       </c>
-      <c r="L5" s="206" t="s">
-        <v>425</v>
-      </c>
-      <c r="M5" s="205" t="s">
+      <c r="P5" s="205" t="s">
         <v>299</v>
       </c>
-      <c r="N5" s="205" t="s">
+      <c r="Q5" s="205" t="s">
         <v>300</v>
-      </c>
-      <c r="O5" s="205" t="s">
-        <v>301</v>
-      </c>
-      <c r="P5" s="205" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q5" s="205" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54582,41 +54577,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54628,7 +54623,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -54671,47 +54666,47 @@
         <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>155</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -55031,13 +55026,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -55058,29 +55053,29 @@
         <v>184</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -55097,31 +55092,31 @@
         <v>186</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="J22" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="K22" s="76" t="s">
         <v>326</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>329</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55207,31 +55202,31 @@
         <v>195</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55248,31 +55243,31 @@
         <v>197</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -56824,16 +56819,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>412</v>
-      </c>
       <c r="G1" s="65" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56842,16 +56837,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -56925,7 +56920,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
@@ -56937,16 +56932,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>410</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>412</v>
-      </c>
       <c r="G4" s="65" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56955,50 +56950,50 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="243"/>
       <c r="B5" s="243"/>
       <c r="C5" s="211" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>420</v>
-      </c>
       <c r="J5" s="56" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K5" s="229" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L5" s="229" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -57044,16 +57039,16 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -57065,10 +57060,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>75</v>
@@ -58755,7 +58750,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58772,84 +58767,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>347</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="227" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C2" s="177" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>357</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>358</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6308DB7A-7C35-4C55-A070-E8722ACD6C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43E845-9275-41A0-B9E9-BE4DEF3319F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38076,97 +38076,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Run__DAC-PA TDM_768_IN
-ForceTDM__-6_1000
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-ForceTDM__-60__1000
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run__DAC-PA ANALOG_IN_DC_COUPLED
-ForceANA__-6_1000
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-ForceANA__-60__1000
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run__DAC-PA ANALOG_IN_AC_COUPLED
-ForceANA__-6_1000
-Measure__THD__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-ForceANA__-60__1000
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-  </si>
-  <si>
-    <t>Run__DAC-PA PDM_3MHz_IN
-ForcePDM__-6_1000
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-ForcePDM__-60__1000
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT</t>
-  </si>
-  <si>
-    <t>Run__DAC-PA PDM_6MHz_IN
-ForcePDM__-6_1000
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-ForcePDM__-60__1000
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT</t>
-  </si>
-  <si>
-    <t>Run__DAC-PA PDM_12MHz_IN
-ForcePDM__-6_1000
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-ForcePDM__-60__1000
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -42235,99 +42144,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Run__DAC-PA TDM_768_IN_and_Path_generator
-Measure__THD__OUTP__OUTN
-Measure__flatness__OUTP__OUTN
-Measure__PSRR__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in test page"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1E_0xF8</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "set enable and gain = -61dB (Gains from-1dB to -61dB step -6) anf freq=1kHz (available freq: 1-2-4-8-16kHz)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in base page"</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__noise__OUTP__OUTN
-Measure__current__VDDIO
-Measure__current__VDD
-Measure__current__VBAT
-</t>
-    </r>
-  </si>
-  <si>
     <t>0.542</t>
   </si>
   <si>
@@ -43673,15 +43489,6 @@
       <t>0x1A_0x00
 0x19_0x00</t>
     </r>
-  </si>
-  <si>
-    <t>13M</t>
-  </si>
-  <si>
-    <t>12.5M</t>
-  </si>
-  <si>
-    <t>13.5M</t>
   </si>
   <si>
     <t xml:space="preserve">Run__Startup
@@ -43710,9 +43517,193 @@
 </t>
   </si>
   <si>
+    <t>Run__DAC-PA_PDM_12MHz_IN
+ForcePDM__-6_1000
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+ForcePDM__-60__1000
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT</t>
+  </si>
+  <si>
+    <t>Run__DAC-PA_PDM_6MHz_IN
+ForcePDM__-6_1000
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+ForcePDM__-60__1000
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT</t>
+  </si>
+  <si>
+    <t>Run__DAC-PA_PDM_3MHz_IN
+ForcePDM__-6_1000
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+ForcePDM__-60__1000
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__DAC-PA_ANALOG_IN_AC_COUPLED
+ForceANA__-6_1000
+Measure__THD__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+ForceANA__-60__1000
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__DAC-PA_ANALOG_IN_DC_COUPLED
+ForceANA__-6_1000
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+ForceANA__-60__1000
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__DAC-PA_TDM_768_IN
+ForceTDM__-6_1000
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+ForceTDM__-60__1000
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__DAC-PA_TDM_768_IN_and_Path_generator
+Measure__THD__OUTP__OUTN
+Measure__flatness__OUTP__OUTN
+Measure__PSRR__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in test page"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1E_0xF8</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "set enable and gain = -61dB (Gains from-1dB to -61dB step -6) anf freq=1kHz (available freq: 1-2-4-8-16kHz)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in base page"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__noise__OUTP__OUTN
+Measure__current__VDDIO
+Measure__current__VDD
+Measure__current__VBAT
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Run__Startup
 0xFE_0x00 "Select page 0"
-0x00_0x01
+0x00_0x0F "Select 812.5 kHz"
 0xFE_0x01 "Select page 1"
 0x03_0x04 "Enable digital test FSYN"
 0x04_0x20 "Enable digital test ana_ref_fro_clk_13m"
@@ -43724,6 +43715,15 @@
 Calculate__MinError
 0xFE_0x00 "Select page 0"
 </t>
+  </si>
+  <si>
+    <t>812.5k</t>
+  </si>
+  <si>
+    <t>800k</t>
+  </si>
+  <si>
+    <t>825k</t>
   </si>
 </sst>
 </file>
@@ -45927,177 +45927,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -46993,8 +46993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47007,7 +47007,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="235" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B1" s="235"/>
       <c r="C1" s="9" t="s">
@@ -47079,16 +47079,16 @@
       <c r="A5" s="236"/>
       <c r="B5" s="237"/>
       <c r="C5" s="207" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D5" s="207" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E5" s="207" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F5" s="192" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47103,7 +47103,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47128,10 +47128,10 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47157,7 +47157,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="233" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -49010,7 +49010,7 @@
         <v>211</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E1" s="228" t="s">
         <v>212</v>
@@ -49060,7 +49060,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>212</v>
@@ -49076,10 +49076,10 @@
         <v>214</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E5" s="210" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F5" s="221" t="s">
         <v>215</v>
@@ -49115,7 +49115,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D8" s="120" t="s">
         <v>216</v>
@@ -50422,16 +50422,16 @@
         <v>236</v>
       </c>
       <c r="H5" s="191" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="I5" s="191" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="J5" s="191" t="s">
         <v>237</v>
       </c>
       <c r="K5" s="191" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L5" s="224" t="s">
         <v>238</v>
@@ -54256,8 +54256,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54486,43 +54486,43 @@
         <v>289</v>
       </c>
       <c r="E5" s="206" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="230" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="206" t="s">
+        <v>427</v>
+      </c>
+      <c r="H5" s="206" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="206" t="s">
+        <v>425</v>
+      </c>
+      <c r="J5" s="206" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5" s="206" t="s">
+        <v>423</v>
+      </c>
+      <c r="L5" s="206" t="s">
+        <v>414</v>
+      </c>
+      <c r="M5" s="205" t="s">
         <v>290</v>
       </c>
-      <c r="F5" s="230" t="s">
-        <v>423</v>
-      </c>
-      <c r="G5" s="206" t="s">
+      <c r="N5" s="205" t="s">
         <v>291</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="O5" s="205" t="s">
         <v>292</v>
       </c>
-      <c r="I5" s="206" t="s">
+      <c r="P5" s="205" t="s">
         <v>293</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="Q5" s="205" t="s">
         <v>294</v>
-      </c>
-      <c r="K5" s="206" t="s">
-        <v>295</v>
-      </c>
-      <c r="L5" s="206" t="s">
-        <v>420</v>
-      </c>
-      <c r="M5" s="205" t="s">
-        <v>296</v>
-      </c>
-      <c r="N5" s="205" t="s">
-        <v>297</v>
-      </c>
-      <c r="O5" s="205" t="s">
-        <v>298</v>
-      </c>
-      <c r="P5" s="205" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q5" s="205" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54577,41 +54577,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54623,7 +54623,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -54666,47 +54666,47 @@
         <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
         <v>262</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>155</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -55026,13 +55026,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -55053,29 +55053,29 @@
         <v>184</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -55092,31 +55092,31 @@
         <v>186</v>
       </c>
       <c r="C22" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="E22" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="J22" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="K22" s="76" t="s">
         <v>320</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>324</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>325</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>326</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55202,31 +55202,31 @@
         <v>195</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55243,31 +55243,31 @@
         <v>197</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -56819,16 +56819,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -56837,16 +56837,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -56920,7 +56920,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
@@ -56932,16 +56932,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -56950,50 +56950,50 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="243"/>
       <c r="B5" s="243"/>
       <c r="C5" s="211" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G5" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="229" t="s">
+        <v>416</v>
+      </c>
+      <c r="L5" s="229" t="s">
         <v>415</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="K5" s="229" t="s">
-        <v>422</v>
-      </c>
-      <c r="L5" s="229" t="s">
-        <v>421</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -57042,13 +57042,13 @@
         <v>257</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -57060,10 +57060,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>75</v>
@@ -58767,84 +58767,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>341</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="227" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B2" s="177" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C2" s="177" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>351</v>
-      </c>
-      <c r="H2" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="I2" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>356</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -58854,15 +58854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58871,6 +58862,15 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59091,20 +59091,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43E845-9275-41A0-B9E9-BE4DEF3319F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE1F2B-3E8E-4C3A-9175-29F69F7C0F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43494,19 +43494,6 @@
     <t xml:space="preserve">Run__Startup
 Run__Enable_Ana_Testpoint
 0xFE_0x01 "Select page 1"
-0x1A_0x01 "Bandgap"
-0xB0_0x0E
-"Loop__trim:"
-Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
-Measure__Voltage__SDWN
-Calculate__MinError
-0xFE_0x00 "Select page 0"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
 0x1A_0x04 "TSDN"
 0xB0_0x0E
 "Loop__trim:"
@@ -43724,6 +43711,19 @@
   </si>
   <si>
     <t>825k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0xB0_0x0E
+0x1A_0x01 "Bandgap"
+"Loop__trim:"
+Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
+Measure__Voltage__SDWN
+Calculate__MinError
+0xFE_0x00 "Select page 0"
+</t>
   </si>
 </sst>
 </file>
@@ -46993,8 +46993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47079,13 +47079,13 @@
       <c r="A5" s="236"/>
       <c r="B5" s="237"/>
       <c r="C5" s="207" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="207" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="207" t="s">
-        <v>422</v>
-      </c>
       <c r="E5" s="207" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F5" s="192" t="s">
         <v>412</v>
@@ -47103,7 +47103,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47131,7 +47131,7 @@
         <v>417</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47157,7 +47157,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="233" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -48056,6 +48056,7 @@
     <mergeCell ref="A6:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54486,25 +54487,25 @@
         <v>289</v>
       </c>
       <c r="E5" s="206" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="230" t="s">
         <v>428</v>
       </c>
-      <c r="F5" s="230" t="s">
-        <v>429</v>
-      </c>
       <c r="G5" s="206" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H5" s="206" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I5" s="206" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J5" s="206" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K5" s="206" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L5" s="206" t="s">
         <v>414</v>
@@ -58854,6 +58855,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -58862,15 +58872,6 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59091,20 +59092,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
     <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF0EFE6-AAA8-4EAF-8293-A4979EC83D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A7D38-0920-4209-AF37-23A68DE7820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32777,1152 +32777,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Run__startup
-Run__Boost_test_default
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VBSO_3.6V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Force__VPAP_OUT__ 0V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"PA positive output"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VPAN_OUT__0V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "PA negative output"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[7]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "env_err en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN=bst_env_err"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force env_err"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 0 since the ref is higher than the PA OUTPUT"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VPAP_OUT__3.6V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "PA positive output"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "now it should be 1 since the PA output should be higher than the ref"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x00
-0x03_0x00
-0x04_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run__startup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Boost_test_default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Force__VBIAS__5V
-Force__VBSO__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb_byp off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[6]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ocp en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xC0[2:0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"ocp threshold set to 200 mA"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN=ana_bst_ocp_1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x15[2]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force ocp"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 0 "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__Current__SW__300mA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"inject"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 1 since the current flowing is higher than the selected threshold (200mA)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x00
-0x03_0x00
-0x04_0x01</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
@@ -39156,305 +38010,6 @@
       </rPr>
       <t xml:space="preserve">Run_startup
 Run_Boost_test_default
-Force__VBIAS__5V
-Force__VBSO__3.6V
-Force__SW__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW_Mirr test"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Mirr"
-Force__SDWN__0.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test_en 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Current__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "tswitch mirr measure"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
 Run_Enable_Ana_Testpoint
 Force__VBIAS__5V
 Force__VBSO__3.6V
@@ -44223,6 +42778,1523 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__startup
+Run__Boost_test_default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBSO_3.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Force__OUTP__ 0V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"PA positive output"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__OUTN__0V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "PA negative output"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[7]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "env_err en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN=bst_env_err"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force env_err"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 0 since the ref is higher than the PA OUTPUT"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__OUTP__3.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "PA positive output"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "now it should be 1 since the PA output should be higher than the ref"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x00
+0x03_0x00
+0x04_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__startup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Boost_test_default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Force__VBIAS__5V
+Force__VBSO__3.6V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Bootstrap en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB4[2:0]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "hsa_hsb_byp off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Bootstrap"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ocp en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xC0[2:0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"ocp threshold set to 200 mA"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN=ana_bst_ocp_1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x15[2]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force ocp"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 0 "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__Current__SW__300mA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"inject"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 1 since the current flowing is higher than the selected threshold (200mA)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x00
+0x03_0x00
+0x04_0x01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW_Mirr test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__SDWN__0.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test_en 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Current__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "tswitch mirr measure"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
@@ -44239,7 +44311,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="117" x14ac:knownFonts="1">
+  <fonts count="118" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44985,6 +45057,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -45377,7 +45458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -45993,6 +46074,12 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="117" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -46407,177 +46494,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="K6" s="58" t="s">
         <v>355</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>361</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>363</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -47473,8 +47560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47487,7 +47574,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="233" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1" s="233"/>
       <c r="C1" s="9" t="s">
@@ -47559,16 +47646,16 @@
       <c r="A5" s="234"/>
       <c r="B5" s="235"/>
       <c r="C5" s="206" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D5" s="206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E5" s="206" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F5" s="191" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47583,7 +47670,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47608,10 +47695,10 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47637,7 +47724,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="231" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -49491,7 +49578,7 @@
         <v>211</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E1" s="227" t="s">
         <v>212</v>
@@ -49541,7 +49628,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E4" s="103" t="s">
         <v>212</v>
@@ -49557,10 +49644,10 @@
         <v>214</v>
       </c>
       <c r="D5" s="218" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E5" s="209" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F5" s="220" t="s">
         <v>215</v>
@@ -49596,7 +49683,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>216</v>
@@ -50523,8 +50610,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X5" sqref="X5"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50593,14 +50680,14 @@
       <c r="R1" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="162" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>59</v>
+      <c r="S1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="243" t="s">
+        <v>138</v>
       </c>
       <c r="V1" s="65" t="s">
         <v>51</v>
@@ -50888,40 +50975,40 @@
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
       <c r="C5" s="223" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D5" s="223" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E5" s="223" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F5" s="223" t="s">
         <v>231</v>
       </c>
       <c r="G5" s="185" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="191" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="190" t="s">
+        <v>425</v>
+      </c>
+      <c r="J5" s="190" t="s">
         <v>426</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="K5" s="190" t="s">
         <v>427</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="L5" s="223" t="s">
         <v>428</v>
       </c>
-      <c r="J5" s="190" t="s">
+      <c r="M5" s="223" t="s">
         <v>429</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="N5" s="223" t="s">
         <v>430</v>
-      </c>
-      <c r="L5" s="223" t="s">
-        <v>431</v>
-      </c>
-      <c r="M5" s="223" t="s">
-        <v>432</v>
-      </c>
-      <c r="N5" s="223" t="s">
-        <v>433</v>
       </c>
       <c r="O5" s="223" t="s">
         <v>232</v>
@@ -50960,13 +51047,13 @@
         <v>243</v>
       </c>
       <c r="AA5" s="191" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB5" s="191" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC5" s="244" t="s">
         <v>244</v>
-      </c>
-      <c r="AB5" s="191" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC5" s="223" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -51089,36 +51176,36 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="153"/>
@@ -51133,7 +51220,7 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69"/>
       <c r="AC8" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -51150,19 +51237,19 @@
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L9" s="71">
         <v>3</v>
@@ -51177,7 +51264,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="70">
         <v>1.64</v>
@@ -51187,16 +51274,16 @@
       </c>
       <c r="S9" s="142"/>
       <c r="T9" s="166" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X9" s="198">
         <v>20.074999999999999</v>
@@ -51205,13 +51292,13 @@
         <v>24.2</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC9" s="71"/>
     </row>
@@ -51259,10 +51346,10 @@
         <v>218</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
@@ -51330,7 +51417,7 @@
         <v>155</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -51468,10 +51555,10 @@
         <v>163</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F14" s="85" t="s">
         <v>163</v>
@@ -51534,7 +51621,7 @@
         <v>163</v>
       </c>
       <c r="AB14" s="84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC14" s="85" t="s">
         <v>163</v>
@@ -51884,7 +51971,7 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="155"/>
@@ -52003,7 +52090,7 @@
         <v>191</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G23" s="84" t="s">
         <v>163</v>
@@ -52045,7 +52132,7 @@
         <v>163</v>
       </c>
       <c r="T23" s="170" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U23" s="84" t="s">
         <v>163</v>
@@ -52132,10 +52219,10 @@
         <v>191</v>
       </c>
       <c r="T24" s="168" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V24" s="85" t="s">
         <v>191</v>
@@ -52227,11 +52314,11 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -52266,7 +52353,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
@@ -54912,98 +54999,98 @@
       </c>
       <c r="B4" s="238"/>
       <c r="C4" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="I4" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="K4" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="L4" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="M4" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="N4" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="O4" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>276</v>
-      </c>
-      <c r="P4" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="241"/>
       <c r="B5" s="242"/>
       <c r="C5" s="221" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="222" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="205" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="205" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="205" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" s="205" t="s">
+        <v>411</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>410</v>
+      </c>
+      <c r="J5" s="205" t="s">
+        <v>409</v>
+      </c>
+      <c r="K5" s="205" t="s">
+        <v>408</v>
+      </c>
+      <c r="L5" s="205" t="s">
+        <v>403</v>
+      </c>
+      <c r="M5" s="204" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="222" t="s">
+      <c r="N5" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="205" t="s">
-        <v>415</v>
-      </c>
-      <c r="F5" s="205" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" s="205" t="s">
-        <v>414</v>
-      </c>
-      <c r="H5" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="I5" s="205" t="s">
-        <v>412</v>
-      </c>
-      <c r="J5" s="205" t="s">
-        <v>411</v>
-      </c>
-      <c r="K5" s="205" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="205" t="s">
-        <v>405</v>
-      </c>
-      <c r="M5" s="204" t="s">
+      <c r="O5" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="N5" s="204" t="s">
+      <c r="P5" s="204" t="s">
         <v>282</v>
       </c>
-      <c r="O5" s="204" t="s">
+      <c r="Q5" s="204" t="s">
         <v>283</v>
-      </c>
-      <c r="P5" s="204" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" s="204" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -55058,41 +55145,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -55104,7 +55191,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -55147,47 +55234,47 @@
         <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>155</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -55507,13 +55594,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -55534,29 +55621,29 @@
         <v>184</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="50" t="s">
         <v>299</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>301</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="H21" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>304</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -55573,31 +55660,31 @@
         <v>186</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="J22" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>309</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>311</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55683,31 +55770,31 @@
         <v>195</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55724,31 +55811,31 @@
         <v>197</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -57300,16 +57387,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>391</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>393</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -57318,16 +57405,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -57401,7 +57488,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
@@ -57413,16 +57500,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>391</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>393</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -57431,50 +57518,50 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="241"/>
       <c r="B5" s="241"/>
       <c r="C5" s="210" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5" s="228" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" s="228" t="s">
         <v>404</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>402</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="K5" s="228" t="s">
-        <v>407</v>
-      </c>
-      <c r="L5" s="228" t="s">
-        <v>406</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -57520,16 +57607,16 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -57541,10 +57628,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>75</v>
@@ -59231,7 +59318,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59248,84 +59335,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>330</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2" s="176" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C2" s="176" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D2" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="226" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="226" t="s">
+      <c r="G2" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>340</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -59335,6 +59422,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59551,27 +59658,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59588,23 +59694,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A7D38-0920-4209-AF37-23A68DE7820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A086E-2E1A-4926-AD00-442410A89978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44002,6 +44002,7 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Run_startup
@@ -44014,16 +44015,18 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xFE_0x00</t>
@@ -44033,6 +44036,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "Select page 0"
@@ -44043,6 +44047,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xB0_0x00</t>
@@ -44052,6 +44057,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "en 1 bst low"
@@ -44062,6 +44068,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xB1_0x00</t>
@@ -44071,6 +44078,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "en 2 bst low"
@@ -44081,6 +44089,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xB3[4:3]_0x00</t>
@@ -44090,6 +44099,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "en 3 bst low"
@@ -44100,16 +44110,18 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -44120,6 +44132,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "Select page 1"
@@ -44130,6 +44143,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0x1A_0x00</t>
@@ -44139,6 +44153,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "TSW_Mirr test"
@@ -44149,6 +44164,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0x18[6]_0x01</t>
@@ -44158,6 +44174,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "Enable Mirr"
@@ -44168,6 +44185,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0x17[6]_0x01</t>
@@ -44177,6 +44195,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "Force Mirr"
@@ -44197,6 +44216,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -44207,6 +44227,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wait__delay__0.1ms
@@ -44217,16 +44238,18 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0x19[1]_0x01</t>
@@ -44236,6 +44259,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "bst_test_en 1"
@@ -44246,6 +44270,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wait__delay__0.1ms
@@ -44256,6 +44281,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -44266,6 +44292,7 @@
         <sz val="11"/>
         <color rgb="FF70AD47"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Measure__Current__SDWN</t>
@@ -44275,6 +44302,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "tswitch mirr measure"
@@ -44285,6 +44313,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">0x1A_0x00
@@ -44296,6 +44325,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -46044,6 +46074,9 @@
     <xf numFmtId="3" fontId="116" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="117" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -46073,9 +46106,6 @@
     </xf>
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="117" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -46399,7 +46429,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46677,7 +46707,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
@@ -47560,8 +47590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47573,10 +47603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="233"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47607,10 +47637,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="233"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47625,10 +47655,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47643,8 +47673,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="234"/>
-      <c r="B5" s="235"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="236"/>
       <c r="C5" s="206" t="s">
         <v>418</v>
       </c>
@@ -47659,7 +47689,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -47675,7 +47705,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -47687,7 +47717,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47703,7 +47733,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -47715,7 +47745,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -48643,10 +48673,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="233"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48677,10 +48707,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="233"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48695,10 +48725,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -48713,8 +48743,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="234"/>
-      <c r="B5" s="235"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="236"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -48729,7 +48759,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48747,7 +48777,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48763,7 +48793,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48781,7 +48811,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -48797,7 +48827,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49570,10 +49600,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="233"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="103" t="s">
         <v>211</v>
       </c>
@@ -49602,10 +49632,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="233"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
@@ -49620,10 +49650,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="103" t="s">
         <v>211</v>
       </c>
@@ -49638,8 +49668,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="234"/>
-      <c r="B5" s="235"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="236"/>
       <c r="C5" s="209" t="s">
         <v>214</v>
       </c>
@@ -49654,7 +49684,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49668,7 +49698,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49678,7 +49708,7 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49696,7 +49726,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49708,7 +49738,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -50609,9 +50639,9 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50628,10 +50658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="239"/>
       <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
@@ -50686,7 +50716,7 @@
       <c r="T1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="243" t="s">
+      <c r="U1" s="233" t="s">
         <v>138</v>
       </c>
       <c r="V1" s="65" t="s">
@@ -50798,10 +50828,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="238"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="184" t="s">
         <v>20</v>
       </c>
@@ -50885,10 +50915,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="239" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="238"/>
+      <c r="B4" s="239"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50972,9 +51002,9 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="223" t="s">
+      <c r="A5" s="240"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="244" t="s">
         <v>433</v>
       </c>
       <c r="D5" s="223" t="s">
@@ -51052,12 +51082,12 @@
       <c r="AB5" s="191" t="s">
         <v>432</v>
       </c>
-      <c r="AC5" s="244" t="s">
+      <c r="AC5" s="185" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="241" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -51136,7 +51166,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="240"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -51171,7 +51201,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -51224,7 +51254,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="240"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -51303,7 +51333,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="240"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -54845,10 +54875,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="239"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54943,10 +54973,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="238"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -54994,10 +55024,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="239" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="238"/>
+      <c r="B4" s="239"/>
       <c r="C4" s="65" t="s">
         <v>262</v>
       </c>
@@ -55045,8 +55075,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="241"/>
-      <c r="B5" s="242"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="243"/>
       <c r="C5" s="221" t="s">
         <v>277</v>
       </c>
@@ -55094,7 +55124,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="241" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -55117,7 +55147,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="240"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -55138,7 +55168,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -55183,7 +55213,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="240"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -55208,7 +55238,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="240"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -57379,10 +57409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="239"/>
       <c r="C1" s="65" t="s">
         <v>64</v>
       </c>
@@ -57453,10 +57483,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="238"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -57492,10 +57522,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="238"/>
+      <c r="B4" s="239"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -57531,8 +57561,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
-      <c r="B5" s="241"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="210" t="s">
         <v>402</v>
       </c>
@@ -57566,7 +57596,7 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="241" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57585,7 +57615,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="240"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57602,7 +57632,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -57639,7 +57669,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="240"/>
+      <c r="A9" s="241"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -57656,7 +57686,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="240"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -59318,7 +59348,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59422,26 +59452,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59658,10 +59668,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59678,20 +59719,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A086E-2E1A-4926-AD00-442410A89978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496287A2-1AB0-4B6B-85E1-0FE59EDEB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -34657,238 +34657,6 @@
     <t>Procedura per consentire la misura dell'offset in ANALOG_IN, visto che i DAC non sono abilitati di default  per applicare la parola di correzione</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__5V
-Force__VBSO__3.6V
-Force__SW__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb_byp off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Run__Startup
 0xFE_0x00 "in base page"
 0x13[4]_1b1 "seq_auto_cal_dis=1 disable authomatic calibration"
@@ -35293,60 +35061,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0x88
-0x10_0x08
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FORCE__SDWN__OPEN
-0x19_0x81 "Enable reference analog test"
-0x1A_0x00
-</t>
-    </r>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -37768,19 +37482,6 @@
   </si>
   <si>
     <t>0.542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
-0x1A_0x04 "TSDN"
-0xB0_0x0E
-"Loop__trim:"
-Trim__ 0xB3[7:5] "Select code which sets ATEST voltage as close as possible to target"
-Measure__Voltage__SDWN
-Calculate__MinError
-0xFE_0x00 "Select page 0"
-</t>
   </si>
   <si>
     <t>Run__DAC-PA_PDM_12MHz_IN
@@ -37899,19 +37600,6 @@
     <t>825k</t>
   </si>
   <si>
-    <t xml:space="preserve">Run__Startup
-Run__Enable_Ana_Testpoint
-0xFE_0x01 "Select page 1"
-0xB0_0x0E
-0x1A_0x01 "Bandgap"
-"Loop__trim:"
-Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
-Measure__Voltage__SDWN
-Calculate__MinError
-0xFE_0x00 "Select page 0"
-</t>
-  </si>
-  <si>
     <t>400n</t>
   </si>
   <si>
@@ -37997,543 +37685,6 @@
 Measure__current__VDDIO
 Measure__current__VDD
 Measure__current__VBAT
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-Force__VBIAS__5V
-Force__VBSO__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb_byp off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[6]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSwitch SW"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force_Current__SW__400mA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chiedere comando corrente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSwitch PGND"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__parameter__diff__TSwitch SW__TSwitch PGND
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -44002,31 +43153,269 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Run_startup
 Run_Boost_test_default
 Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+Force__VBIAS__5V
+Force__VBSO__3.6V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Bootstrap en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB4[2:0]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "hsa_hsb_byp off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Bootstrap"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSwitch SW"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xFE_0x00</t>
@@ -44036,7 +43425,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "Select page 0"
@@ -44047,62 +43435,95 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
 </t>
     </r>
     <r>
@@ -44110,116 +43531,36 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW_Mirr test"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__SDWN__0.6V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force_Current__SW__400mA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chiedere comando corrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
 </t>
     </r>
     <r>
@@ -44227,7 +43568,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wait__delay__0.1ms
@@ -44238,50 +43578,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test_en 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -44292,28 +43588,75 @@
         <sz val="11"/>
         <color rgb="FF70AD47"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Current__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "tswitch mirr measure"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSwitch PGND"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__parameter__diff__TSwitch SW__TSwitch PGND
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">0x1A_0x00
@@ -44325,12 +43668,648 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW_Mirr test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__SDWN__0.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test_en 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Current__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "tswitch mirr measure"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0x88
+0x10_0x08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FORCE__SDWN__OPEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__5V
+Force__VBSO__3.6V
+Force__SW__3.6V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+0xFE_0x01 "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+0xFE_0x00 "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Bootstrap en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB4[2:0]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "hsa_hsb_byp off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Bootstrap"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0xB0_0x0E
+0x19_0x81
+0x1A_0x01 "Bandgap"
+"Loop__trim:"
+Trim__0xB0[7:4] "Select code which sets ATEST voltage as close as possible to target"
+Measure__Voltage__SDWN
+Calculate__MinError
+0xFE_0x00 "Select page 0"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run__Startup
+Run__Enable_Ana_Testpoint
+0xFE_0x01 "Select page 1"
+0xB0_0x0E
+0x19_0x81
+0x1A_0x04 "TSDN"
+"Loop__trim:"
+Trim__ 0xB3[7:5] "Select code which sets ATEST voltage as close as possible to target"
+Measure__Voltage__SDWN
+Calculate__MinError
+0xFE_0x00 "Select page 0"
+</t>
   </si>
 </sst>
 </file>
@@ -44341,7 +44320,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="118" x14ac:knownFonts="1">
+  <fonts count="119" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45096,6 +45075,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -45488,7 +45474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46110,6 +46096,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -46524,177 +46513,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>341</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>354</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>360</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>362</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>374</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>376</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>380</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -47590,7 +47579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -47604,7 +47593,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="234" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1" s="234"/>
       <c r="C1" s="9" t="s">
@@ -47676,16 +47665,16 @@
       <c r="A5" s="235"/>
       <c r="B5" s="236"/>
       <c r="C5" s="206" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D5" s="206" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E5" s="206" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F5" s="191" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47700,7 +47689,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47725,10 +47714,10 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47754,7 +47743,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="231" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -49608,7 +49597,7 @@
         <v>211</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E1" s="227" t="s">
         <v>212</v>
@@ -49658,7 +49647,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E4" s="103" t="s">
         <v>212</v>
@@ -49674,10 +49663,10 @@
         <v>214</v>
       </c>
       <c r="D5" s="218" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E5" s="209" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F5" s="220" t="s">
         <v>215</v>
@@ -49713,7 +49702,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>216</v>
@@ -50639,7 +50628,7 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -51005,40 +50994,40 @@
       <c r="A5" s="240"/>
       <c r="B5" s="240"/>
       <c r="C5" s="244" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D5" s="223" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E5" s="223" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F5" s="223" t="s">
         <v>231</v>
       </c>
       <c r="G5" s="185" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="191" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" s="190" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" s="190" t="s">
+        <v>422</v>
+      </c>
+      <c r="L5" s="223" t="s">
         <v>423</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="M5" s="223" t="s">
         <v>424</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="N5" s="223" t="s">
         <v>425</v>
-      </c>
-      <c r="J5" s="190" t="s">
-        <v>426</v>
-      </c>
-      <c r="K5" s="190" t="s">
-        <v>427</v>
-      </c>
-      <c r="L5" s="223" t="s">
-        <v>428</v>
-      </c>
-      <c r="M5" s="223" t="s">
-        <v>429</v>
-      </c>
-      <c r="N5" s="223" t="s">
-        <v>430</v>
       </c>
       <c r="O5" s="223" t="s">
         <v>232</v>
@@ -51077,10 +51066,10 @@
         <v>243</v>
       </c>
       <c r="AA5" s="191" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AB5" s="191" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AC5" s="185" t="s">
         <v>244</v>
@@ -51206,7 +51195,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>245</v>
@@ -55084,28 +55073,28 @@
         <v>278</v>
       </c>
       <c r="E5" s="205" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F5" s="205" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G5" s="205" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H5" s="205" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I5" s="205" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J5" s="205" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K5" s="205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L5" s="205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M5" s="204" t="s">
         <v>279</v>
@@ -57417,16 +57406,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>389</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>391</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -57530,16 +57519,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>389</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>391</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -57564,34 +57553,34 @@
       <c r="A5" s="242"/>
       <c r="B5" s="242"/>
       <c r="C5" s="210" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>398</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>400</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>316</v>
       </c>
       <c r="K5" s="228" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L5" s="228" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -59348,7 +59337,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59371,7 +59360,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>321</v>
@@ -59406,43 +59395,43 @@
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="176" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="B2" s="245" t="s">
+        <v>430</v>
       </c>
       <c r="C2" s="176" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>331</v>
       </c>
       <c r="E2" s="226" t="s">
+        <v>431</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>339</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -59452,6 +59441,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59668,27 +59677,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59705,23 +59713,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496287A2-1AB0-4B6B-85E1-0FE59EDEB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FAE7C-EBB7-4CAC-B492-179E2B4C0799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -44320,7 +44320,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="119" x14ac:knownFonts="1">
+  <fonts count="120" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45082,8 +45082,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45159,6 +45166,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -45470,9 +45482,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -46063,6 +46076,9 @@
     <xf numFmtId="49" fontId="117" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -46093,16 +46109,14 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="119" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -47579,8 +47593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A58BE6-10B8-478E-A3FE-3CA6A691AC11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47592,10 +47606,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47626,10 +47640,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47644,10 +47658,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47662,8 +47676,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
-      <c r="B5" s="236"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="206" t="s">
         <v>432</v>
       </c>
@@ -47678,7 +47692,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -47694,7 +47708,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -47706,7 +47720,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="237"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47722,7 +47736,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -47734,7 +47748,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="237"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -48662,10 +48676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48696,10 +48710,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48714,10 +48728,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -48732,8 +48746,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
-      <c r="B5" s="236"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -48748,7 +48762,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48766,7 +48780,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48782,7 +48796,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48800,7 +48814,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -48816,7 +48830,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49589,10 +49603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="103" t="s">
         <v>211</v>
       </c>
@@ -49621,10 +49635,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
@@ -49639,10 +49653,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="103" t="s">
         <v>211</v>
       </c>
@@ -49657,8 +49671,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
-      <c r="B5" s="236"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="209" t="s">
         <v>214</v>
       </c>
@@ -49673,7 +49687,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49687,7 +49701,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49697,7 +49711,7 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49715,7 +49729,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49727,7 +49741,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -50629,8 +50643,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50647,10 +50661,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="239"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
@@ -50817,10 +50831,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="239"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="184" t="s">
         <v>20</v>
       </c>
@@ -50904,10 +50918,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="239"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -50991,9 +51005,9 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="244" t="s">
+      <c r="A5" s="241"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="185" t="s">
         <v>429</v>
       </c>
       <c r="D5" s="223" t="s">
@@ -51076,7 +51090,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -51155,7 +51169,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -51190,7 +51204,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -51243,7 +51257,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="241"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -51322,7 +51336,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="241"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -54864,10 +54878,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="239"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54962,10 +54976,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="239"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -55013,10 +55027,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="239"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>262</v>
       </c>
@@ -55064,8 +55078,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="242"/>
-      <c r="B5" s="243"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="221" t="s">
         <v>277</v>
       </c>
@@ -55113,7 +55127,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -55136,7 +55150,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -55157,7 +55171,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -55202,7 +55216,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="241"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -55227,7 +55241,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="241"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -57378,8 +57392,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57398,11 +57412,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="245" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
@@ -57472,10 +57486,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="239"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -57511,10 +57525,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="239"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -57550,8 +57564,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
-      <c r="B5" s="242"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
       <c r="C5" s="210" t="s">
         <v>400</v>
       </c>
@@ -57585,7 +57599,7 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57604,7 +57618,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57621,7 +57635,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -57658,7 +57672,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="241"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -57675,7 +57689,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="241"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -59397,7 +59411,7 @@
       <c r="A2" s="226" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="234" t="s">
         <v>430</v>
       </c>
       <c r="C2" s="176" t="s">
@@ -59441,26 +59455,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59677,10 +59671,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59697,20 +59722,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FAE7C-EBB7-4CAC-B492-179E2B4C0799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A0218E-AA6E-479E-BC72-6A53D55AC79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -37694,545 +37694,6 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-Force__VBAT__5V
-Force__VDDIO__1.8V
-Force__VDD__1.8V
-Force__VBIAS__6V
-Force__VBSO__4.3V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x00_0x0F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power-up"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb on byp off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSwitch SW"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force_Current_SW_-100mA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sink current -100mA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__VBSO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__parameter__diff__TSwitch SW__VBSO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x1A_0x00
-0x19_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -44311,6 +43772,600 @@
 0xFE_0x00 "Select page 0"
 </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+Force__VBAT__5V
+Force__VDDIO__1.8V
+Force__VDD__1.8V
+Force__VBIAS__6V
+Force__VBSO__4.3V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00_0x0F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power-up"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Bootstrap en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB4[2:0]_0x06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "hsa_hsb on byp off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSwitch SW"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Bootstrap"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force_Current_SW_-100mA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sink current -100mA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__VBSO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__parameter__diff__TSwitch SW__VBSO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x1A_0x00
+0x19_0x00</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -44320,7 +44375,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="120" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45089,6 +45144,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -45487,7 +45549,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46079,6 +46141,9 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="119" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -46109,8 +46174,8 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="119" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -47606,10 +47671,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47640,10 +47705,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47658,10 +47723,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47676,13 +47741,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="206" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="206" t="s">
         <v>432</v>
-      </c>
-      <c r="D5" s="206" t="s">
-        <v>433</v>
       </c>
       <c r="E5" s="206" t="s">
         <v>411</v>
@@ -47692,7 +47757,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -47708,7 +47773,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -47720,7 +47785,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47736,7 +47801,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -47748,7 +47813,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -48676,10 +48741,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48710,10 +48775,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48728,10 +48793,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -48746,8 +48811,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -48762,7 +48827,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="240" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48780,7 +48845,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48796,7 +48861,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48814,7 +48879,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -48830,7 +48895,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49603,10 +49668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="103" t="s">
         <v>211</v>
       </c>
@@ -49635,10 +49700,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
@@ -49653,10 +49718,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="236"/>
       <c r="C4" s="103" t="s">
         <v>211</v>
       </c>
@@ -49671,8 +49736,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="209" t="s">
         <v>214</v>
       </c>
@@ -49687,7 +49752,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="240" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49701,7 +49766,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49711,7 +49776,7 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49729,7 +49794,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49741,7 +49806,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -50642,9 +50707,9 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50661,10 +50726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="241"/>
       <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
@@ -50831,10 +50896,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="240"/>
+      <c r="B3" s="241"/>
       <c r="C3" s="184" t="s">
         <v>20</v>
       </c>
@@ -50918,10 +50983,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="241"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -51005,43 +51070,43 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
-      <c r="B5" s="241"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D5" s="223" t="s">
-        <v>428</v>
-      </c>
-      <c r="E5" s="223" t="s">
-        <v>417</v>
+        <v>427</v>
+      </c>
+      <c r="E5" s="246" t="s">
+        <v>433</v>
       </c>
       <c r="F5" s="223" t="s">
         <v>231</v>
       </c>
       <c r="G5" s="185" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" s="191" t="s">
         <v>418</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="I5" s="190" t="s">
         <v>419</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="J5" s="190" t="s">
         <v>420</v>
       </c>
-      <c r="J5" s="190" t="s">
+      <c r="K5" s="190" t="s">
         <v>421</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="L5" s="223" t="s">
         <v>422</v>
       </c>
-      <c r="L5" s="223" t="s">
+      <c r="M5" s="223" t="s">
         <v>423</v>
       </c>
-      <c r="M5" s="223" t="s">
+      <c r="N5" s="223" t="s">
         <v>424</v>
-      </c>
-      <c r="N5" s="223" t="s">
-        <v>425</v>
       </c>
       <c r="O5" s="223" t="s">
         <v>232</v>
@@ -51080,17 +51145,17 @@
         <v>243</v>
       </c>
       <c r="AA5" s="191" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB5" s="191" t="s">
         <v>426</v>
-      </c>
-      <c r="AB5" s="191" t="s">
-        <v>427</v>
       </c>
       <c r="AC5" s="185" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="243" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -51169,7 +51234,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -51204,7 +51269,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -51257,7 +51322,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="243"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -51336,7 +51401,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="243"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -54878,10 +54943,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="241"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -54976,10 +55041,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="240"/>
+      <c r="B3" s="241"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -55027,10 +55092,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="241"/>
       <c r="C4" s="65" t="s">
         <v>262</v>
       </c>
@@ -55078,8 +55143,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="243"/>
-      <c r="B5" s="244"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="221" t="s">
         <v>277</v>
       </c>
@@ -55127,7 +55192,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="243" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -55150,7 +55215,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -55171,7 +55236,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -55216,7 +55281,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="243"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -55241,7 +55306,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="243"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -57392,7 +57457,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -57412,11 +57477,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="245" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="235" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
@@ -57486,10 +57551,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="240"/>
+      <c r="B3" s="241"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -57525,10 +57590,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="241" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="241"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -57564,8 +57629,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="210" t="s">
         <v>400</v>
       </c>
@@ -57599,7 +57664,7 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="243" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57618,7 +57683,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57635,7 +57700,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -57672,7 +57737,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="243"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -57689,7 +57754,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="243"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -59350,7 +59415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853352DE-922C-4F00-B110-569410679C0C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -59412,7 +59477,7 @@
         <v>381</v>
       </c>
       <c r="B2" s="234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C2" s="176" t="s">
         <v>392</v>
@@ -59421,7 +59486,7 @@
         <v>331</v>
       </c>
       <c r="E2" s="226" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>332</v>
@@ -59455,6 +59520,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59671,27 +59756,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59708,23 +59792,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A0218E-AA6E-479E-BC72-6A53D55AC79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AEAAAF-F6FF-4994-AB26-40B28902F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="Keywords" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42614,533 +42615,6 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-Force__VBIAS__5V
-Force__VBSO__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb_byp off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[6]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSwitch SW"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force_Current__SW__400mA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chiedere comando corrente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSwitch PGND"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__parameter__diff__TSwitch SW__TSwitch PGND
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -44072,7 +43546,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "Force Mirr"
+      <t xml:space="preserve"> "Force Mirr" 
 </t>
     </r>
     <r>
@@ -44345,12 +43819,22 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculate__TSswitch2__VBSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF70AD47"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Measure__parameter__diff__TSwitch SW__VBSO
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -44364,6 +43848,564 @@
       <t xml:space="preserve">
 0x1A_0x00
 0x19_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Bootstrap en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB4[2:0]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "hsa_hsb_byp off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Bootstrap"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSwitch SW"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__SW__400mA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chiedere comando corrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSwitch PGND"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN
+Calculate__TSwitchSW1__TSwitchPGND
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -44375,7 +44417,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="121" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45147,6 +45189,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -47744,10 +47793,10 @@
       <c r="A5" s="237"/>
       <c r="B5" s="238"/>
       <c r="C5" s="206" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" s="206" t="s">
         <v>431</v>
-      </c>
-      <c r="D5" s="206" t="s">
-        <v>432</v>
       </c>
       <c r="E5" s="206" t="s">
         <v>411</v>
@@ -50709,7 +50758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51073,13 +51122,13 @@
       <c r="A5" s="242"/>
       <c r="B5" s="242"/>
       <c r="C5" s="185" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="223" t="s">
         <v>427</v>
       </c>
-      <c r="E5" s="246" t="s">
+      <c r="D5" s="246" t="s">
         <v>433</v>
+      </c>
+      <c r="E5" s="185" t="s">
+        <v>432</v>
       </c>
       <c r="F5" s="223" t="s">
         <v>231</v>
@@ -51150,7 +51199,7 @@
       <c r="AB5" s="191" t="s">
         <v>426</v>
       </c>
-      <c r="AC5" s="185" t="s">
+      <c r="AC5" s="223" t="s">
         <v>244</v>
       </c>
     </row>
@@ -54922,8 +54971,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57457,8 +57506,8 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59415,7 +59464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853352DE-922C-4F00-B110-569410679C0C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -59477,7 +59526,7 @@
         <v>381</v>
       </c>
       <c r="B2" s="234" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C2" s="176" t="s">
         <v>392</v>
@@ -59486,7 +59535,7 @@
         <v>331</v>
       </c>
       <c r="E2" s="226" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>332</v>
@@ -59520,26 +59569,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59756,10 +59785,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59776,20 +59836,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AEAAAF-F6FF-4994-AB26-40B28902F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F5664-940B-47AC-87D4-1CD386F1DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <sheet name="Keywords" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50758,7 +50757,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51124,10 +51123,10 @@
       <c r="C5" s="185" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="246" t="s">
+      <c r="D5" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="246" t="s">
         <v>432</v>
       </c>
       <c r="F5" s="223" t="s">
@@ -59569,6 +59568,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59785,27 +59804,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59822,23 +59840,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F5664-940B-47AC-87D4-1CD386F1DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823F606-17BA-4B4D-845B-FECBE737CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="434">
   <si>
     <t>Revision</t>
   </si>
@@ -26376,490 +26376,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Run_startup
-Force__VBIAS__5V
-Force__SW__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb off byp on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force_Current__VBSO__-100mA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sink</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__VBSO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00
-0x19_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Run__startup
 Run__Boost_test_default
 Run__Enable_Ana_Testpoint
@@ -43251,6 +42767,542 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup
+Force__VBIAS__5V
+Force__SW__3.6V
+Force__VBAT__5V
+Force__VDDIO__1.8V
+Force__VDD__1.8V
+Force__VBIAS__6V
+Force__VBSO__4.3V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB0_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"en 1 bst low"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB1_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"en 2 bst low"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB3[4:3]_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"en 3 bst low"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x18[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Enable Mirr"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB1[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Bootstrap en"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB2[1]_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ls_sel off"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB4[2:0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"hsa_hsb off byp on"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x17[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Force Mirr"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x16[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Force Bootstrap"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8D77F9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wait__delay__0.1ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8D77F9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xB2[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Power Force en"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wait__delay__0.1ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x19[1]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"bst_test en"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wait__delay__0.1ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force_Current__VBSO__-100mA "sink"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wait__delay__0.1ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__VBSO
+Measure__Voltage__VBAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculate__diff__VBAT__VBSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"RON_BYP divided by 100mA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x1A_0x00
+0x19_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -43727,7 +43779,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Force_Current_SW_-100mA</t>
+      <t>Force__SW__-100mA</t>
     </r>
     <r>
       <rPr>
@@ -43774,56 +43826,35 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF70AD47"/>
+        <color rgb="FF92D050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__VBSO
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculate__TSswitch2__VBSO</t>
+Measure__Voltage__VBSO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculate__diff__TSswitchHS__VBSO</t>
     </r>
     <r>
       <rPr>
@@ -44369,7 +44400,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Measure__Voltage__SDWN
-Calculate__TSwitchSW1__TSwitchPGND
+Calculate__diff__TSwitchLS__TSwitchPGND
 </t>
     </r>
     <r>
@@ -44416,7 +44447,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45194,7 +45225,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FF8D77F9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6699"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46235,15 +46280,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC00"/>
+      <color rgb="FFFF6699"/>
+      <color rgb="FF8D77F9"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FF28CF75"/>
-      <color rgb="FF8D77F9"/>
       <color rgb="FF00D0C6"/>
       <color rgb="FF2DFFF5"/>
       <color rgb="FF00C2BA"/>
-      <color rgb="FFFDFDFD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -46640,177 +46686,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>340</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>342</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>353</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>359</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>360</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>361</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>363</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>365</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>367</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>369</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>371</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>373</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>375</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>377</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>379</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -47720,7 +47766,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="236" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="236"/>
       <c r="C1" s="9" t="s">
@@ -47792,16 +47838,16 @@
       <c r="A5" s="237"/>
       <c r="B5" s="238"/>
       <c r="C5" s="206" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="206" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="206" t="s">
-        <v>431</v>
-      </c>
       <c r="E5" s="206" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F5" s="191" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47816,7 +47862,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47841,10 +47887,10 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47870,7 +47916,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="231" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -49704,7 +49750,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49724,7 +49770,7 @@
         <v>211</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E1" s="227" t="s">
         <v>212</v>
@@ -49774,7 +49820,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E4" s="103" t="s">
         <v>212</v>
@@ -49790,10 +49836,10 @@
         <v>214</v>
       </c>
       <c r="D5" s="218" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E5" s="209" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F5" s="220" t="s">
         <v>215</v>
@@ -49829,7 +49875,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>216</v>
@@ -50755,9 +50801,9 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51121,85 +51167,85 @@
       <c r="A5" s="242"/>
       <c r="B5" s="242"/>
       <c r="C5" s="185" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D5" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="E5" s="246" t="s">
+      <c r="E5" s="185" t="s">
         <v>432</v>
       </c>
       <c r="F5" s="223" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="246" t="s">
+        <v>416</v>
+      </c>
+      <c r="H5" s="191" t="s">
+        <v>417</v>
+      </c>
+      <c r="I5" s="190" t="s">
+        <v>418</v>
+      </c>
+      <c r="J5" s="190" t="s">
+        <v>419</v>
+      </c>
+      <c r="K5" s="190" t="s">
+        <v>420</v>
+      </c>
+      <c r="L5" s="223" t="s">
+        <v>421</v>
+      </c>
+      <c r="M5" s="223" t="s">
+        <v>422</v>
+      </c>
+      <c r="N5" s="223" t="s">
+        <v>423</v>
+      </c>
+      <c r="O5" s="223" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="185" t="s">
-        <v>417</v>
-      </c>
-      <c r="H5" s="191" t="s">
-        <v>418</v>
-      </c>
-      <c r="I5" s="190" t="s">
-        <v>419</v>
-      </c>
-      <c r="J5" s="190" t="s">
-        <v>420</v>
-      </c>
-      <c r="K5" s="190" t="s">
-        <v>421</v>
-      </c>
-      <c r="L5" s="223" t="s">
-        <v>422</v>
-      </c>
-      <c r="M5" s="223" t="s">
-        <v>423</v>
-      </c>
-      <c r="N5" s="223" t="s">
+      <c r="P5" s="223" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="223" t="s">
+        <v>233</v>
+      </c>
+      <c r="R5" s="223" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" s="190" t="s">
+        <v>235</v>
+      </c>
+      <c r="T5" s="191" t="s">
+        <v>236</v>
+      </c>
+      <c r="U5" s="191" t="s">
+        <v>237</v>
+      </c>
+      <c r="V5" s="191" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" s="192" t="s">
+        <v>239</v>
+      </c>
+      <c r="X5" s="192" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y5" s="192" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z5" s="192" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA5" s="191" t="s">
         <v>424</v>
       </c>
-      <c r="O5" s="223" t="s">
-        <v>232</v>
-      </c>
-      <c r="P5" s="223" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="223" t="s">
-        <v>234</v>
-      </c>
-      <c r="R5" s="223" t="s">
-        <v>235</v>
-      </c>
-      <c r="S5" s="190" t="s">
-        <v>236</v>
-      </c>
-      <c r="T5" s="191" t="s">
-        <v>237</v>
-      </c>
-      <c r="U5" s="191" t="s">
-        <v>238</v>
-      </c>
-      <c r="V5" s="191" t="s">
-        <v>239</v>
-      </c>
-      <c r="W5" s="192" t="s">
-        <v>240</v>
-      </c>
-      <c r="X5" s="192" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y5" s="192" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z5" s="192" t="s">
+      <c r="AB5" s="191" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC5" s="223" t="s">
         <v>243</v>
-      </c>
-      <c r="AA5" s="191" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB5" s="191" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC5" s="223" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -51322,36 +51368,38 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="69" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="69" t="s">
         <v>246</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>247</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="153"/>
@@ -51366,7 +51414,7 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69"/>
       <c r="AC8" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -51383,19 +51431,19 @@
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L9" s="71">
         <v>3</v>
@@ -51410,7 +51458,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="70">
         <v>1.64</v>
@@ -51420,16 +51468,16 @@
       </c>
       <c r="S9" s="142"/>
       <c r="T9" s="166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X9" s="198">
         <v>20.074999999999999</v>
@@ -51438,13 +51486,13 @@
         <v>24.2</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC9" s="71"/>
     </row>
@@ -51492,10 +51540,10 @@
         <v>218</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
@@ -51563,7 +51611,7 @@
         <v>155</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -51701,10 +51749,10 @@
         <v>163</v>
       </c>
       <c r="D14" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="86" t="s">
         <v>252</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>253</v>
       </c>
       <c r="F14" s="85" t="s">
         <v>163</v>
@@ -51767,7 +51815,7 @@
         <v>163</v>
       </c>
       <c r="AB14" s="84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC14" s="85" t="s">
         <v>163</v>
@@ -52117,7 +52165,7 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="155"/>
@@ -52236,7 +52284,7 @@
         <v>191</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G23" s="84" t="s">
         <v>163</v>
@@ -52278,7 +52326,7 @@
         <v>163</v>
       </c>
       <c r="T23" s="170" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U23" s="84" t="s">
         <v>163</v>
@@ -52365,10 +52413,10 @@
         <v>191</v>
       </c>
       <c r="T24" s="168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V24" s="85" t="s">
         <v>191</v>
@@ -52460,11 +52508,11 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -52499,7 +52547,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
@@ -55145,98 +55193,98 @@
       </c>
       <c r="B4" s="241"/>
       <c r="C4" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="H4" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="J4" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="K4" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="L4" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="M4" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="N4" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="O4" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>275</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="244"/>
       <c r="B5" s="245"/>
       <c r="C5" s="221" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="222" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="222" t="s">
+      <c r="E5" s="205" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="205" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" s="205" t="s">
+        <v>408</v>
+      </c>
+      <c r="H5" s="205" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>406</v>
+      </c>
+      <c r="J5" s="205" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="205" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="205" t="s">
+        <v>400</v>
+      </c>
+      <c r="M5" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="205" t="s">
-        <v>410</v>
-      </c>
-      <c r="F5" s="205" t="s">
-        <v>416</v>
-      </c>
-      <c r="G5" s="205" t="s">
-        <v>409</v>
-      </c>
-      <c r="H5" s="205" t="s">
-        <v>408</v>
-      </c>
-      <c r="I5" s="205" t="s">
-        <v>407</v>
-      </c>
-      <c r="J5" s="205" t="s">
-        <v>406</v>
-      </c>
-      <c r="K5" s="205" t="s">
-        <v>405</v>
-      </c>
-      <c r="L5" s="205" t="s">
-        <v>401</v>
-      </c>
-      <c r="M5" s="204" t="s">
+      <c r="N5" s="204" t="s">
         <v>279</v>
       </c>
-      <c r="N5" s="204" t="s">
+      <c r="O5" s="204" t="s">
         <v>280</v>
       </c>
-      <c r="O5" s="204" t="s">
+      <c r="P5" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="P5" s="204" t="s">
+      <c r="Q5" s="204" t="s">
         <v>282</v>
-      </c>
-      <c r="Q5" s="204" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -55291,41 +55339,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -55337,7 +55385,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -55380,47 +55428,47 @@
         <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>155</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -55740,13 +55788,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>296</v>
-      </c>
       <c r="F20" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -55767,29 +55815,29 @@
         <v>184</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>298</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>299</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="I21" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="76" t="s">
-        <v>302</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -55806,31 +55854,31 @@
         <v>186</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="J22" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>308</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>309</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -55916,31 +55964,31 @@
         <v>195</v>
       </c>
       <c r="C26" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="F26" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>311</v>
-      </c>
       <c r="G26" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -55957,31 +56005,31 @@
         <v>197</v>
       </c>
       <c r="C27" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="F27" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>311</v>
-      </c>
       <c r="G27" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -57533,16 +57581,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>388</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>389</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -57551,16 +57599,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="65" t="s">
         <v>313</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>314</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -57634,7 +57682,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
@@ -57646,16 +57694,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>388</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>389</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -57664,50 +57712,50 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>313</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>314</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="244"/>
       <c r="B5" s="244"/>
       <c r="C5" s="210" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>398</v>
-      </c>
       <c r="J5" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K5" s="228" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L5" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -57753,16 +57801,16 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="69" t="s">
-        <v>318</v>
-      </c>
       <c r="F8" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -57774,10 +57822,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>75</v>
@@ -59481,84 +59529,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>329</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2" s="234" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="176" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="226" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="176" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="226" t="s">
-        <v>429</v>
-      </c>
-      <c r="F2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>338</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823F606-17BA-4B4D-845B-FECBE737CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE4167-C2E0-44E6-94C7-8A5B54C308F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43264,7 +43264,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Calculate__diff__VBAT__VBSO</t>
+      <t>Calculate__diff__RONBYP</t>
     </r>
     <r>
       <rPr>
@@ -43854,7 +43854,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Calculate__diff__TSswitchHS__VBSO</t>
+      <t>Calculate__diff__RONHS</t>
     </r>
     <r>
       <rPr>
@@ -44400,7 +44400,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Measure__Voltage__SDWN
-Calculate__diff__TSwitchLS__TSwitchPGND
+Calculate__diff__RONLS
 </t>
     </r>
     <r>
@@ -50802,8 +50802,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51172,13 +51172,13 @@
       <c r="D5" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="246" t="s">
         <v>432</v>
       </c>
       <c r="F5" s="223" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="246" t="s">
+      <c r="G5" s="185" t="s">
         <v>416</v>
       </c>
       <c r="H5" s="191" t="s">
@@ -59616,26 +59616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59852,10 +59832,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59872,20 +59883,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE4167-C2E0-44E6-94C7-8A5B54C308F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6EB5CD-77CE-4CCB-9F68-86FFD8C1D36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45642,7 +45642,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46267,9 +46267,6 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -50803,7 +50800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51172,7 +51169,7 @@
       <c r="D5" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="E5" s="246" t="s">
+      <c r="E5" s="185" t="s">
         <v>432</v>
       </c>
       <c r="F5" s="223" t="s">
@@ -59616,6 +59613,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59832,27 +59849,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59869,23 +59885,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6EB5CD-77CE-4CCB-9F68-86FFD8C1D36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C2FC7-2DF9-42D5-A457-9F339DA6223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50799,8 +50799,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59613,26 +59613,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59849,10 +59829,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59869,20 +59880,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C2FC7-2DF9-42D5-A457-9F339DA6223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02871E0-746B-4945-B5DE-4B41D30E44DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="435">
   <si>
     <t>Revision</t>
   </si>
@@ -44437,6 +44437,9 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
 </sst>
 </file>
@@ -50799,7 +50802,7 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -51377,16 +51380,16 @@
         <v>44</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
       <c r="K8" s="69" t="s">
         <v>246</v>
@@ -51427,17 +51430,17 @@
         <v>6</v>
       </c>
       <c r="F9" s="71"/>
-      <c r="G9" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>245</v>
+      <c r="G9" s="71">
+        <v>1.8</v>
+      </c>
+      <c r="H9" s="71">
+        <v>1.8</v>
+      </c>
+      <c r="I9" s="71">
+        <v>1.8</v>
+      </c>
+      <c r="J9" s="71">
+        <v>1.8</v>
       </c>
       <c r="K9" s="71" t="s">
         <v>248</v>

--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02871E0-746B-4945-B5DE-4B41D30E44DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C3543-23A5-46C3-8CE4-46AF73F77891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50801,9 +50801,9 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59616,6 +59616,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59832,27 +59852,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59869,23 +59888,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C3543-23A5-46C3-8CE4-46AF73F77891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03534CE7-5D63-4630-8B76-2324E17D0231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34457,126 +34457,6 @@
     <t>Restore a variable value into a register</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBAT__3.6V
-Force__VDDIO__1.8V
-Force__VDD__1.8V
-Force__SDWN__1.8V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Return page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x00_0x0F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Power-up"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x2F_0xAA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Unlock test page"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x2F_0xBB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Unlock test page"
-</t>
-    </r>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -37554,441 +37434,6 @@
     <r>
       <t xml:space="preserve">Run_startup
 Run_Boost_test_default
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x07</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig test EN FSYN=byp_off SDI=byp_go"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB2[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst byp en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN should be 1 and SDI 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[7]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"byp_en on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN should be 0 and SDI 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x00 
-0x04_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
 Run_Enable_Ana_Testpoint
 </t>
     </r>
@@ -44440,6 +43885,581 @@
   </si>
   <si>
     <t>1.8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBAT__4V
+Force__VDDIO__1.8V
+Force__VDD__1.8V
+Force__SDWN__1.8V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Return page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x00_0x0F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Power-up"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x2F_0xAA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Unlock test page"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x2F_0xBB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Unlock test page"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x07</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig test EN FSYN=byp_off SDI=byp_go"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB2[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst byp en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN should be 1 and SDI 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[7]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"byp_en on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN should be 0 and SDI 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x00 
+0x04_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -45645,7 +45665,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46270,6 +46290,9 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -47766,7 +47789,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="236" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" s="236"/>
       <c r="C1" s="9" t="s">
@@ -47838,16 +47861,16 @@
       <c r="A5" s="237"/>
       <c r="B5" s="238"/>
       <c r="C5" s="206" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D5" s="206" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E5" s="206" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F5" s="191" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -47862,7 +47885,7 @@
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F6" s="67"/>
     </row>
@@ -47887,10 +47910,10 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" s="69"/>
     </row>
@@ -47916,7 +47939,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="231" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -49770,7 +49793,7 @@
         <v>211</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E1" s="227" t="s">
         <v>212</v>
@@ -49820,7 +49843,7 @@
         <v>211</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="103" t="s">
         <v>212</v>
@@ -49836,10 +49859,10 @@
         <v>214</v>
       </c>
       <c r="D5" s="218" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="220" t="s">
         <v>215</v>
@@ -49875,7 +49898,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>216</v>
@@ -50801,9 +50824,9 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51096,7 +51119,7 @@
       <c r="G4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="9" t="s">
         <v>98</v>
       </c>
       <c r="I4" s="65" t="s">
@@ -51167,40 +51190,40 @@
       <c r="A5" s="242"/>
       <c r="B5" s="242"/>
       <c r="C5" s="185" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D5" s="185" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>432</v>
-      </c>
-      <c r="F5" s="223" t="s">
-        <v>431</v>
+        <v>430</v>
+      </c>
+      <c r="F5" s="246" t="s">
+        <v>429</v>
       </c>
       <c r="G5" s="185" t="s">
+        <v>415</v>
+      </c>
+      <c r="H5" s="191" t="s">
+        <v>434</v>
+      </c>
+      <c r="I5" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="J5" s="190" t="s">
         <v>417</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="K5" s="190" t="s">
         <v>418</v>
       </c>
-      <c r="J5" s="190" t="s">
+      <c r="L5" s="223" t="s">
         <v>419</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="M5" s="223" t="s">
         <v>420</v>
       </c>
-      <c r="L5" s="223" t="s">
+      <c r="N5" s="223" t="s">
         <v>421</v>
-      </c>
-      <c r="M5" s="223" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" s="223" t="s">
-        <v>423</v>
       </c>
       <c r="O5" s="223" t="s">
         <v>231</v>
@@ -51239,10 +51262,10 @@
         <v>242</v>
       </c>
       <c r="AA5" s="191" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AB5" s="191" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AC5" s="223" t="s">
         <v>243</v>
@@ -51368,7 +51391,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>244</v>
@@ -51380,16 +51403,16 @@
         <v>44</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K8" s="69" t="s">
         <v>246</v>
@@ -55248,28 +55271,28 @@
         <v>277</v>
       </c>
       <c r="E5" s="205" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F5" s="205" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G5" s="205" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H5" s="205" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I5" s="205" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J5" s="205" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K5" s="205" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L5" s="205" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M5" s="204" t="s">
         <v>278</v>
@@ -57581,16 +57604,16 @@
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="F1" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>387</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>388</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -57694,16 +57717,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="F4" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>387</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>388</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -57728,34 +57751,34 @@
       <c r="A5" s="244"/>
       <c r="B5" s="244"/>
       <c r="C5" s="210" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>396</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>397</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>315</v>
       </c>
       <c r="K5" s="228" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L5" s="228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -59535,7 +59558,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>320</v>
@@ -59570,19 +59593,19 @@
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="B2" s="234" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C2" s="176" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>330</v>
       </c>
       <c r="E2" s="226" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>331</v>
@@ -59616,26 +59639,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59852,10 +59855,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59872,20 +59906,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03534CE7-5D63-4630-8B76-2324E17D0231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA718A-83EC-489E-BB95-D07C2F7F7CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45665,7 +45665,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46290,9 +46290,6 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -50825,8 +50822,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51198,7 +51195,7 @@
       <c r="E5" s="185" t="s">
         <v>430</v>
       </c>
-      <c r="F5" s="246" t="s">
+      <c r="F5" s="185" t="s">
         <v>429</v>
       </c>
       <c r="G5" s="185" t="s">
@@ -59639,6 +59636,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59855,27 +59872,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59892,23 +59908,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA718A-83EC-489E-BB95-D07C2F7F7CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27346A-0CC1-4907-8EBC-90048E7CA2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="435">
   <si>
     <t>Revision</t>
   </si>
@@ -38756,6 +38756,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Run_startup
 Run_Boost_test_default
 Run_Enable_Ana_Testpoint
@@ -38774,11 +38780,174 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xCA_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF lower than VBSO_PAR so the output should clamp high"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "clamp bso en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "err amp bso en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ana test TSW VREGBSO"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
 </t>
     </r>
     <r>
@@ -38807,16 +38976,26 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
+      <t xml:space="preserve">0xB2[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
 </t>
     </r>
     <r>
@@ -38840,21 +39019,80 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW VF"
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force err amp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force clamp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
 </t>
     </r>
     <r>
@@ -38864,26 +39102,27 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"should be clamped high (3V)"
 </t>
     </r>
     <r>
@@ -38912,16 +39151,16 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
+      <t>0xCA_0x11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF higher than VBSO_PAR so the output should clamp low"
 </t>
     </r>
     <r>
@@ -38931,26 +39170,57 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"should be clamped low (1.5V)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00
+0x19_0x00
 </t>
     </r>
     <r>
@@ -38960,47 +39230,8 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be approximately 2.4V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00
-0x19_0x00</t>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
@@ -39034,7 +39265,57 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-0xFE_0x00</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x11_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF BIAS low so the output clamps high"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
     </r>
     <r>
       <rPr>
@@ -39053,54 +39334,35 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xCA_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF lower than VBSO_PAR so the output should clamp high"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "clamp bso en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "err amp bso en"
+      <t xml:space="preserve">0xB3[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"clamp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"err amp bias en"
 </t>
     </r>
     <r>
@@ -39143,21 +39405,44 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ana test TSW VREGBSO"
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F[5]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ana test TSW VREGBIAS"
 </t>
     </r>
     <r>
@@ -39268,13 +39553,33 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x16[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force err amp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x0F[4]_0x01</t>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[5]_0x01 </t>
     </r>
     <r>
       <rPr>
@@ -39282,47 +39587,19 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force err amp bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force clamp bso"
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"force clamp bias"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -39352,6 +39629,27 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBIAS__10V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Wait__delay__0.1ms
 </t>
     </r>
@@ -39376,40 +39674,34 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xCA_0x11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF higher than VBSO_PAR so the output should clamp low"
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x0E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF higher than VBIAS_PAR so output should be clamped low"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -39439,26 +39731,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"should be clamped low (1.5V)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
+      <t xml:space="preserve">"should be clamped low (1,5V)"
 </t>
     </r>
     <r>
@@ -39485,10 +39758,1222 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t xml:space="preserve">Run__startup
+Run__Boost_test_default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBSO_3.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Force__OUTP__ 0V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"PA positive output"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__OUTN__0V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "PA negative output"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[7]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "env_err en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN=bst_env_err"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force env_err"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 0 since the ref is higher than the PA OUTPUT"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__OUTP__3.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "PA positive output"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "now it should be 1 since the PA output should be higher than the ref"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x00
+0x03_0x00
+0x04_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__startup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run__Boost_test_default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Force__VBIAS__5V
+Force__VBSO__3.6V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Bootstrap en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB4[2:0]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "hsa_hsb_byp off"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[6]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Bootstrap"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ocp en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xC0[2:0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"ocp threshold set to 200 mA"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN=ana_bst_ocp_1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x15[2]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force ocp"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 0 "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__Current__SW__300mA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"inject"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 1 since the current flowing is higher than the selected threshold (200mA)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x00
+0x03_0x00
+0x04_0x01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Run_startup
@@ -39499,8 +40984,221 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 1 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 2 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4:3]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "en 3 bst low"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW_Mirr test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x18[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17[6]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Mirr"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__SDWN__0.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wait__delay__0.1ms
@@ -39509,189 +41207,33 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x11_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF BIAS low so the output clamps high"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB3[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"clamp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"err amp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x0F[5]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ana test TSW VREGBIAS"
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test_en 1"
 </t>
     </r>
     <r>
@@ -39699,6 +41241,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wait__delay__0.1ms
@@ -39709,197 +41252,10 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB2[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x16[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force err amp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"force clamp bias"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VBIAS__10V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -39907,1964 +41263,6 @@
         <sz val="11"/>
         <color rgb="FF70AD47"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"should be clamped high (3V)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x0E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF higher than VBIAS_PAR so output should be clamped low"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"should be clamped low (1,5V)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ana test TSW CLAMP REF H"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB2[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"should be 3V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"ana test TSW CLAMP REF L"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "should be 1,5V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x0B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ana test TSW VREF_VBAT"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "should be 0,26V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run__startup
-Run__Boost_test_default
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VBSO_3.6V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Force__OUTP__ 0V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"PA positive output"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__OUTN__0V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "PA negative output"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[7]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "env_err en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN=bst_env_err"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force env_err"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 0 since the ref is higher than the PA OUTPUT"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__OUTP__3.6V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "PA positive output"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "now it should be 1 since the PA output should be higher than the ref"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x00
-0x03_0x00
-0x04_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run__startup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run__Boost_test_default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Force__VBIAS__5V
-Force__VBSO__3.6V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Bootstrap en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB4[2:0]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "hsa_hsb_byp off"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[6]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Bootstrap"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ocp en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xC0[2:0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"ocp threshold set to 200 mA"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN=ana_bst_ocp_1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x15[2]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force ocp"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 0 "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__Current__SW__300mA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"inject"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 1 since the current flowing is higher than the selected threshold (200mA)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x00
-0x03_0x00
-0x04_0x01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 1 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 2 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4:3]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "en 3 bst low"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW_Mirr test"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x18[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Enable Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x17[6]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force Mirr"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__SDWN__0.6V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test_en 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -41880,68 +41278,6 @@
       </rPr>
       <t xml:space="preserve"> "tswitch mirr measure"
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F_0x88
-0x10_0x08
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FORCE__SDWN__OPEN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19_0x80</t>
     </r>
   </si>
   <si>
@@ -43888,13 +43224,468 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x07</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig test EN FSYN=byp_off SDI=byp_go"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB2[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst byp en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN should be 1 and SDI 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[7]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"byp_en on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "FSYN should be 0 and SDI 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x00 
+0x04_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF33CC"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Force__VBAT__4V
+      <t xml:space="preserve">Force__VBAT__.3.6V
 Force__VDDIO__1.8V
 Force__VDD__1.8V
 Force__SDWN__1.8V
@@ -44008,8 +43799,16 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Run_startup
 Run_Boost_test_default
+Run_Enable_Ana_Testpoint
 </t>
     </r>
     <r>
@@ -44017,6 +43816,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wait__delay__0.1ms
@@ -44027,26 +43827,29 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xB0[0]_0x01</t>
@@ -44056,6 +43859,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> "bst general en"
@@ -44066,6 +43870,7 @@
         <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0xFE_0x01</t>
@@ -44073,17 +43878,580 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ana test TSW CLAMP REF H"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB2[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"should be 3V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"ana test TSW CLAMP REF L"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "should be 1,5V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x0B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ana test TSW VREF_VBAT"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "should be 0,26V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F_0x08
+0x10_0x08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">FORCE__SDWN__OPEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW VF"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">"Select page 1"
@@ -44096,7 +44464,47 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x03_0x05</t>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__SW__3.6V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
     </r>
     <r>
       <rPr>
@@ -44105,204 +44513,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x07</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig test EN FSYN=byp_off SDI=byp_go"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB2[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst byp en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -44313,152 +44523,27 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN should be 1 and SDI 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[7]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"byp_en on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "FSYN should be 0 and SDI 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x00 
-0x04_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be approximately 2.4V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00
+0x19_0x00</t>
     </r>
   </si>
 </sst>
@@ -45665,7 +45750,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46254,9 +46339,6 @@
     <xf numFmtId="49" fontId="117" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="119" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -46290,6 +46372,12 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -46300,12 +46388,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF33CC"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF8D77F9"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FFFF33CC"/>
       <color rgb="FF28CF75"/>
       <color rgb="FF00D0C6"/>
       <color rgb="FF2DFFF5"/>
@@ -47785,10 +47873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47819,10 +47907,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47837,10 +47925,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47855,13 +47943,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="206" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D5" s="206" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E5" s="206" t="s">
         <v>409</v>
@@ -47871,7 +47959,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="238" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -47887,7 +47975,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -47899,7 +47987,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47915,7 +48003,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -47927,7 +48015,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -48855,10 +48943,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48889,10 +48977,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48907,10 +48995,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -48925,8 +49013,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -48941,7 +49029,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48959,7 +49047,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="240"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48975,7 +49063,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="240"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48993,7 +49081,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="240"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49009,7 +49097,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="240"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49782,10 +49870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="235" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="236"/>
+      <c r="B1" s="235"/>
       <c r="C1" s="103" t="s">
         <v>211</v>
       </c>
@@ -49814,10 +49902,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="236"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
@@ -49832,10 +49920,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="103" t="s">
         <v>211</v>
       </c>
@@ -49850,8 +49938,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="209" t="s">
         <v>214</v>
       </c>
@@ -49866,7 +49954,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49880,7 +49968,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="240"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49890,7 +49978,7 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49908,7 +49996,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="240"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49920,7 +50008,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="240"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -50822,8 +50910,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50840,10 +50928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="241"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
@@ -51010,10 +51098,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="241"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="184" t="s">
         <v>20</v>
       </c>
@@ -51097,10 +51185,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="241"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -51125,7 +51213,7 @@
       <c r="J4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="9" t="s">
         <v>225</v>
       </c>
       <c r="L4" s="65" t="s">
@@ -51184,43 +51272,43 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="242"/>
-      <c r="B5" s="242"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="241"/>
       <c r="C5" s="185" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D5" s="185" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F5" s="185" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G5" s="185" t="s">
         <v>415</v>
       </c>
       <c r="H5" s="191" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I5" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="J5" s="190" t="s">
+      <c r="J5" s="191" t="s">
         <v>417</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="K5" s="191" t="s">
+        <v>434</v>
+      </c>
+      <c r="L5" s="246" t="s">
         <v>418</v>
       </c>
-      <c r="L5" s="223" t="s">
+      <c r="M5" s="223" t="s">
         <v>419</v>
       </c>
-      <c r="M5" s="223" t="s">
-        <v>420</v>
-      </c>
-      <c r="N5" s="223" t="s">
-        <v>421</v>
+      <c r="N5" s="246" t="s">
+        <v>432</v>
       </c>
       <c r="O5" s="223" t="s">
         <v>231</v>
@@ -51259,17 +51347,17 @@
         <v>242</v>
       </c>
       <c r="AA5" s="191" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB5" s="191" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC5" s="223" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -51348,7 +51436,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="243"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -51383,7 +51471,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="243"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -51400,23 +51488,29 @@
         <v>44</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K8" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="L8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>79</v>
+      </c>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
         <v>245</v>
@@ -51438,7 +51532,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -51517,7 +51611,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -55059,10 +55153,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="241"/>
+      <c r="B1" s="240"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -55157,10 +55251,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="241"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -55208,10 +55302,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="241"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>261</v>
       </c>
@@ -55259,8 +55353,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="244"/>
-      <c r="B5" s="245"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="221" t="s">
         <v>276</v>
       </c>
@@ -55308,7 +55402,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -55331,7 +55425,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="243"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -55352,7 +55446,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="243"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -55397,7 +55491,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -55422,7 +55516,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -57593,11 +57687,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="240" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="235" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="234" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
@@ -57667,10 +57761,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="241"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -57706,10 +57800,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="241"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -57745,8 +57839,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="244"/>
-      <c r="B5" s="244"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
       <c r="C5" s="210" t="s">
         <v>398</v>
       </c>
@@ -57780,7 +57874,7 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="242" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57799,7 +57893,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="243"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57816,7 +57910,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="243"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -57853,7 +57947,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -57870,7 +57964,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="243"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -59531,8 +59625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853352DE-922C-4F00-B110-569410679C0C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59589,11 +59683,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="245" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="176" t="s">
         <v>433</v>
-      </c>
-      <c r="B2" s="234" t="s">
-        <v>425</v>
       </c>
       <c r="C2" s="176" t="s">
         <v>390</v>
@@ -59602,7 +59696,7 @@
         <v>330</v>
       </c>
       <c r="E2" s="226" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F2" s="83" t="s">
         <v>331</v>
@@ -59636,26 +59730,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59872,10 +59946,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59892,20 +59997,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27346A-0CC1-4907-8EBC-90048E7CA2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D1759-1666-4A0F-A8D1-5DFC090D1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="436">
   <si>
     <t>Revision</t>
   </si>
@@ -28009,12 +28009,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Run__startup
 Run__Boost_test_default
 Run__Enable_Ana_Testpoint
@@ -28033,526 +28027,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[3:2]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "01 code for OVP BIAS ref, this corresponds to +1 to threshold"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a VREF BIAS of 0.22V, that corresponds to a VBIAS of 6.05V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x0D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x0F[5]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force bst bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "it should be 0.24V, which is the +1 threshold of VREF_BIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"TSW to VREF_BIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"should be 0.22V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a Virtual VREF BIAS of 0.54V that corresponds to a VBIAS of 14.85V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "should be 0.54V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x1A_0x0D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS "
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "should be 0.56V,which is the +1 threshold"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x11_0x21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a Virtual VREF BIAS of 0.88V that corresponds to a VBIAS of 24.2V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "should be 0.9V, which is the +1 threshold"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x0F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"TSW to VREF_BIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "should be 0.88V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00
-0x19_0x01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run__startup
-Run__Boost_test_default
-Run__Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
@@ -29020,957 +28494,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run__startup
-Run__Boost_test_default
-Run__Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BSO_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[5:4]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ovp ref bso sel set to 9V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xCA_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a VREF BSO of 0V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x0C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to VREF_OVP_BSO"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x07</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN en, BCLK en, SDI en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x1C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "SDI=ovp_bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x16[0]_0x01  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force ovp bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19[1]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"threshold measure vref_ovp, it should be corresponding to the 9V threshold (0.66V)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BSO output, it should be 0 since BSO 3.6V&lt;9V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__12V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBSO__11V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BSO output, it should be 1, since we force the VBSO the discharge should be on but never dischargin VBSO"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00
-0x19_0x00
-0x03_0x00
-0x04_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Run__startup
-Run__Boost_test_default
-Run__Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB1[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BIAS_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[3:2]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ovp ref bias sel set to threshold +0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a VREF BIAS of 9.36V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x0D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x1B</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "SDI=ovp_bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "Force ovp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19[1]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[7]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ana_tst_mode_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"threshold measure vref_bias, it should be corresponding to the 9,36V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BIAS output, it should be 0 since Bias 6V&lt;9V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__11V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BIAS output, it should be 1, since we force the VBIAS the discharge should be on but never dischargin VBIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x00
-0x19_0x00
-0x03_0x00
-0x04_0x00</t>
     </r>
   </si>
   <si>
@@ -38092,670 +36615,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF basso così l'uscita del comparatore è 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "clamp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"err amp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[3]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"comp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force bst bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[5]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force err amp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force comp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force clamp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__10V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN
-Measure__Voltage_SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"db and b, FSYN should be 0 and SDI 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x0B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig test EN FSYN=outcomp"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"out_comp, it should be 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x0A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"VREF high so comparator output should be 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"out_comp, it should be 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN should be 0 and SDI 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x00 
-0x04_0x00
-0x19_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
@@ -44546,6 +42405,2281 @@
 0x19_0x00</t>
     </r>
   </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run__startup
+Run__Boost_test_default
+Run__Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[3:2]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "01 code for OVP BIAS ref, this corresponds to +1 to threshold"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a VREF BIAS of 0.22V, that corresponds to a VBIAS of 6.05V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x0D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F[5]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force bst bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "it should be 0.24V, which is the +1 threshold of VREF_BIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"TSW to VREF_BIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"should be 0.22V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a Virtual VREF BIAS of 0.54V that corresponds to a VBIAS of 14.85V"1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "should be 0.54V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x1A_0x0D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS "
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "should be 0.56V,which is the +1 threshold"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x11_0x21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a Virtual VREF BIAS of 0.88V that corresponds to a VBIAS of 24.2V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "should be 0.9V, which is the +1 threshold"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x0F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"TSW to VREF_BIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "should be 0.88V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00
+0x19_0x01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__startup
+Run__Boost_test_default
+Run__Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BIAS_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[3:2]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ovp ref bias sel set to threshold +0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a VREF BIAS of 9.36V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x0D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x1B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "SDI=ovp_bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force ovp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19[1]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[7]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ana_tst_mode_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"threshold measure vref_bias, it should be corresponding to the 9,36V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BIAS output, it should be 0 since Bias 6V&lt;9V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__11V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BIAS output, it should be 1, since we force the VBIAS the discharge should be on but never dischargin VBIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBIAS__5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00
+0x19_0x00
+0x03_0x00
+0x04_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF basso così l'uscita del comparatore è 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "clamp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"err amp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[3]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"comp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force bst bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[5]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force err amp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force comp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force clamp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__10V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN
+Measure__Voltage_SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"db and b, FSYN should be 0 and SDI 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x0B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig test EN FSYN=outcomp"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"out_comp, it should be 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x0A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"VREF high so comparator output should be 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"out_comp, it should be 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN should be 0 and SDI 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBIAS__5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x00 
+0x04_0x00
+0x19_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run__startup
+Run__Boost_test_default
+Run__Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB1[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BSO_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[5:4]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ovp ref bso sel set to 9V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xCA_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a VREF BSO of 0V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x0C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to VREF_OVP_BSO"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x07</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN en, BCLK en, SDI en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x1B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "SDI=ovp_bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x16[0]_0x01  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force ovp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19[1]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"threshold measure vref_ovp, it should be corresponding to the 9V threshold (0.66V)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BSO output, it should be 0 since BSO 3.6V&lt;9V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x13_0x80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"clamp disable"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x14_0x00
+0x18_0x10
+0x19_0x10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__12V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBSO__11V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BSO output, it should be 1, since we force the VBSO the discharge should be on but never dischargin VBSO"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Force__VBSO__3.6V
+Force VBIAS_5V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x13_0x00
+0x14_0x00
+0x18_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x00
+0x19_0x00
+0x03_0x00
+0x04_0x00</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -44555,7 +44689,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45302,15 +45436,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
@@ -45748,9 +45873,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="119" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="118" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46146,12 +46271,6 @@
     <xf numFmtId="9" fontId="27" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -46336,10 +46455,7 @@
     <xf numFmtId="3" fontId="116" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="117" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="119" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="118" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -46372,11 +46488,11 @@
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -46389,11 +46505,11 @@
   <colors>
     <mruColors>
       <color rgb="FFFF33CC"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF8D77F9"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FFFF66FF"/>
       <color rgb="FF28CF75"/>
       <color rgb="FF00D0C6"/>
       <color rgb="FF2DFFF5"/>
@@ -46794,177 +46910,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="K6" s="58" t="s">
         <v>350</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>356</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>359</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -46995,118 +47111,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="173" t="s">
+      <c r="G1" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="171" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="175">
+      <c r="A2" s="173">
         <v>45435</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="178"/>
-      <c r="G2" s="183" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="179" t="s">
+      <c r="H2" s="177" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="180">
+      <c r="A3" s="178">
         <v>45435</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="181" t="s">
+      <c r="C3" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="180" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="224" t="s">
+      <c r="G3" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="212" t="s">
+      <c r="H3" s="210" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="180">
+      <c r="A4" s="178">
         <v>45435</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="187" t="s">
+      <c r="F4" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="225" t="s">
+      <c r="G4" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="185" t="s">
+      <c r="H4" s="183" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="180">
+      <c r="A5" s="178">
         <v>45435</v>
       </c>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="179" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="65" t="s">
@@ -47115,24 +47231,24 @@
       <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="223" t="s">
+      <c r="G5" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="185" t="s">
+      <c r="H5" s="183" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="180">
+      <c r="A6" s="178">
         <v>45435</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="179" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="65" t="s">
@@ -47141,24 +47257,24 @@
       <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="223" t="s">
+      <c r="G6" s="221" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="185" t="s">
+      <c r="H6" s="183" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="180">
+      <c r="A7" s="178">
         <v>45435</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="181" t="s">
+      <c r="C7" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="179" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="151" t="s">
@@ -47167,67 +47283,67 @@
       <c r="F7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="223" t="s">
+      <c r="G7" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="223" t="s">
+      <c r="H7" s="221" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="180">
+      <c r="A8" s="178">
         <v>45435</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="181" t="s">
+      <c r="D8" s="179" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="189" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="180">
+      <c r="A9" s="178">
         <v>45435</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="181" t="s">
+      <c r="D9" s="179" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="189" t="s">
+      <c r="F9" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="191" t="s">
+      <c r="H9" s="189" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="180">
+      <c r="A10" s="178">
         <v>45436</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -47242,18 +47358,18 @@
       <c r="E10" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="189" t="s">
+      <c r="F10" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="223" t="s">
+      <c r="G10" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="185" t="s">
+      <c r="H10" s="183" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="180">
+      <c r="A11" s="178">
         <v>45439</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -47268,18 +47384,18 @@
       <c r="E11" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="189" t="s">
+      <c r="F11" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="191" t="s">
+      <c r="G11" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="191" t="s">
+      <c r="H11" s="189" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="180">
+      <c r="A12" s="178">
         <v>45439</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -47294,18 +47410,18 @@
       <c r="E12" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="189" t="s">
+      <c r="F12" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="191" t="s">
+      <c r="G12" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="191" t="s">
+      <c r="H12" s="189" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="180">
+      <c r="A13" s="178">
         <v>45439</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -47320,18 +47436,18 @@
       <c r="E13" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="189" t="s">
+      <c r="F13" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="191" t="s">
+      <c r="G13" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="191" t="s">
+      <c r="H13" s="189" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="180">
+      <c r="A14" s="178">
         <v>45440</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -47346,18 +47462,18 @@
       <c r="E14" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="200" t="s">
+      <c r="F14" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="214" t="s">
+      <c r="G14" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="213" t="s">
+      <c r="H14" s="211" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="180">
+      <c r="A15" s="178">
         <v>45440</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -47372,18 +47488,18 @@
       <c r="E15" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="200" t="s">
+      <c r="F15" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="215" t="s">
+      <c r="G15" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="211" t="s">
+      <c r="H15" s="209" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="180">
+      <c r="A16" s="178">
         <v>45440</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -47398,18 +47514,18 @@
       <c r="E16" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="189" t="s">
+      <c r="F16" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="185" t="s">
+      <c r="G16" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="185" t="s">
+      <c r="H16" s="183" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="180">
+      <c r="A17" s="178">
         <v>45440</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -47424,18 +47540,18 @@
       <c r="E17" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="189" t="s">
+      <c r="F17" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="223" t="s">
+      <c r="G17" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="185" t="s">
+      <c r="H17" s="183" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="180">
+      <c r="A18" s="178">
         <v>45441</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -47450,18 +47566,18 @@
       <c r="E18" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="189" t="s">
+      <c r="F18" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="185" t="s">
+      <c r="G18" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="185" t="s">
+      <c r="H18" s="183" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="180">
+      <c r="A19" s="178">
         <v>45443</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -47476,18 +47592,18 @@
       <c r="E19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="189" t="s">
+      <c r="F19" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="190" t="s">
+      <c r="G19" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="191" t="s">
+      <c r="H19" s="189" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="180">
+      <c r="A20" s="178">
         <v>45443</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -47502,18 +47618,18 @@
       <c r="E20" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="189" t="s">
+      <c r="F20" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="191" t="s">
+      <c r="G20" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="191" t="s">
+      <c r="H20" s="189" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="180">
+      <c r="A21" s="178">
         <v>45443</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -47528,18 +47644,18 @@
       <c r="E21" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="189" t="s">
+      <c r="F21" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="192" t="s">
+      <c r="G21" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="192" t="s">
+      <c r="H21" s="190" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="180">
+      <c r="A22" s="178">
         <v>45443</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -47554,18 +47670,18 @@
       <c r="E22" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="189" t="s">
+      <c r="F22" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="192" t="s">
+      <c r="G22" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="192" t="s">
+      <c r="H22" s="190" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="180">
+      <c r="A23" s="178">
         <v>45443</v>
       </c>
       <c r="B23" s="25" t="s">
@@ -47580,18 +47696,18 @@
       <c r="E23" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="189" t="s">
+      <c r="F23" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="191" t="s">
+      <c r="G23" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="191" t="s">
+      <c r="H23" s="189" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="180">
+      <c r="A24" s="178">
         <v>45443</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -47606,18 +47722,18 @@
       <c r="E24" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="189" t="s">
+      <c r="F24" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="191" t="s">
+      <c r="G24" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="191" t="s">
+      <c r="H24" s="189" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.35">
-      <c r="A25" s="180">
+      <c r="A25" s="178">
         <v>45448</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -47632,18 +47748,18 @@
       <c r="E25" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="200" t="s">
+      <c r="F25" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="215" t="s">
+      <c r="G25" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="190" t="s">
+      <c r="H25" s="188" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="180" x14ac:dyDescent="0.35">
-      <c r="A26" s="180">
+      <c r="A26" s="178">
         <v>45448</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -47658,18 +47774,18 @@
       <c r="E26" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="200" t="s">
+      <c r="F26" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="216" t="s">
+      <c r="G26" s="214" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="211" t="s">
+      <c r="H26" s="209" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.35">
-      <c r="A27" s="180">
+      <c r="A27" s="178">
         <v>45448</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -47684,18 +47800,18 @@
       <c r="E27" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="200" t="s">
+      <c r="F27" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="215" t="s">
+      <c r="G27" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="211" t="s">
+      <c r="H27" s="209" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="210" x14ac:dyDescent="0.35">
-      <c r="A28" s="180">
+      <c r="A28" s="178">
         <v>45448</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -47710,18 +47826,18 @@
       <c r="E28" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="200" t="s">
+      <c r="F28" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="216" t="s">
+      <c r="G28" s="214" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="211" t="s">
+      <c r="H28" s="209" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="210" x14ac:dyDescent="0.35">
-      <c r="A29" s="180">
+      <c r="A29" s="178">
         <v>45448</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -47736,18 +47852,18 @@
       <c r="E29" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="200" t="s">
+      <c r="F29" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="216" t="s">
+      <c r="G29" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="211" t="s">
+      <c r="H29" s="209" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="195" x14ac:dyDescent="0.35">
-      <c r="A30" s="180">
+      <c r="A30" s="178">
         <v>45448</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -47762,19 +47878,19 @@
       <c r="E30" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="200" t="s">
+      <c r="F30" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="215" t="s">
+      <c r="G30" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="211" t="s">
+      <c r="H30" s="209" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" ht="240" x14ac:dyDescent="0.35">
-      <c r="A32" s="180" t="s">
+      <c r="A32" s="178" t="s">
         <v>125</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -47789,16 +47905,16 @@
       <c r="E32" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="189" t="s">
+      <c r="F32" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="215"/>
-      <c r="H32" s="185" t="s">
+      <c r="G32" s="213"/>
+      <c r="H32" s="183" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="178" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -47813,18 +47929,18 @@
       <c r="E33" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="189" t="s">
+      <c r="F33" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="191" t="s">
+      <c r="G33" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="191" t="s">
+      <c r="H33" s="189" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="178" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -47839,13 +47955,13 @@
       <c r="E34" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="189" t="s">
+      <c r="F34" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="223" t="s">
+      <c r="G34" s="221" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="185" t="s">
+      <c r="H34" s="183" t="s">
         <v>136</v>
       </c>
     </row>
@@ -47873,10 +47989,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="235"/>
+      <c r="A1" s="232" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="232"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -47907,10 +48023,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -47925,10 +48041,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -47943,51 +48059,51 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="206" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="206" t="s">
-        <v>425</v>
-      </c>
-      <c r="E5" s="206" t="s">
-        <v>409</v>
-      </c>
-      <c r="F5" s="191" t="s">
-        <v>397</v>
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="204" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="189" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="238" t="s">
+      <c r="A6" s="235" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="229">
+      <c r="C6" s="227">
         <v>1.7929999999999999</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
+      <c r="A7" s="235"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="219"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="8"/>
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="235"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -47995,27 +48111,27 @@
         <v>208</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="238"/>
+      <c r="A9" s="235"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="230">
+      <c r="C9" s="228">
         <v>1.804</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="232"/>
+      <c r="E9" s="230"/>
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
+      <c r="A10" s="235"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -48023,8 +48139,8 @@
         <v>153</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="231" t="s">
-        <v>412</v>
+      <c r="E10" s="229" t="s">
+        <v>409</v>
       </c>
       <c r="F10" s="68"/>
     </row>
@@ -48943,10 +49059,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -48977,10 +49093,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -48995,10 +49111,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -49013,8 +49129,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -49029,7 +49145,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49047,7 +49163,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49063,7 +49179,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49081,7 +49197,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49097,7 +49213,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49870,17 +49986,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="232"/>
       <c r="C1" s="103" t="s">
         <v>211</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="227" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="225" t="s">
         <v>212</v>
       </c>
       <c r="F1" s="128" t="s">
@@ -49902,10 +50018,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
@@ -49920,15 +50036,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="232" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="103" t="s">
         <v>211</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E4" s="103" t="s">
         <v>212</v>
@@ -49938,23 +50054,23 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="209" t="s">
+      <c r="A5" s="233"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="218" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="209" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" s="220" t="s">
+      <c r="D5" s="216" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="207" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="218" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49968,7 +50084,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49978,12 +50094,12 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>216</v>
@@ -49996,7 +50112,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -50008,7 +50124,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -50909,9 +51025,9 @@
   </sheetPr>
   <dimension ref="A1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50928,10 +51044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="237" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="237"/>
       <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
@@ -50983,11 +51099,11 @@
       <c r="S1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" s="233" t="s">
-        <v>138</v>
+      <c r="T1" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>59</v>
       </c>
       <c r="V1" s="65" t="s">
         <v>51</v>
@@ -51063,7 +51179,7 @@
       <c r="R2" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="208" t="s">
+      <c r="S2" s="206" t="s">
         <v>220</v>
       </c>
       <c r="T2" s="16" t="s">
@@ -51098,41 +51214,41 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="184" t="s">
+      <c r="B3" s="237"/>
+      <c r="C3" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="184" t="s">
+      <c r="D3" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="184" t="s">
+      <c r="G3" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="182" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="L3" s="184" t="s">
+      <c r="L3" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="184" t="s">
+      <c r="M3" s="182" t="s">
         <v>48</v>
       </c>
       <c r="N3" s="64" t="s">
@@ -51144,25 +51260,25 @@
       <c r="P3" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="184" t="s">
+      <c r="Q3" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="188" t="s">
+      <c r="R3" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="207" t="s">
+      <c r="S3" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="199" t="s">
+      <c r="T3" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="184" t="s">
+      <c r="U3" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="V3" s="184" t="s">
+      <c r="V3" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="184" t="s">
+      <c r="W3" s="182" t="s">
         <v>95</v>
       </c>
       <c r="X3" s="64" t="s">
@@ -51171,24 +51287,24 @@
       <c r="Y3" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="Z3" s="184" t="s">
+      <c r="Z3" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="AA3" s="184" t="s">
+      <c r="AA3" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="184" t="s">
+      <c r="AB3" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="217" t="s">
+      <c r="AC3" s="215" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="237"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -51240,7 +51356,7 @@
       <c r="S4" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="162" t="s">
+      <c r="T4" s="116" t="s">
         <v>55</v>
       </c>
       <c r="U4" s="65" t="s">
@@ -51272,99 +51388,99 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="185" t="s">
+      <c r="A5" s="238"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="183" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="183" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" s="183" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="183" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="G5" s="183" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" s="189" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="189" t="s">
+        <v>413</v>
+      </c>
+      <c r="J5" s="189" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="189" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" s="183" t="s">
+        <v>414</v>
+      </c>
+      <c r="M5" s="221" t="s">
+        <v>415</v>
+      </c>
+      <c r="N5" s="183" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="185" t="s">
-        <v>427</v>
-      </c>
-      <c r="F5" s="185" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" s="185" t="s">
-        <v>415</v>
-      </c>
-      <c r="H5" s="191" t="s">
-        <v>430</v>
-      </c>
-      <c r="I5" s="191" t="s">
+      <c r="O5" s="242" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="221" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="221" t="s">
+        <v>233</v>
+      </c>
+      <c r="R5" s="221" t="s">
+        <v>432</v>
+      </c>
+      <c r="S5" s="188" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="189" t="s">
+        <v>435</v>
+      </c>
+      <c r="U5" s="189" t="s">
+        <v>433</v>
+      </c>
+      <c r="V5" s="189" t="s">
+        <v>235</v>
+      </c>
+      <c r="W5" s="190" t="s">
+        <v>236</v>
+      </c>
+      <c r="X5" s="190" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y5" s="190" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z5" s="190" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA5" s="189" t="s">
         <v>416</v>
       </c>
-      <c r="J5" s="191" t="s">
+      <c r="AB5" s="189" t="s">
         <v>417</v>
       </c>
-      <c r="K5" s="191" t="s">
-        <v>434</v>
-      </c>
-      <c r="L5" s="246" t="s">
-        <v>418</v>
-      </c>
-      <c r="M5" s="223" t="s">
-        <v>419</v>
-      </c>
-      <c r="N5" s="246" t="s">
-        <v>432</v>
-      </c>
-      <c r="O5" s="223" t="s">
-        <v>231</v>
-      </c>
-      <c r="P5" s="223" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q5" s="223" t="s">
-        <v>233</v>
-      </c>
-      <c r="R5" s="223" t="s">
-        <v>234</v>
-      </c>
-      <c r="S5" s="190" t="s">
-        <v>235</v>
-      </c>
-      <c r="T5" s="191" t="s">
-        <v>236</v>
-      </c>
-      <c r="U5" s="191" t="s">
-        <v>237</v>
-      </c>
-      <c r="V5" s="191" t="s">
-        <v>238</v>
-      </c>
-      <c r="W5" s="192" t="s">
-        <v>239</v>
-      </c>
-      <c r="X5" s="192" t="s">
+      <c r="AC5" s="221" t="s">
         <v>240</v>
       </c>
-      <c r="Y5" s="192" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z5" s="192" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA5" s="191" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB5" s="191" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC5" s="223" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C6" s="66"/>
-      <c r="D6" s="193">
+      <c r="D6" s="191">
         <v>0.7</v>
       </c>
       <c r="E6" s="67">
@@ -51384,10 +51500,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="67"/>
-      <c r="L6" s="193">
+      <c r="L6" s="191">
         <v>1.5</v>
       </c>
-      <c r="M6" s="193">
+      <c r="M6" s="191">
         <v>1.5</v>
       </c>
       <c r="N6" s="66">
@@ -51402,7 +51518,7 @@
       <c r="Q6" s="67">
         <v>0</v>
       </c>
-      <c r="R6" s="196">
+      <c r="R6" s="194">
         <v>0.24</v>
       </c>
       <c r="S6" s="139"/>
@@ -51418,7 +51534,7 @@
       <c r="W6" s="67">
         <v>0</v>
       </c>
-      <c r="X6" s="194">
+      <c r="X6" s="192">
         <v>9.0749999999999993</v>
       </c>
       <c r="Y6" s="66">
@@ -51436,12 +51552,12 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
       <c r="C7" s="68"/>
-      <c r="D7" s="201">
+      <c r="D7" s="199">
         <v>0.9</v>
       </c>
       <c r="E7" s="68"/>
@@ -51471,15 +51587,15 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
@@ -51488,19 +51604,19 @@
         <v>44</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>79</v>
@@ -51511,14 +51627,22 @@
       <c r="N8" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="69"/>
+      <c r="O8" s="69" t="s">
+        <v>24</v>
+      </c>
       <c r="P8" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="153"/>
+        <v>242</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="R8" s="153" t="s">
+        <v>241</v>
+      </c>
       <c r="S8" s="141"/>
-      <c r="T8" s="165"/>
+      <c r="T8" s="119" t="s">
+        <v>425</v>
+      </c>
       <c r="U8" s="69"/>
       <c r="V8" s="69"/>
       <c r="W8" s="69"/>
@@ -51528,16 +51652,16 @@
       <c r="AA8" s="69"/>
       <c r="AB8" s="69"/>
       <c r="AC8" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="70"/>
-      <c r="D9" s="195">
+      <c r="D9" s="193">
         <v>1.1000000000000001</v>
       </c>
       <c r="E9" s="71">
@@ -51557,7 +51681,7 @@
         <v>1.8</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L9" s="71">
         <v>3</v>
@@ -51572,51 +51696,49 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q9" s="70">
         <v>1.64</v>
       </c>
-      <c r="R9" s="197">
+      <c r="R9" s="195">
         <v>0.9</v>
       </c>
       <c r="S9" s="142"/>
-      <c r="T9" s="166" t="s">
-        <v>245</v>
-      </c>
+      <c r="T9" s="243"/>
       <c r="U9" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="X9" s="198">
+        <v>242</v>
+      </c>
+      <c r="X9" s="196">
         <v>20.074999999999999</v>
       </c>
-      <c r="Y9" s="195">
+      <c r="Y9" s="193">
         <v>24.2</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
       <c r="C10" s="68"/>
-      <c r="D10" s="201">
+      <c r="D10" s="199">
         <v>0.9</v>
       </c>
       <c r="E10" s="68"/>
@@ -51654,10 +51776,10 @@
         <v>218</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
@@ -51697,7 +51819,7 @@
         <v>155</v>
       </c>
       <c r="S11" s="143"/>
-      <c r="T11" s="167" t="s">
+      <c r="T11" s="165" t="s">
         <v>155</v>
       </c>
       <c r="U11" s="72" t="s">
@@ -51725,7 +51847,7 @@
         <v>155</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -51736,7 +51858,7 @@
         <v>158</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="202"/>
+      <c r="D12" s="200"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -51821,7 +51943,7 @@
       <c r="S13" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="T13" s="168" t="s">
+      <c r="T13" s="166" t="s">
         <v>163</v>
       </c>
       <c r="U13" s="85" t="s">
@@ -51863,10 +51985,10 @@
         <v>163</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F14" s="85" t="s">
         <v>163</v>
@@ -51910,7 +52032,7 @@
       <c r="S14" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="T14" s="168" t="s">
+      <c r="T14" s="166" t="s">
         <v>163</v>
       </c>
       <c r="U14" s="85" t="s">
@@ -51929,7 +52051,7 @@
         <v>163</v>
       </c>
       <c r="AB14" s="84" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AC14" s="85" t="s">
         <v>163</v>
@@ -52082,7 +52204,7 @@
       <c r="S16" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="T16" s="168" t="s">
+      <c r="T16" s="166" t="s">
         <v>171</v>
       </c>
       <c r="U16" s="85" t="s">
@@ -52161,7 +52283,7 @@
       <c r="S17" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="T17" s="168" t="s">
+      <c r="T17" s="166" t="s">
         <v>175</v>
       </c>
       <c r="U17" s="85" t="s">
@@ -52188,7 +52310,7 @@
         <v>177</v>
       </c>
       <c r="C18" s="84"/>
-      <c r="D18" s="203"/>
+      <c r="D18" s="201"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
@@ -52204,7 +52326,7 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="155"/>
       <c r="S18" s="144"/>
-      <c r="T18" s="168"/>
+      <c r="T18" s="166"/>
       <c r="U18" s="85"/>
       <c r="V18" s="85"/>
       <c r="W18" s="85"/>
@@ -52223,7 +52345,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="84"/>
-      <c r="D19" s="203"/>
+      <c r="D19" s="201"/>
       <c r="E19" s="85"/>
       <c r="F19" s="85"/>
       <c r="G19" s="85"/>
@@ -52239,7 +52361,7 @@
       <c r="Q19" s="85"/>
       <c r="R19" s="155"/>
       <c r="S19" s="144"/>
-      <c r="T19" s="168"/>
+      <c r="T19" s="166"/>
       <c r="U19" s="85"/>
       <c r="V19" s="85"/>
       <c r="W19" s="85"/>
@@ -52258,7 +52380,7 @@
         <v>181</v>
       </c>
       <c r="C20" s="84"/>
-      <c r="D20" s="203"/>
+      <c r="D20" s="201"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
       <c r="G20" s="85" t="s">
@@ -52279,12 +52401,12 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="155"/>
       <c r="S20" s="144"/>
-      <c r="T20" s="168"/>
+      <c r="T20" s="166"/>
       <c r="U20" s="85"/>
       <c r="V20" s="85"/>
       <c r="W20" s="85" t="s">
@@ -52311,7 +52433,7 @@
         <v>184</v>
       </c>
       <c r="C21" s="84"/>
-      <c r="D21" s="203"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="85"/>
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
@@ -52333,7 +52455,7 @@
       <c r="Q21" s="85"/>
       <c r="R21" s="155"/>
       <c r="S21" s="144"/>
-      <c r="T21" s="168"/>
+      <c r="T21" s="166"/>
       <c r="U21" s="85"/>
       <c r="V21" s="85"/>
       <c r="W21" s="85"/>
@@ -52354,7 +52476,7 @@
         <v>186</v>
       </c>
       <c r="C22" s="84"/>
-      <c r="D22" s="203"/>
+      <c r="D22" s="201"/>
       <c r="E22" s="85"/>
       <c r="F22" s="85"/>
       <c r="G22" s="85"/>
@@ -52370,7 +52492,7 @@
       <c r="Q22" s="87"/>
       <c r="R22" s="156"/>
       <c r="S22" s="145"/>
-      <c r="T22" s="169"/>
+      <c r="T22" s="167"/>
       <c r="U22" s="87"/>
       <c r="V22" s="87"/>
       <c r="W22" s="87"/>
@@ -52398,7 +52520,7 @@
         <v>191</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G23" s="84" t="s">
         <v>163</v>
@@ -52439,8 +52561,8 @@
       <c r="S23" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="T23" s="170" t="s">
-        <v>256</v>
+      <c r="T23" s="168" t="s">
+        <v>253</v>
       </c>
       <c r="U23" s="84" t="s">
         <v>163</v>
@@ -52526,11 +52648,11 @@
       <c r="S24" s="144" t="s">
         <v>191</v>
       </c>
-      <c r="T24" s="168" t="s">
-        <v>257</v>
+      <c r="T24" s="166" t="s">
+        <v>254</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="V24" s="85" t="s">
         <v>191</v>
@@ -52563,7 +52685,7 @@
         <v>193</v>
       </c>
       <c r="C25" s="84"/>
-      <c r="D25" s="203"/>
+      <c r="D25" s="201"/>
       <c r="E25" s="85"/>
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
@@ -52579,7 +52701,7 @@
       <c r="Q25" s="85"/>
       <c r="R25" s="155"/>
       <c r="S25" s="144"/>
-      <c r="T25" s="168"/>
+      <c r="T25" s="166"/>
       <c r="U25" s="85"/>
       <c r="V25" s="85"/>
       <c r="W25" s="85"/>
@@ -52598,7 +52720,7 @@
         <v>195</v>
       </c>
       <c r="C26" s="84"/>
-      <c r="D26" s="203"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="85"/>
       <c r="F26" s="85"/>
       <c r="G26" s="85"/>
@@ -52614,7 +52736,7 @@
       <c r="Q26" s="85"/>
       <c r="R26" s="155"/>
       <c r="S26" s="144"/>
-      <c r="T26" s="168"/>
+      <c r="T26" s="166"/>
       <c r="U26" s="85"/>
       <c r="V26" s="85"/>
       <c r="W26" s="85"/>
@@ -52622,11 +52744,11 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AB26" s="84"/>
       <c r="AC26" s="84" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -52637,7 +52759,7 @@
         <v>197</v>
       </c>
       <c r="C27" s="84"/>
-      <c r="D27" s="203"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
       <c r="G27" s="85"/>
@@ -52653,7 +52775,7 @@
       <c r="Q27" s="85"/>
       <c r="R27" s="155"/>
       <c r="S27" s="144"/>
-      <c r="T27" s="168"/>
+      <c r="T27" s="166"/>
       <c r="U27" s="85"/>
       <c r="V27" s="85"/>
       <c r="W27" s="85"/>
@@ -52661,7 +52783,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
@@ -52724,7 +52846,7 @@
       <c r="S28" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="T28" s="168" t="s">
+      <c r="T28" s="166" t="s">
         <v>111</v>
       </c>
       <c r="U28" s="85" t="s">
@@ -54790,7 +54912,7 @@
       <c r="Q94" s="73"/>
       <c r="R94" s="161"/>
       <c r="S94" s="149"/>
-      <c r="T94" s="171"/>
+      <c r="T94" s="169"/>
       <c r="U94" s="73"/>
       <c r="V94" s="73"/>
       <c r="W94" s="73"/>
@@ -55007,7 +55129,7 @@
       <c r="Q101" s="73"/>
       <c r="R101" s="161"/>
       <c r="S101" s="149"/>
-      <c r="T101" s="171"/>
+      <c r="T101" s="169"/>
       <c r="U101" s="73"/>
       <c r="V101" s="73"/>
       <c r="W101" s="73"/>
@@ -55153,10 +55275,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="237" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="237"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -55251,10 +55373,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="240"/>
+      <c r="B3" s="237"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -55302,107 +55424,107 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="237"/>
       <c r="C4" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="G4" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="J4" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="K4" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="L4" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="M4" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="N4" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="O4" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="O4" s="93" t="s">
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="240"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="219" t="s">
         <v>273</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="D5" s="220" t="s">
         <v>274</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="E5" s="203" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="203" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="203" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="203" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="203" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="203" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="203" t="s">
+        <v>400</v>
+      </c>
+      <c r="L5" s="203" t="s">
+        <v>396</v>
+      </c>
+      <c r="M5" s="202" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="243"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="221" t="s">
+      <c r="N5" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="222" t="s">
+      <c r="O5" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="205" t="s">
-        <v>408</v>
-      </c>
-      <c r="F5" s="205" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" s="205" t="s">
-        <v>407</v>
-      </c>
-      <c r="H5" s="205" t="s">
-        <v>406</v>
-      </c>
-      <c r="I5" s="205" t="s">
-        <v>405</v>
-      </c>
-      <c r="J5" s="205" t="s">
-        <v>404</v>
-      </c>
-      <c r="K5" s="205" t="s">
-        <v>403</v>
-      </c>
-      <c r="L5" s="205" t="s">
-        <v>399</v>
-      </c>
-      <c r="M5" s="204" t="s">
+      <c r="P5" s="202" t="s">
         <v>278</v>
       </c>
-      <c r="N5" s="204" t="s">
+      <c r="Q5" s="202" t="s">
         <v>279</v>
       </c>
-      <c r="O5" s="204" t="s">
-        <v>280</v>
-      </c>
-      <c r="P5" s="204" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="204" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -55425,7 +55547,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -55446,52 +55568,52 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -55499,7 +55621,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -55516,7 +55638,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -55542,47 +55664,47 @@
         <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>155</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -55902,13 +56024,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G20" s="89"/>
       <c r="I20" s="76"/>
@@ -55929,29 +56051,29 @@
         <v>184</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -55968,31 +56090,31 @@
         <v>186</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="J22" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="K22" s="76" t="s">
         <v>305</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>307</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>308</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -56078,31 +56200,31 @@
         <v>195</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -56119,31 +56241,31 @@
         <v>197</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -57687,24 +57809,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="234" t="s">
+      <c r="B1" s="237"/>
+      <c r="C1" s="231" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>388</v>
-      </c>
       <c r="G1" s="65" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>114</v>
@@ -57713,16 +57835,16 @@
         <v>118</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="95" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -57761,10 +57883,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="240"/>
+      <c r="B3" s="237"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -57796,28 +57918,28 @@
         <v>36</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="237" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="237"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>388</v>
-      </c>
       <c r="G4" s="65" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H4" s="65" t="s">
         <v>114</v>
@@ -57826,55 +57948,55 @@
         <v>118</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>122</v>
       </c>
       <c r="M4" s="95" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="210" t="s">
+      <c r="A5" s="240"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="208" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="226" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="K5" s="228" t="s">
-        <v>401</v>
-      </c>
-      <c r="L5" s="228" t="s">
-        <v>400</v>
+      <c r="L5" s="226" t="s">
+        <v>397</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="239" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -57893,7 +58015,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242"/>
+      <c r="A7" s="239"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -57910,21 +58032,21 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="239"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>20</v>
@@ -57936,10 +58058,10 @@
         <v>75</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>75</v>
@@ -57947,7 +58069,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -57964,7 +58086,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -59643,84 +59765,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D1" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="K1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="174" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="174" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="E2" s="224" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="G2" s="83" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="91" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="245" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="176" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="176" t="s">
-        <v>390</v>
-      </c>
-      <c r="D2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="226" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="L2" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="M2" s="83" t="s">
         <v>335</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -59730,6 +59852,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -59946,27 +60088,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59983,23 +60124,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IVM6311_Testing_scripts.xlsx
+++ b/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\invlab\Documents\IVM6311ATE\IVM6311ATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D1759-1666-4A0F-A8D1-5DFC090D1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02E442-669E-43D0-A8A6-A25CE6B16830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42936,6 +42936,690 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Run_startup
+Run_Boost_test_default
+Run_Enable_Ana_Testpoint
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VREF basso così l'uscita del comparatore è 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB3[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "clamp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"err amp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB1[3]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"comp bias en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x0F[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force bst bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x03_0x05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN and SDI TMUX"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[5]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force err amp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[3]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "force comp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17[5]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"force clamp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__10V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN
+Measure__Voltage_SDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"db and b, FSYN should be 0 and SDI 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x0B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "dig test EN FSYN=outcomp"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"out_comp, it should be 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x0A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"VREF high so comparator output should be 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"out_comp, it should be 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x04_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN should be 0 and SDI 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBIAS__5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x00 
+0x04_0x00
+0x19_0x00</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Run__startup
 Run__Boost_test_default
 Run__Enable_Ana_Testpoint
@@ -42978,124 +43662,126 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xB1[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BIAS_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[3:2]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ovp ref bias sel set to threshold +0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a VREF BIAS of 9.36V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x0D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x04</t>
-    </r>
-    <r>
-      <rPr>
+      <t>0xB1[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BSO_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[5:4]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ovp ref bso sel set to 9V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xCA_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a VREF BSO of 0V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x0C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to VREF_OVP_BSO"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x07</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
@@ -43105,18 +43791,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN en"
-</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN en, BCLK en, SDI en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
@@ -43131,7 +43818,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "SDI=ovp_bias"
+      <t xml:space="preserve"> "SDI=ovp_bso"
 </t>
     </r>
     <r>
@@ -43209,16 +43896,190 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">0x15[4]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
+      <t>0x15[4]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x16[0]_0x01  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force ovp bso"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19[1]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"threshold measure vref_ovp, it should be corresponding to the 9V threshold (0.66V)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BSO output, it should be 0 since BSO 3.6V&lt;9V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x13_0x80 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"clamp disable"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x14_0x00
+0x18_0x10
+0x19_0x10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Force__VBIAS__12V
 </t>
     </r>
     <r>
@@ -43228,7 +44089,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Force__VBSO__11V
 </t>
     </r>
     <r>
@@ -43244,189 +44105,58 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  "Force ovp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19[1]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BSO output, it should be 1, since we force the VBSO the discharge should be on but never dischargin VBSO"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Force__VBSO__3.6V
+Force VBIAS_5V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[7]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ana_tst_mode_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"threshold measure vref_bias, it should be corresponding to the 9,36V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BIAS output, it should be 0 since Bias 6V&lt;9V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__11V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BIAS output, it should be 1, since we force the VBIAS the discharge should be on but never dischargin VBIAS"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VBIAS__5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x13_0x00
+0x14_0x00
+0x18_0x00
+0x19_0x00
 </t>
     </r>
     <r>
@@ -43444,690 +44174,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Run_startup
-Run_Boost_test_default
-Run_Enable_Ana_Testpoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "VREF basso così l'uscita del comparatore è 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB3[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "clamp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"err amp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB1[3]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"comp bias en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB0[0]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x0F[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force bst bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x03_0x05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN and SDI TMUX"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[5]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force err amp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x16[3]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "force comp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x17[5]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"force clamp bias"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__10V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN
-Measure__Voltage_SDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"db and b, FSYN should be 0 and SDI 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x0B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "dig test EN FSYN=outcomp"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"out_comp, it should be 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11_0x0A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"VREF high so comparator output should be 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"out_comp, it should be 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x04_0x11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"dig test EN FSYN=db SDI=b"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__SDI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN should be 0 and SDI 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Force__VBIAS__5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x00 
-0x04_0x00
-0x19_0x00</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Run__startup
 Run__Boost_test_default
 Run__Enable_Ana_Testpoint
@@ -44170,73 +44216,209 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0xB1[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BSO_en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[5:4]_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ovp ref bso sel set to 9V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xCA_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "correspond to a VREF BSO of 0V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst general en"
+      <t>0xB1[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BIAS_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[3:2]_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ovp ref bias sel set to threshold +0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB0[0]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11_0x06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "correspond to a VREF BIAS of 9.36V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x0D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to VREF_OVP_BIAS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"FSYN en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x1C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "SDI=ovp_bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
 </t>
     </r>
     <r>
@@ -44265,68 +44447,164 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0x1A_0x0C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to VREF_OVP_BSO"
+      <t xml:space="preserve">0x15[4]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Force bst general en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x16[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "Force ovp bias"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19[1]_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"bst_test en"
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x03_0x07</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[7]_0x01</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ana_tst_mode_en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"threshold measure vref_bias, it should be corresponding to the 9,36V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BIAS output, it should be 0 since Bias 6V&lt;9V"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"FSYN en, BCLK en, SDI en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x04_0x1B</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "SDI=ovp_bso"
+      <t xml:space="preserve">Force__VBIAS__11V
 </t>
     </r>
     <r>
@@ -44336,146 +44614,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[4]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force bst general en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x16[0]_0x01  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Force ovp bso"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x19[1]_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
+      <t xml:space="preserve">Wait__delay__0.1ms
 </t>
     </r>
     <r>
@@ -44485,99 +44624,17 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"threshold measure vref_ovp, it should be corresponding to the 9V threshold (0.66V)"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BSO output, it should be 0 since BSO 3.6V&lt;9V"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x13_0x80 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"clamp disable"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0x14_0x00
-0x18_0x10
-0x19_0x10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">
+Measure__Voltage__FSYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OVP_BIAS output, it should be 1, since we force the VBIAS the discharge should be on but never dischargin VBIAS"
 </t>
     </r>
     <r>
@@ -44585,9 +44642,19 @@
         <sz val="11"/>
         <color rgb="FFFF33CC"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Force__VBIAS__12V
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force__VBIAS__5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -44597,74 +44664,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Force__VBSO__11V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__Voltage__FSYN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OVP_BSO output, it should be 1, since we force the VBSO the discharge should be on but never dischargin VBSO"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Force__VBSO__3.6V
-Force VBIAS_5V
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x13_0x00
-0x14_0x00
-0x18_0x00
-0x19_0x00
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -45875,7 +45875,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="118" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -46458,6 +46458,9 @@
     <xf numFmtId="49" fontId="118" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -46487,12 +46490,6 @@
     </xf>
     <xf numFmtId="3" fontId="26" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -47989,10 +47986,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="233" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="233"/>
       <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
@@ -48023,10 +48020,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="233"/>
       <c r="C3" s="15" t="s">
         <v>60</v>
       </c>
@@ -48041,10 +48038,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="9" t="s">
         <v>142</v>
       </c>
@@ -48059,8 +48056,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="204" t="s">
         <v>420</v>
       </c>
@@ -48075,7 +48072,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="235" t="s">
+      <c r="A6" s="236" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -48091,7 +48088,7 @@
       <c r="F6" s="67"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="235"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -48103,7 +48100,7 @@
       <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="235"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -48119,7 +48116,7 @@
       <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -48131,7 +48128,7 @@
       <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="235"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49059,10 +49056,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="233"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -49093,10 +49090,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="233"/>
       <c r="C3" s="15" t="s">
         <v>79</v>
       </c>
@@ -49111,10 +49108,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
@@ -49129,8 +49126,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="273" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
@@ -49145,7 +49142,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -49163,7 +49160,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -49179,7 +49176,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -49197,7 +49194,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -49213,7 +49210,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -49986,10 +49983,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="232"/>
+      <c r="B1" s="233"/>
       <c r="C1" s="103" t="s">
         <v>211</v>
       </c>
@@ -50018,10 +50015,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="232"/>
+      <c r="B3" s="233"/>
       <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
@@ -50036,10 +50033,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="103" t="s">
         <v>211</v>
       </c>
@@ -50054,8 +50051,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="233"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="207" t="s">
         <v>214</v>
       </c>
@@ -50070,7 +50067,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="237" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -50084,7 +50081,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="14" t="s">
         <v>147</v>
       </c>
@@ -50094,7 +50091,7 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="10" t="s">
         <v>149</v>
       </c>
@@ -50112,7 +50109,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236"/>
+      <c r="A9" s="237"/>
       <c r="B9" s="12" t="s">
         <v>151</v>
       </c>
@@ -50124,7 +50121,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="14" t="s">
         <v>152</v>
       </c>
@@ -51026,8 +51023,8 @@
   <dimension ref="A1:AC104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51044,10 +51041,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="237"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
@@ -51099,11 +51096,11 @@
       <c r="S1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>59</v>
+      <c r="T1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="V1" s="65" t="s">
         <v>51</v>
@@ -51214,10 +51211,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="182" t="s">
         <v>20</v>
       </c>
@@ -51301,10 +51298,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="238" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
@@ -51388,8 +51385,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="238"/>
-      <c r="B5" s="238"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="183" t="s">
         <v>418</v>
       </c>
@@ -51412,7 +51409,7 @@
         <v>413</v>
       </c>
       <c r="J5" s="189" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K5" s="189" t="s">
         <v>430</v>
@@ -51426,7 +51423,7 @@
       <c r="N5" s="183" t="s">
         <v>428</v>
       </c>
-      <c r="O5" s="242" t="s">
+      <c r="O5" s="183" t="s">
         <v>231</v>
       </c>
       <c r="P5" s="221" t="s">
@@ -51442,10 +51439,10 @@
         <v>234</v>
       </c>
       <c r="T5" s="189" t="s">
+        <v>434</v>
+      </c>
+      <c r="U5" s="189" t="s">
         <v>435</v>
-      </c>
-      <c r="U5" s="189" t="s">
-        <v>433</v>
       </c>
       <c r="V5" s="189" t="s">
         <v>235</v>
@@ -51473,7 +51470,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="240" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -51552,7 +51549,7 @@
       <c r="AC6" s="67"/>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -51587,7 +51584,7 @@
       <c r="AC7" s="68"/>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -51643,7 +51640,9 @@
       <c r="T8" s="119" t="s">
         <v>425</v>
       </c>
-      <c r="U8" s="69"/>
+      <c r="U8" s="69" t="s">
+        <v>425</v>
+      </c>
       <c r="V8" s="69"/>
       <c r="W8" s="69"/>
       <c r="X8" s="69"/>
@@ -51656,7 +51655,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -51705,10 +51704,8 @@
         <v>0.9</v>
       </c>
       <c r="S9" s="142"/>
-      <c r="T9" s="243"/>
-      <c r="U9" s="71" t="s">
-        <v>242</v>
-      </c>
+      <c r="T9" s="232"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="71" t="s">
         <v>242</v>
       </c>
@@ -51733,7 +51730,7 @@
       <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -55275,10 +55272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="237"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="17" t="s">
         <v>138</v>
       </c>
@@ -55373,10 +55370,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="15" t="s">
         <v>99</v>
       </c>
@@ -55424,10 +55421,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="238" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="65" t="s">
         <v>258</v>
       </c>
@@ -55475,8 +55472,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="219" t="s">
         <v>273</v>
       </c>
@@ -55524,7 +55521,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="240" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -55547,7 +55544,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -55568,7 +55565,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -55613,7 +55610,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -55638,7 +55635,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -57809,10 +57806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="237"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="231" t="s">
         <v>64</v>
       </c>
@@ -57883,10 +57880,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="64" t="s">
         <v>65</v>
       </c>
@@ -57922,10 +57919,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="238" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="238"/>
       <c r="C4" s="65" t="s">
         <v>64</v>
       </c>
@@ -57961,8 +57958,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
-      <c r="B5" s="240"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="241"/>
       <c r="C5" s="208" t="s">
         <v>395</v>
       </c>
@@ -57996,7 +57993,7 @@
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="240" t="s">
         <v>145</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -58015,7 +58012,7 @@
       <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="239"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="60" t="s">
         <v>147</v>
       </c>
@@ -58032,7 +58029,7 @@
       <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="61" t="s">
         <v>149</v>
       </c>
@@ -58069,7 +58066,7 @@
       <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="62" t="s">
         <v>151</v>
       </c>
@@ -58086,7 +58083,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="60" t="s">
         <v>152</v>
       </c>
@@ -59747,8 +59744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853352DE-922C-4F00-B110-569410679C0C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59852,26 +59849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -60088,10 +60065,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -60108,20 +60116,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>